--- a/物理实验/物理实验.xlsx
+++ b/物理实验/物理实验.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\SHMTU-Automation-Resources\物理实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9C7D34-E33E-45A4-9C59-ACEE4E35BE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4EB692-07AC-4582-A757-066717DFDCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{289B0313-6EC0-446F-8799-597BA1CF6533}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{289B0313-6EC0-446F-8799-597BA1CF6533}"/>
   </bookViews>
   <sheets>
     <sheet name="使用方法介绍" sheetId="6" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="200">
   <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1447,6 +1447,17 @@
   </si>
   <si>
     <t>https://github.com/zjm54321/SHMTU-Automation-Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A:光强发生变化，但不消光
+B:光强发生变化，且消光
+C:光强没有发生变化
+D:某位置有光，其他位置消光
+E:椭圆偏振光
+F:圆偏振光
+G:线偏振光
+H:部分偏振光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2199,7 +2210,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="208">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2689,6 +2700,9 @@
     <xf numFmtId="176" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2716,15 +2730,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2734,30 +2772,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2803,26 +2817,29 @@
     <xf numFmtId="189" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7955,19 +7972,19 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.4140625" style="109" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="25.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A1" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="163" t="s">
+      <c r="C1" s="164" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="110"/>
@@ -7975,21 +7992,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="164"/>
+      <c r="C2" s="165"/>
       <c r="D2" s="112"/>
       <c r="E2" s="113" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="164"/>
+      <c r="C3" s="165"/>
       <c r="D3" s="114" t="s">
         <v>120</v>
       </c>
@@ -7997,48 +8014,48 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="165"/>
+      <c r="C4" s="166"/>
       <c r="D4" s="115"/>
       <c r="E4" s="116" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.8" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="25.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A5" s="130" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="130" t="s">
         <v>114</v>
       </c>
       <c r="D6" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="207" t="s">
+      <c r="E6" s="163" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="131" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="130" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="130" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>196</v>
       </c>
@@ -8071,13 +8088,13 @@
   <sheetViews>
     <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89"/>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -8092,9 +8109,9 @@
       <c r="L1" s="88"/>
       <c r="M1" s="84"/>
     </row>
-    <row r="2" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="86"/>
-      <c r="B2" s="201" t="s">
+      <c r="B2" s="207" t="s">
         <v>185</v>
       </c>
       <c r="C2" s="152">
@@ -8111,9 +8128,9 @@
       </c>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="86"/>
-      <c r="B3" s="202"/>
+      <c r="B3" s="205"/>
       <c r="C3" s="156" t="s">
         <v>183</v>
       </c>
@@ -8128,9 +8145,9 @@
       </c>
       <c r="M3" s="85"/>
     </row>
-    <row r="4" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="86"/>
-      <c r="B4" s="202"/>
+      <c r="B4" s="205"/>
       <c r="C4" s="91" t="s">
         <v>182</v>
       </c>
@@ -8145,7 +8162,7 @@
       </c>
       <c r="M4" s="85"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="86"/>
       <c r="B5" s="132">
         <v>1000</v>
@@ -8166,7 +8183,7 @@
       </c>
       <c r="M5" s="85"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="86"/>
       <c r="B6" s="132">
         <v>1200</v>
@@ -8187,7 +8204,7 @@
       </c>
       <c r="M6" s="85"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="86"/>
       <c r="B7" s="132">
         <v>1400</v>
@@ -8208,7 +8225,7 @@
       </c>
       <c r="M7" s="85"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="86"/>
       <c r="B8" s="132">
         <v>1600</v>
@@ -8229,7 +8246,7 @@
       </c>
       <c r="M8" s="85"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="86"/>
       <c r="B9" s="132">
         <v>1800</v>
@@ -8250,7 +8267,7 @@
       </c>
       <c r="M9" s="85"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="86"/>
       <c r="B10" s="132">
         <v>2000</v>
@@ -8271,7 +8288,7 @@
       </c>
       <c r="M10" s="85"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="86"/>
       <c r="B11" s="132">
         <v>2100</v>
@@ -8292,7 +8309,7 @@
       </c>
       <c r="M11" s="85"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="86"/>
       <c r="B12" s="132">
         <v>2200</v>
@@ -8313,7 +8330,7 @@
       </c>
       <c r="M12" s="85"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="86"/>
       <c r="B13" s="132">
         <v>2300</v>
@@ -8334,7 +8351,7 @@
       </c>
       <c r="M13" s="85"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="86"/>
       <c r="B14" s="132">
         <v>2400</v>
@@ -8355,7 +8372,7 @@
       </c>
       <c r="M14" s="85"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="86"/>
       <c r="B15" s="132">
         <v>2500</v>
@@ -8376,7 +8393,7 @@
       </c>
       <c r="M15" s="85"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="86"/>
       <c r="B16" s="132">
         <v>2600</v>
@@ -8397,7 +8414,7 @@
       </c>
       <c r="M16" s="85"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="86"/>
       <c r="B17" s="132">
         <v>2700</v>
@@ -8418,7 +8435,7 @@
       </c>
       <c r="M17" s="85"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="86"/>
       <c r="B18" s="132">
         <v>2800</v>
@@ -8439,7 +8456,7 @@
       </c>
       <c r="M18" s="85"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="86"/>
       <c r="B19" s="132">
         <v>2900</v>
@@ -8460,7 +8477,7 @@
       </c>
       <c r="M19" s="85"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="86"/>
       <c r="B20" s="132">
         <v>3000</v>
@@ -8481,7 +8498,7 @@
       </c>
       <c r="M20" s="85"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="86"/>
       <c r="B21" s="132">
         <v>3100</v>
@@ -8502,7 +8519,7 @@
       </c>
       <c r="M21" s="85"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="86"/>
       <c r="B22" s="132">
         <v>3125</v>
@@ -8523,7 +8540,7 @@
       </c>
       <c r="M22" s="85"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="86"/>
       <c r="B23" s="132">
         <v>3150</v>
@@ -8544,7 +8561,7 @@
       </c>
       <c r="M23" s="85"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="86"/>
       <c r="B24" s="132">
         <v>3175</v>
@@ -8565,7 +8582,7 @@
       </c>
       <c r="M24" s="85"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="86"/>
       <c r="B25" s="132">
         <v>3200</v>
@@ -8586,7 +8603,7 @@
       </c>
       <c r="M25" s="85"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="86"/>
       <c r="B26" s="132">
         <v>3225</v>
@@ -8607,7 +8624,7 @@
       </c>
       <c r="M26" s="85"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="86"/>
       <c r="B27" s="132">
         <v>3250</v>
@@ -8628,7 +8645,7 @@
       </c>
       <c r="M27" s="85"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="86"/>
       <c r="B28" s="132">
         <v>3300</v>
@@ -8649,7 +8666,7 @@
       </c>
       <c r="M28" s="85"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="86"/>
       <c r="B29" s="132">
         <v>3400</v>
@@ -8670,7 +8687,7 @@
       </c>
       <c r="M29" s="85"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="86"/>
       <c r="B30" s="132">
         <v>3500</v>
@@ -8691,7 +8708,7 @@
       </c>
       <c r="M30" s="85"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="86"/>
       <c r="B31" s="132">
         <v>3600</v>
@@ -8712,7 +8729,7 @@
       </c>
       <c r="M31" s="85"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="86"/>
       <c r="B32" s="132">
         <v>3700</v>
@@ -8733,7 +8750,7 @@
       </c>
       <c r="M32" s="85"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="86"/>
       <c r="B33" s="132">
         <v>3800</v>
@@ -8754,7 +8771,7 @@
       </c>
       <c r="M33" s="85"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="86"/>
       <c r="B34" s="132">
         <v>3900</v>
@@ -8775,7 +8792,7 @@
       </c>
       <c r="M34" s="85"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="86"/>
       <c r="B35" s="132">
         <v>4000</v>
@@ -8796,7 +8813,7 @@
       </c>
       <c r="M35" s="85"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="86"/>
       <c r="B36" s="132">
         <v>4200</v>
@@ -8817,7 +8834,7 @@
       </c>
       <c r="M36" s="85"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="86"/>
       <c r="B37" s="132">
         <v>4400</v>
@@ -8838,7 +8855,7 @@
       </c>
       <c r="M37" s="85"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="86"/>
       <c r="B38" s="132">
         <v>4600</v>
@@ -8859,7 +8876,7 @@
       </c>
       <c r="M38" s="85"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="86"/>
       <c r="B39" s="132">
         <v>4800</v>
@@ -8880,7 +8897,7 @@
       </c>
       <c r="M39" s="85"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="86"/>
       <c r="B40" s="132">
         <v>5000</v>
@@ -8901,7 +8918,7 @@
       </c>
       <c r="M40" s="85"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="86"/>
       <c r="B41" s="132">
         <v>5200</v>
@@ -8922,7 +8939,7 @@
       </c>
       <c r="M41" s="85"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="86"/>
       <c r="B42" s="132">
         <v>5400</v>
@@ -8943,7 +8960,7 @@
       </c>
       <c r="M42" s="85"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="86"/>
       <c r="B43" s="132">
         <v>5600</v>
@@ -8964,7 +8981,7 @@
       </c>
       <c r="M43" s="85"/>
     </row>
-    <row r="44" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="86"/>
       <c r="B44" s="117">
         <v>5800</v>
@@ -8985,65 +9002,65 @@
       </c>
       <c r="M44" s="85"/>
     </row>
-    <row r="45" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="86"/>
       <c r="M45" s="85"/>
     </row>
-    <row r="46" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" s="86"/>
-      <c r="B46" s="204" t="s">
+      <c r="B46" s="203" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="205"/>
-      <c r="D46" s="172" t="s">
+      <c r="C46" s="204"/>
+      <c r="D46" s="183" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="172"/>
-      <c r="F46" s="172"/>
-      <c r="G46" s="172"/>
-      <c r="H46" s="172" t="s">
+      <c r="E46" s="183"/>
+      <c r="F46" s="183"/>
+      <c r="G46" s="183"/>
+      <c r="H46" s="183" t="s">
         <v>177</v>
       </c>
-      <c r="I46" s="172"/>
-      <c r="J46" s="172"/>
-      <c r="K46" s="172" t="s">
+      <c r="I46" s="183"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="183" t="s">
         <v>178</v>
       </c>
-      <c r="L46" s="176"/>
+      <c r="L46" s="185"/>
       <c r="M46" s="85"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="86"/>
-      <c r="B47" s="202"/>
+      <c r="B47" s="205"/>
       <c r="C47" s="206"/>
-      <c r="D47" s="175" t="s">
+      <c r="D47" s="184" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="175"/>
-      <c r="F47" s="175"/>
-      <c r="G47" s="175" t="s">
+      <c r="E47" s="184"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="184" t="s">
         <v>181</v>
       </c>
-      <c r="H47" s="175" t="s">
+      <c r="H47" s="184" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="175" t="s">
+      <c r="I47" s="184" t="s">
         <v>193</v>
       </c>
-      <c r="J47" s="175" t="s">
+      <c r="J47" s="184" t="s">
         <v>190</v>
       </c>
-      <c r="K47" s="175" t="s">
+      <c r="K47" s="184" t="s">
         <v>192</v>
       </c>
-      <c r="L47" s="177" t="s">
+      <c r="L47" s="186" t="s">
         <v>191</v>
       </c>
       <c r="M47" s="85"/>
     </row>
-    <row r="48" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.3">
       <c r="A48" s="86"/>
-      <c r="B48" s="202"/>
+      <c r="B48" s="205"/>
       <c r="C48" s="206"/>
       <c r="D48" s="91" t="s">
         <v>188</v>
@@ -9054,17 +9071,17 @@
       <c r="F48" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="G48" s="175"/>
-      <c r="H48" s="175"/>
-      <c r="I48" s="175"/>
-      <c r="J48" s="175"/>
-      <c r="K48" s="175"/>
-      <c r="L48" s="177"/>
+      <c r="G48" s="184"/>
+      <c r="H48" s="184"/>
+      <c r="I48" s="184"/>
+      <c r="J48" s="184"/>
+      <c r="K48" s="184"/>
+      <c r="L48" s="186"/>
       <c r="M48" s="85"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="86"/>
-      <c r="B49" s="203" t="s">
+      <c r="B49" s="202" t="s">
         <v>186</v>
       </c>
       <c r="C49" s="148">
@@ -9109,7 +9126,7 @@
       </c>
       <c r="M49" s="85"/>
     </row>
-    <row r="50" spans="1:13" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="86"/>
       <c r="B50" s="180"/>
       <c r="C50" s="150">
@@ -9154,7 +9171,7 @@
       </c>
       <c r="M50" s="85"/>
     </row>
-    <row r="51" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="107"/>
       <c r="B51" s="108"/>
       <c r="C51" s="108"/>
@@ -9171,6 +9188,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H46:J46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B46:C48"/>
@@ -9179,11 +9201,6 @@
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="L47:L48"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9200,28 +9217,28 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.58203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="166" t="s">
+    <row r="1" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="167"/>
-      <c r="C1" s="167"/>
-      <c r="D1" s="167"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="167"/>
-      <c r="G1" s="167"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7"/>
       <c r="B2" s="2">
         <v>1</v>
@@ -9243,7 +9260,7 @@
       </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -9291,7 +9308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -9339,7 +9356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -9387,7 +9404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -9435,7 +9452,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -9483,7 +9500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -9531,7 +9548,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
@@ -9579,7 +9596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -9627,7 +9644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -9675,7 +9692,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -9685,7 +9702,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:15" ht="42" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="42.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="71" t="s">
         <v>14</v>
       </c>
@@ -9698,7 +9715,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:15" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="42" x14ac:dyDescent="0.3">
       <c r="A14" s="72" t="s">
         <v>15</v>
       </c>
@@ -9711,7 +9728,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="73" t="s">
         <v>16</v>
       </c>
@@ -9724,7 +9741,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:15" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -9734,19 +9751,19 @@
       <c r="G16" s="11"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="168" t="s">
+    <row r="17" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="169" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
+      <c r="B17" s="170"/>
+      <c r="C17" s="170"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="170"/>
+      <c r="G17" s="170"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -9768,7 +9785,7 @@
       </c>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
@@ -9797,7 +9814,7 @@
       </c>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
@@ -9826,7 +9843,7 @@
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
@@ -9855,7 +9872,7 @@
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
@@ -9884,7 +9901,7 @@
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
@@ -9913,7 +9930,7 @@
       </c>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
@@ -9942,7 +9959,7 @@
       </c>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>11</v>
       </c>
@@ -9971,7 +9988,7 @@
       </c>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>12</v>
       </c>
@@ -10000,7 +10017,7 @@
       </c>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="9" t="s">
         <v>13</v>
       </c>
@@ -10029,7 +10046,7 @@
       </c>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -10057,16 +10074,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="6.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -10077,7 +10094,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:16" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="76" t="s">
         <v>25</v>
       </c>
@@ -10104,7 +10121,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="77" t="s">
         <v>0</v>
       </c>
@@ -10132,7 +10149,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="78" t="s">
         <v>1</v>
       </c>
@@ -10160,7 +10177,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="79"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10171,7 +10188,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="80" t="s">
         <v>24</v>
       </c>
@@ -10187,7 +10204,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="79"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -10198,7 +10215,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="80" t="s">
         <v>32</v>
       </c>
@@ -10213,7 +10230,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="79"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -10225,7 +10242,7 @@
       <c r="I9" s="14"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="28.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A10" s="76" t="s">
         <v>26</v>
       </c>
@@ -10245,7 +10262,7 @@
       <c r="I10" s="14"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="77">
         <v>1</v>
       </c>
@@ -10265,7 +10282,7 @@
       <c r="I11" s="14"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="77">
         <v>2</v>
       </c>
@@ -10284,7 +10301,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="77">
         <v>3</v>
       </c>
@@ -10303,7 +10320,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="77">
         <v>4</v>
       </c>
@@ -10322,7 +10339,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="77">
         <v>5</v>
       </c>
@@ -10341,7 +10358,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="77">
         <v>6</v>
       </c>
@@ -10360,7 +10377,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="78" t="s">
         <v>74</v>
       </c>
@@ -10382,7 +10399,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A18" s="76" t="s">
         <v>30</v>
       </c>
@@ -10404,7 +10421,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="78" t="s">
         <v>31</v>
       </c>
@@ -10426,7 +10443,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -10450,33 +10467,33 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.88671875" customWidth="1"/>
-    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" customWidth="1"/>
-    <col min="6" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.9140625" customWidth="1"/>
+    <col min="2" max="2" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" customWidth="1"/>
+    <col min="4" max="4" width="9.4140625" customWidth="1"/>
+    <col min="5" max="5" width="7.25" customWidth="1"/>
+    <col min="6" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89"/>
       <c r="B1" s="88"/>
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="84"/>
     </row>
-    <row r="2" spans="1:10" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="28.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10"/>
       <c r="C2" s="42" t="s">
         <v>34</v>
@@ -10493,7 +10510,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="85"/>
     </row>
-    <row r="3" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10"/>
       <c r="C3" s="45">
         <v>1084</v>
@@ -10510,7 +10527,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="85"/>
     </row>
-    <row r="4" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -10522,7 +10539,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="85"/>
     </row>
-    <row r="5" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10534,7 +10551,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="85"/>
     </row>
-    <row r="6" spans="1:10" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="28.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
       <c r="B6" s="2"/>
       <c r="C6" s="43" t="s">
@@ -10552,8 +10569,8 @@
       <c r="I6" s="11"/>
       <c r="J6" s="85"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="170" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="171" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3">
@@ -10574,8 +10591,8 @@
       <c r="I7" s="11"/>
       <c r="J7" s="85"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="171"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -10594,8 +10611,8 @@
       <c r="I8" s="11"/>
       <c r="J8" s="85"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="171"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -10614,8 +10631,8 @@
       <c r="I9" s="11"/>
       <c r="J9" s="85"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="170"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="171"/>
       <c r="B10" s="3">
         <v>4</v>
       </c>
@@ -10634,8 +10651,8 @@
       <c r="I10" s="11"/>
       <c r="J10" s="85"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="171"/>
       <c r="B11" s="3">
         <v>5</v>
       </c>
@@ -10654,8 +10671,8 @@
       <c r="I11" s="11"/>
       <c r="J11" s="85"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="171"/>
       <c r="B12" s="3">
         <v>6</v>
       </c>
@@ -10674,8 +10691,8 @@
       <c r="I12" s="11"/>
       <c r="J12" s="85"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="170"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="171"/>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -10697,7 +10714,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="85"/>
     </row>
-    <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
@@ -10722,7 +10739,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="85"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -10734,7 +10751,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="85"/>
     </row>
-    <row r="16" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="86"/>
       <c r="B16" s="81"/>
       <c r="C16" s="2">
@@ -10760,7 +10777,7 @@
       </c>
       <c r="J16" s="85"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="86"/>
       <c r="B17" s="82" t="s">
         <v>3</v>
@@ -10789,7 +10806,7 @@
       </c>
       <c r="J17" s="85"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="86"/>
       <c r="B18" s="82" t="s">
         <v>7</v>
@@ -10818,7 +10835,7 @@
       </c>
       <c r="J18" s="85"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="86"/>
       <c r="B19" s="82" t="s">
         <v>42</v>
@@ -10847,7 +10864,7 @@
       </c>
       <c r="J19" s="85"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="86"/>
       <c r="B20" s="82" t="s">
         <v>43</v>
@@ -10876,7 +10893,7 @@
       </c>
       <c r="J20" s="85"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="86"/>
       <c r="B21" s="82" t="s">
         <v>6</v>
@@ -10905,7 +10922,7 @@
       </c>
       <c r="J21" s="85"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="86"/>
       <c r="B22" s="82" t="s">
         <v>5</v>
@@ -10934,7 +10951,7 @@
       </c>
       <c r="J22" s="85"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="86"/>
       <c r="B23" s="82" t="s">
         <v>44</v>
@@ -10963,7 +10980,7 @@
       </c>
       <c r="J23" s="85"/>
     </row>
-    <row r="24" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="86"/>
       <c r="B24" s="83" t="s">
         <v>4</v>
@@ -10992,7 +11009,7 @@
       </c>
       <c r="J24" s="85"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -11004,7 +11021,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="85"/>
     </row>
-    <row r="26" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="86"/>
       <c r="B26" s="81" t="s">
         <v>48</v>
@@ -11021,7 +11038,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="85"/>
     </row>
-    <row r="27" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="86"/>
       <c r="B27" s="83" t="s">
         <v>49</v>
@@ -11038,7 +11055,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="85"/>
     </row>
-    <row r="28" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -11050,7 +11067,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="85"/>
     </row>
-    <row r="29" spans="1:10" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="28.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="86"/>
       <c r="B29" s="42"/>
       <c r="C29" s="43" t="s">
@@ -11068,7 +11085,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="85"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="86"/>
       <c r="B30" s="82" t="s">
         <v>45</v>
@@ -11091,7 +11108,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="85"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="86"/>
       <c r="B31" s="82" t="s">
         <v>46</v>
@@ -11114,7 +11131,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="85"/>
     </row>
-    <row r="32" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="86"/>
       <c r="B32" s="83" t="s">
         <v>47</v>
@@ -11137,7 +11154,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="85"/>
     </row>
-    <row r="33" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="28"/>
       <c r="B33" s="57"/>
       <c r="C33" s="29"/>
@@ -11166,20 +11183,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.4140625" customWidth="1"/>
+    <col min="2" max="2" width="5.58203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.58203125" customWidth="1"/>
+    <col min="9" max="9" width="11.4140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -11193,13 +11210,13 @@
       <c r="K1" s="6"/>
       <c r="L1" s="84"/>
     </row>
-    <row r="2" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="182" t="s">
+    <row r="2" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="174" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="183"/>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
       <c r="E2" s="93" t="s">
         <v>90</v>
       </c>
@@ -11216,7 +11233,7 @@
       </c>
       <c r="L2" s="105"/>
     </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="86"/>
       <c r="F3" s="11"/>
       <c r="G3" s="180" t="s">
@@ -11231,7 +11248,7 @@
       </c>
       <c r="L3" s="85"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="106"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -11245,22 +11262,22 @@
       <c r="K4" s="11"/>
       <c r="L4" s="85"/>
     </row>
-    <row r="5" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="174" t="s">
+    <row r="5" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="172" t="s">
+      <c r="C5" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="176"/>
+      <c r="D5" s="185"/>
       <c r="L5" s="85"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="170"/>
-      <c r="B6" s="175"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="171"/>
+      <c r="B6" s="184"/>
       <c r="C6" s="91" t="s">
         <v>82</v>
       </c>
@@ -11269,8 +11286,8 @@
       </c>
       <c r="L6" s="85"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="170">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="171">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -11282,13 +11299,13 @@
       <c r="D7" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="184" t="s">
+      <c r="F7" s="176" t="s">
         <v>109</v>
       </c>
       <c r="L7" s="85"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="170"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="171"/>
       <c r="B8" s="3" t="s">
         <v>85</v>
       </c>
@@ -11298,11 +11315,11 @@
       <c r="D8" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="185"/>
+      <c r="F8" s="177"/>
       <c r="L8" s="85"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="170"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="171"/>
       <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
@@ -11312,11 +11329,11 @@
       <c r="D9" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="185"/>
+      <c r="F9" s="177"/>
       <c r="L9" s="85"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="170">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="171">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -11328,11 +11345,11 @@
       <c r="D10" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="185"/>
+      <c r="F10" s="177"/>
       <c r="L10" s="85"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="170"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="171"/>
       <c r="B11" s="3" t="s">
         <v>85</v>
       </c>
@@ -11342,11 +11359,11 @@
       <c r="D11" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="185"/>
+      <c r="F11" s="177"/>
       <c r="L11" s="85"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="170"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="171"/>
       <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
@@ -11356,11 +11373,11 @@
       <c r="D12" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="185"/>
+      <c r="F12" s="177"/>
       <c r="L12" s="85"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="170">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="171">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -11372,11 +11389,11 @@
       <c r="D13" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="185"/>
+      <c r="F13" s="177"/>
       <c r="L13" s="85"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="170"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="171"/>
       <c r="B14" s="3" t="s">
         <v>85</v>
       </c>
@@ -11386,10 +11403,10 @@
       <c r="D14" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="185"/>
+      <c r="F14" s="177"/>
       <c r="L14" s="85"/>
     </row>
-    <row r="15" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="173"/>
       <c r="B15" s="4" t="s">
         <v>86</v>
@@ -11402,45 +11419,45 @@
       </c>
       <c r="L15" s="85"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="86"/>
       <c r="L16" s="85"/>
     </row>
-    <row r="17" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="174" t="s">
+    <row r="17" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="182" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="183" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="172" t="s">
+      <c r="C17" s="183" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172" t="s">
+      <c r="D17" s="183"/>
+      <c r="E17" s="183" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172" t="s">
+      <c r="F17" s="183"/>
+      <c r="G17" s="183" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="172" t="s">
+      <c r="H17" s="183" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="172" t="s">
+      <c r="I17" s="183" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="172" t="s">
+      <c r="J17" s="183" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="176" t="s">
+      <c r="K17" s="185" t="s">
         <v>2</v>
       </c>
       <c r="L17" s="85"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="170"/>
-      <c r="B18" s="175"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="171"/>
+      <c r="B18" s="184"/>
       <c r="C18" s="91" t="s">
         <v>82</v>
       </c>
@@ -11453,15 +11470,15 @@
       <c r="F18" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="177"/>
+      <c r="G18" s="184"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="184"/>
+      <c r="J18" s="184"/>
+      <c r="K18" s="186"/>
       <c r="L18" s="85"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="170">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="171">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -11505,8 +11522,8 @@
       </c>
       <c r="L19" s="85"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="170"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="171"/>
       <c r="B20" s="3" t="s">
         <v>85</v>
       </c>
@@ -11548,8 +11565,8 @@
       </c>
       <c r="L20" s="85"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="170"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="171"/>
       <c r="B21" s="3" t="s">
         <v>86</v>
       </c>
@@ -11591,8 +11608,8 @@
       </c>
       <c r="L21" s="85"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="170">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="171">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -11636,8 +11653,8 @@
       </c>
       <c r="L22" s="85"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="170"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="171"/>
       <c r="B23" s="3" t="s">
         <v>85</v>
       </c>
@@ -11679,8 +11696,8 @@
       </c>
       <c r="L23" s="85"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="170"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="171"/>
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
@@ -11722,8 +11739,8 @@
       </c>
       <c r="L24" s="85"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="170">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="171">
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -11767,8 +11784,8 @@
       </c>
       <c r="L25" s="85"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="170"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="171"/>
       <c r="B26" s="3" t="s">
         <v>85</v>
       </c>
@@ -11810,7 +11827,7 @@
       </c>
       <c r="L26" s="85"/>
     </row>
-    <row r="27" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="173"/>
       <c r="B27" s="4" t="s">
         <v>86</v>
@@ -11853,7 +11870,7 @@
       </c>
       <c r="L27" s="85"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="107"/>
       <c r="B28" s="108"/>
       <c r="C28" s="108"/>
@@ -11869,28 +11886,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F7:F14"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F7:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11907,19 +11924,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="81" t="s">
         <v>54</v>
       </c>
@@ -11934,7 +11951,7 @@
       </c>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="82" t="s">
         <v>58</v>
       </c>
@@ -11949,7 +11966,7 @@
       </c>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="82" t="s">
         <v>59</v>
       </c>
@@ -11967,7 +11984,7 @@
       </c>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="82" t="s">
         <v>60</v>
       </c>
@@ -11985,7 +12002,7 @@
       </c>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="82" t="s">
         <v>61</v>
       </c>
@@ -12000,7 +12017,7 @@
       </c>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
         <v>62</v>
       </c>
@@ -12018,7 +12035,7 @@
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="83" t="s">
         <v>63</v>
       </c>
@@ -12036,7 +12053,7 @@
       </c>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
@@ -12051,7 +12068,7 @@
       </c>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>65</v>
       </c>
@@ -12066,7 +12083,7 @@
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>66</v>
       </c>
@@ -12081,14 +12098,14 @@
       </c>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -12103,7 +12120,7 @@
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>68</v>
       </c>
@@ -12118,7 +12135,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>69</v>
       </c>
@@ -12133,7 +12150,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>70</v>
       </c>
@@ -12148,7 +12165,7 @@
       </c>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="28"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -12167,17 +12184,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.9140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -12186,7 +12203,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>122</v>
       </c>
@@ -12199,13 +12216,13 @@
       <c r="D2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="186" t="s">
+      <c r="E2" s="187" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="187"/>
+      <c r="F2" s="188"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="118">
         <v>30</v>
       </c>
@@ -12219,14 +12236,14 @@
         <f>B3-C3</f>
         <v>10.413</v>
       </c>
-      <c r="E3" s="188">
+      <c r="E3" s="189">
         <f>D3-D4</f>
         <v>1.0130000000000017</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="118">
         <v>25</v>
       </c>
@@ -12240,14 +12257,14 @@
         <f t="shared" ref="D4:D8" si="0">B4-C4</f>
         <v>9.3999999999999986</v>
       </c>
-      <c r="E4" s="188"/>
-      <c r="F4" s="189">
+      <c r="E4" s="189"/>
+      <c r="F4" s="190">
         <f>D4-D5</f>
         <v>0.74200000000000088</v>
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="118">
         <v>20</v>
       </c>
@@ -12261,14 +12278,14 @@
         <f t="shared" si="0"/>
         <v>8.6579999999999977</v>
       </c>
-      <c r="E5" s="188">
+      <c r="E5" s="189">
         <f t="shared" ref="E5:E7" si="1">D5-D6</f>
         <v>1.0999999999999979</v>
       </c>
-      <c r="F5" s="189"/>
+      <c r="F5" s="190"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="118">
         <v>15</v>
       </c>
@@ -12282,14 +12299,14 @@
         <f t="shared" si="0"/>
         <v>7.5579999999999998</v>
       </c>
-      <c r="E6" s="188"/>
-      <c r="F6" s="189">
+      <c r="E6" s="189"/>
+      <c r="F6" s="190">
         <f>D6-D7</f>
         <v>1.3090000000000011</v>
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="118">
         <v>10</v>
       </c>
@@ -12303,14 +12320,14 @@
         <f t="shared" si="0"/>
         <v>6.2489999999999988</v>
       </c>
-      <c r="E7" s="188">
+      <c r="E7" s="189">
         <f t="shared" si="1"/>
         <v>1.4309999999999974</v>
       </c>
-      <c r="F7" s="189"/>
+      <c r="F7" s="190"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="119">
         <v>5</v>
       </c>
@@ -12324,11 +12341,11 @@
         <f t="shared" si="0"/>
         <v>4.8180000000000014</v>
       </c>
-      <c r="E8" s="190"/>
+      <c r="E8" s="191"/>
       <c r="F8" s="51"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -12337,7 +12354,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -12346,7 +12363,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>123</v>
       </c>
@@ -12367,7 +12384,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="121" t="s">
         <v>124</v>
       </c>
@@ -12392,7 +12409,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="121" t="s">
         <v>125</v>
       </c>
@@ -12417,7 +12434,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="123" t="s">
         <v>126</v>
       </c>
@@ -12442,7 +12459,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -12451,7 +12468,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="125" t="s">
         <v>127</v>
       </c>
@@ -12469,7 +12486,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -12478,7 +12495,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="125" t="s">
         <v>128</v>
       </c>
@@ -12492,7 +12509,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -12501,7 +12518,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="28"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -12527,17 +12544,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93B0B343-E990-4A51-893C-9F52BEB5FF97}">
-  <dimension ref="B1:I16"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="9" width="11.109375" customWidth="1"/>
+    <col min="2" max="9" width="11.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="89"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="84"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="86"/>
       <c r="B2" s="42" t="s">
         <v>140</v>
       </c>
@@ -12556,8 +12587,12 @@
       <c r="G2" s="44" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="209"/>
+      <c r="I2" s="209"/>
+      <c r="J2" s="85"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="86"/>
       <c r="B3" s="132" t="s">
         <v>146</v>
       </c>
@@ -12576,8 +12611,12 @@
       <c r="G3" s="136" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="86"/>
       <c r="B4" s="117" t="s">
         <v>147</v>
       </c>
@@ -12596,34 +12635,68 @@
       <c r="G4" s="90" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="191" t="s">
+      <c r="H4" s="209"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="85"/>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="86"/>
+      <c r="B5" s="209"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
+      <c r="F5" s="209"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="209"/>
+      <c r="I5" s="209"/>
+      <c r="J5" s="85"/>
+    </row>
+    <row r="6" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="86"/>
+      <c r="B6" s="192" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
-      <c r="E6" s="172" t="s">
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="172"/>
-      <c r="G6" s="176"/>
-    </row>
-    <row r="7" spans="2:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="192" t="s">
+      <c r="F6" s="183"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="209"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="86"/>
+      <c r="B7" s="193" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193" t="s">
+      <c r="C7" s="194"/>
+      <c r="D7" s="194"/>
+      <c r="E7" s="194" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="193"/>
-      <c r="G7" s="194"/>
-    </row>
-    <row r="8" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="2:9" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="194"/>
+      <c r="G7" s="195"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="85"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="86"/>
+      <c r="B8" s="209"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
+      <c r="I8" s="209"/>
+      <c r="J8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="86"/>
       <c r="B9" s="42" t="s">
         <v>154</v>
       </c>
@@ -12648,8 +12721,10 @@
       <c r="I9" s="134">
         <v>90</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J9" s="85"/>
+    </row>
+    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" s="86"/>
       <c r="B10" s="132" t="s">
         <v>155</v>
       </c>
@@ -12674,8 +12749,10 @@
       <c r="I10" s="136" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="85"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="86"/>
       <c r="B11" s="117" t="s">
         <v>156</v>
       </c>
@@ -12700,9 +12777,22 @@
       <c r="I11" s="90" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="2:9" ht="55.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="J11" s="85"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="86"/>
+      <c r="B12" s="209"/>
+      <c r="C12" s="209"/>
+      <c r="D12" s="209"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="209"/>
+      <c r="G12" s="209"/>
+      <c r="H12" s="209"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="85"/>
+    </row>
+    <row r="13" spans="1:10" ht="42.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="86"/>
       <c r="B13" s="42" t="s">
         <v>162</v>
       </c>
@@ -12727,8 +12817,10 @@
       <c r="I13" s="134">
         <v>120</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="J13" s="85"/>
+    </row>
+    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" s="86"/>
       <c r="B14" s="132" t="s">
         <v>163</v>
       </c>
@@ -12753,8 +12845,10 @@
       <c r="I14" s="139">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="85"/>
+    </row>
+    <row r="15" spans="1:10" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="86"/>
       <c r="B15" s="117" t="s">
         <v>164</v>
       </c>
@@ -12779,14 +12873,113 @@
       <c r="I15" s="141">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="J15" s="85"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="86"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="209"/>
+      <c r="D16" s="209"/>
+      <c r="E16" s="209"/>
+      <c r="F16" s="209"/>
+      <c r="G16" s="209"/>
+      <c r="H16" s="209"/>
+      <c r="I16" s="209"/>
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="86"/>
+      <c r="B17" s="208" t="s">
+        <v>199</v>
+      </c>
+      <c r="C17" s="208"/>
+      <c r="D17" s="208"/>
+      <c r="E17" s="208"/>
+      <c r="F17" s="208"/>
+      <c r="G17" s="208"/>
+      <c r="H17" s="208"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="86"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="208"/>
+      <c r="E18" s="208"/>
+      <c r="F18" s="208"/>
+      <c r="G18" s="208"/>
+      <c r="H18" s="208"/>
+      <c r="I18" s="208"/>
+      <c r="J18" s="85"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="86"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="208"/>
+      <c r="D19" s="208"/>
+      <c r="E19" s="208"/>
+      <c r="F19" s="208"/>
+      <c r="G19" s="208"/>
+      <c r="H19" s="208"/>
+      <c r="I19" s="208"/>
+      <c r="J19" s="85"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="86"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="208"/>
+      <c r="D20" s="208"/>
+      <c r="E20" s="208"/>
+      <c r="F20" s="208"/>
+      <c r="G20" s="208"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="208"/>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="86"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="208"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="208"/>
+      <c r="I21" s="208"/>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="86"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="208"/>
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="85"/>
+    </row>
+    <row r="23" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="107"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="87"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B17:I22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12800,13 +12993,13 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="6.58203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="89"/>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -12825,7 +13018,7 @@
       <c r="P1" s="88"/>
       <c r="Q1" s="84"/>
     </row>
-    <row r="2" spans="1:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="86"/>
       <c r="B2" s="42" t="s">
         <v>165</v>
@@ -12862,7 +13055,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A3" s="86"/>
       <c r="B3" s="132" t="s">
         <v>166</v>
@@ -12952,7 +13145,7 @@
         <v>0.20400000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" s="86"/>
       <c r="B4" s="132" t="s">
         <v>167</v>
@@ -13042,7 +13235,7 @@
         <v>0.190302</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="86"/>
       <c r="B5" s="117" t="s">
         <v>168</v>
@@ -13132,11 +13325,11 @@
         <v>2.1299999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="86"/>
       <c r="Q6" s="85"/>
     </row>
-    <row r="7" spans="1:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86"/>
       <c r="B7" s="42" t="s">
         <v>169</v>
@@ -13185,7 +13378,7 @@
       </c>
       <c r="Q7" s="85"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A8" s="86"/>
       <c r="B8" s="132" t="s">
         <v>170</v>
@@ -13234,7 +13427,7 @@
       </c>
       <c r="Q8" s="85"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A9" s="86"/>
       <c r="B9" s="132" t="s">
         <v>171</v>
@@ -13283,7 +13476,7 @@
       </c>
       <c r="Q9" s="85"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A10" s="86"/>
       <c r="B10" s="132" t="s">
         <v>169</v>
@@ -13332,7 +13525,7 @@
       </c>
       <c r="Q10" s="85"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11" s="86"/>
       <c r="B11" s="132" t="s">
         <v>170</v>
@@ -13381,7 +13574,7 @@
       </c>
       <c r="Q11" s="85"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12" s="86"/>
       <c r="B12" s="132" t="s">
         <v>171</v>
@@ -13430,7 +13623,7 @@
       </c>
       <c r="Q12" s="85"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13" s="86"/>
       <c r="B13" s="132" t="s">
         <v>169</v>
@@ -13479,7 +13672,7 @@
       </c>
       <c r="Q13" s="85"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14" s="86"/>
       <c r="B14" s="132" t="s">
         <v>170</v>
@@ -13528,7 +13721,7 @@
       </c>
       <c r="Q14" s="85"/>
     </row>
-    <row r="15" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="86"/>
       <c r="B15" s="117" t="s">
         <v>171</v>
@@ -13577,199 +13770,199 @@
       </c>
       <c r="Q15" s="85"/>
     </row>
-    <row r="16" spans="1:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="86"/>
       <c r="Q16" s="85"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="86"/>
       <c r="Q17" s="85"/>
     </row>
-    <row r="18" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="86"/>
       <c r="Q18" s="85"/>
     </row>
-    <row r="19" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="86"/>
-      <c r="B19" s="195" t="s">
+      <c r="B19" s="196" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="197">
+      <c r="C19" s="197"/>
+      <c r="D19" s="197"/>
+      <c r="E19" s="197"/>
+      <c r="F19" s="198">
         <f>MAX(S3:AF5)</f>
         <v>0.39032</v>
       </c>
-      <c r="G19" s="197"/>
-      <c r="H19" s="198"/>
+      <c r="G19" s="198"/>
+      <c r="H19" s="199"/>
       <c r="Q19" s="85"/>
     </row>
-    <row r="20" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="86"/>
       <c r="Q20" s="85"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="86"/>
-      <c r="B21" s="195" t="s">
+      <c r="B21" s="196" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="196"/>
-      <c r="D21" s="196"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="199">
+      <c r="C21" s="197"/>
+      <c r="D21" s="197"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="200">
         <f>F19/C3</f>
         <v>0.17440571939231456</v>
       </c>
-      <c r="G21" s="199"/>
-      <c r="H21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="201"/>
       <c r="Q21" s="85"/>
     </row>
-    <row r="22" spans="1:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="86"/>
       <c r="Q22" s="85"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="86"/>
       <c r="Q23" s="85"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="86"/>
       <c r="Q24" s="85"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="86"/>
       <c r="Q25" s="85"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="86"/>
       <c r="Q26" s="85"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="86"/>
       <c r="Q27" s="85"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="86"/>
       <c r="Q28" s="85"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="86"/>
       <c r="Q29" s="85"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="86"/>
       <c r="Q30" s="85"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="86"/>
       <c r="Q31" s="85"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="86"/>
       <c r="Q32" s="85"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="86"/>
       <c r="Q33" s="85"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="86"/>
       <c r="Q34" s="85"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="86"/>
       <c r="Q35" s="85"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="86"/>
       <c r="Q36" s="85"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="86"/>
       <c r="Q37" s="85"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="86"/>
       <c r="Q38" s="85"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="86"/>
       <c r="Q39" s="85"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="86"/>
       <c r="Q40" s="85"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="86"/>
       <c r="Q41" s="85"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="86"/>
       <c r="Q42" s="85"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="86"/>
       <c r="Q43" s="85"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="86"/>
       <c r="Q44" s="85"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="86"/>
       <c r="Q45" s="85"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="86"/>
       <c r="Q46" s="85"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="86"/>
       <c r="Q47" s="85"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="86"/>
       <c r="Q48" s="85"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="86"/>
       <c r="Q49" s="85"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="86"/>
       <c r="Q50" s="85"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="86"/>
       <c r="Q51" s="85"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="86"/>
       <c r="Q52" s="85"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="86"/>
       <c r="Q53" s="85"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="86"/>
       <c r="Q54" s="85"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="86"/>
       <c r="Q55" s="85"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="86"/>
       <c r="Q56" s="85"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="86"/>
       <c r="Q57" s="85"/>
     </row>
-    <row r="58" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="107"/>
       <c r="B58" s="108"/>
       <c r="C58" s="108"/>

--- a/物理实验/物理实验.xlsx
+++ b/物理实验/物理实验.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\SHMTU-Automation-Resources\物理实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD4EB692-07AC-4582-A757-066717DFDCFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE207B32-9A60-44AA-89C6-544F300378C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{289B0313-6EC0-446F-8799-597BA1CF6533}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{289B0313-6EC0-446F-8799-597BA1CF6533}"/>
   </bookViews>
   <sheets>
     <sheet name="使用方法介绍" sheetId="6" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="仿真" sheetId="8" r:id="rId8"/>
     <sheet name="光伏电池" sheetId="9" r:id="rId9"/>
     <sheet name="RLC" sheetId="10" r:id="rId10"/>
+    <sheet name="空气比热容比测定" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
   <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1458,6 +1459,358 @@
 F:圆偏振光
 G:线偏振光
 H:部分偏振光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>γ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'/mV</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'/mV</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'/mV</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/mV</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/×10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pa</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>γ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>¯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空气比热容比测定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2210,7 +2563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2730,9 +3083,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2745,33 +3125,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2799,6 +3152,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2817,6 +3173,12 @@
     <xf numFmtId="189" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2826,17 +3188,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -7966,10 +8373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B123489D-5DE1-4D8D-BE68-F86D0C1B8DF9}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25" x14ac:dyDescent="0.3"/>
@@ -8058,6 +8465,11 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="130" t="s">
         <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="130" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -8086,7 +8498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE0279F-6EED-4D27-ACC8-9A3CC350B554}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8111,7 +8523,7 @@
     </row>
     <row r="2" spans="1:13" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="86"/>
-      <c r="B2" s="207" t="s">
+      <c r="B2" s="203" t="s">
         <v>185</v>
       </c>
       <c r="C2" s="152">
@@ -8130,7 +8542,7 @@
     </row>
     <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.3">
       <c r="A3" s="86"/>
-      <c r="B3" s="205"/>
+      <c r="B3" s="204"/>
       <c r="C3" s="156" t="s">
         <v>183</v>
       </c>
@@ -8147,7 +8559,7 @@
     </row>
     <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.3">
       <c r="A4" s="86"/>
-      <c r="B4" s="205"/>
+      <c r="B4" s="204"/>
       <c r="C4" s="91" t="s">
         <v>182</v>
       </c>
@@ -9008,60 +9420,60 @@
     </row>
     <row r="46" spans="1:13" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A46" s="86"/>
-      <c r="B46" s="203" t="s">
+      <c r="B46" s="206" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="204"/>
-      <c r="D46" s="183" t="s">
+      <c r="C46" s="207"/>
+      <c r="D46" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="183"/>
-      <c r="F46" s="183"/>
-      <c r="G46" s="183"/>
-      <c r="H46" s="183" t="s">
+      <c r="E46" s="173"/>
+      <c r="F46" s="173"/>
+      <c r="G46" s="173"/>
+      <c r="H46" s="173" t="s">
         <v>177</v>
       </c>
-      <c r="I46" s="183"/>
-      <c r="J46" s="183"/>
-      <c r="K46" s="183" t="s">
+      <c r="I46" s="173"/>
+      <c r="J46" s="173"/>
+      <c r="K46" s="173" t="s">
         <v>178</v>
       </c>
-      <c r="L46" s="185"/>
+      <c r="L46" s="177"/>
       <c r="M46" s="85"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="86"/>
-      <c r="B47" s="205"/>
-      <c r="C47" s="206"/>
-      <c r="D47" s="184" t="s">
+      <c r="B47" s="204"/>
+      <c r="C47" s="208"/>
+      <c r="D47" s="176" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="184"/>
-      <c r="F47" s="184"/>
-      <c r="G47" s="184" t="s">
+      <c r="E47" s="176"/>
+      <c r="F47" s="176"/>
+      <c r="G47" s="176" t="s">
         <v>181</v>
       </c>
-      <c r="H47" s="184" t="s">
+      <c r="H47" s="176" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="184" t="s">
+      <c r="I47" s="176" t="s">
         <v>193</v>
       </c>
-      <c r="J47" s="184" t="s">
+      <c r="J47" s="176" t="s">
         <v>190</v>
       </c>
-      <c r="K47" s="184" t="s">
+      <c r="K47" s="176" t="s">
         <v>192</v>
       </c>
-      <c r="L47" s="186" t="s">
+      <c r="L47" s="178" t="s">
         <v>191</v>
       </c>
       <c r="M47" s="85"/>
     </row>
     <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.3">
       <c r="A48" s="86"/>
-      <c r="B48" s="205"/>
-      <c r="C48" s="206"/>
+      <c r="B48" s="204"/>
+      <c r="C48" s="208"/>
       <c r="D48" s="91" t="s">
         <v>188</v>
       </c>
@@ -9071,17 +9483,17 @@
       <c r="F48" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="G48" s="184"/>
-      <c r="H48" s="184"/>
-      <c r="I48" s="184"/>
-      <c r="J48" s="184"/>
-      <c r="K48" s="184"/>
-      <c r="L48" s="186"/>
+      <c r="G48" s="176"/>
+      <c r="H48" s="176"/>
+      <c r="I48" s="176"/>
+      <c r="J48" s="176"/>
+      <c r="K48" s="176"/>
+      <c r="L48" s="178"/>
       <c r="M48" s="85"/>
     </row>
     <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="86"/>
-      <c r="B49" s="202" t="s">
+      <c r="B49" s="205" t="s">
         <v>186</v>
       </c>
       <c r="C49" s="148">
@@ -9128,7 +9540,7 @@
     </row>
     <row r="50" spans="1:13" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="86"/>
-      <c r="B50" s="180"/>
+      <c r="B50" s="181"/>
       <c r="C50" s="150">
         <f>D2+F3</f>
         <v>312.60000000000002</v>
@@ -9188,11 +9600,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H46:J46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B46:C48"/>
@@ -9201,11 +9608,381 @@
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="L47:L48"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EDF2BB-2301-4B7F-8D7C-189305C3C754}">
+  <dimension ref="A1:K15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="89"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="86"/>
+      <c r="B2" s="222" t="s">
+        <v>200</v>
+      </c>
+      <c r="C2" s="223">
+        <v>20</v>
+      </c>
+      <c r="D2" s="227"/>
+      <c r="E2" s="222" t="s">
+        <v>202</v>
+      </c>
+      <c r="F2" s="224">
+        <v>1.4019999999999999</v>
+      </c>
+      <c r="G2" s="227"/>
+      <c r="H2" s="227"/>
+      <c r="I2" s="227"/>
+      <c r="J2" s="227"/>
+      <c r="K2" s="85"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="86"/>
+      <c r="B3" s="227"/>
+      <c r="C3" s="227"/>
+      <c r="D3" s="227"/>
+      <c r="E3" s="227"/>
+      <c r="F3" s="227"/>
+      <c r="G3" s="227"/>
+      <c r="H3" s="227"/>
+      <c r="I3" s="227"/>
+      <c r="J3" s="227"/>
+      <c r="K3" s="85"/>
+    </row>
+    <row r="4" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="86"/>
+      <c r="B4" s="209"/>
+      <c r="C4" s="210" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="210" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="210" t="s">
+        <v>205</v>
+      </c>
+      <c r="F4" s="210" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="210" t="s">
+        <v>207</v>
+      </c>
+      <c r="H4" s="210" t="s">
+        <v>208</v>
+      </c>
+      <c r="I4" s="210" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="219" t="s">
+        <v>201</v>
+      </c>
+      <c r="K4" s="85"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="86"/>
+      <c r="B5" s="211">
+        <v>1</v>
+      </c>
+      <c r="C5" s="212">
+        <v>1.0285</v>
+      </c>
+      <c r="D5" s="217">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="E5" s="217">
+        <v>1472.6</v>
+      </c>
+      <c r="F5" s="217">
+        <v>32</v>
+      </c>
+      <c r="G5" s="217">
+        <v>1472.6</v>
+      </c>
+      <c r="H5" s="213">
+        <f>$C$5+(D5/($C$2*100))</f>
+        <v>1.0935999999999999</v>
+      </c>
+      <c r="I5" s="213">
+        <f>$C$5+(F5/($C$2*100))</f>
+        <v>1.0445</v>
+      </c>
+      <c r="J5" s="220">
+        <f>LOG10(H5/$C$5)/LOG10(H5/I5)</f>
+        <v>1.3360465688783709</v>
+      </c>
+      <c r="K5" s="85"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="86"/>
+      <c r="B6" s="211">
+        <v>2</v>
+      </c>
+      <c r="C6" s="212"/>
+      <c r="D6" s="217">
+        <v>120.7</v>
+      </c>
+      <c r="E6" s="217">
+        <v>1474.3</v>
+      </c>
+      <c r="F6" s="217">
+        <v>30.6</v>
+      </c>
+      <c r="G6" s="217">
+        <v>1474.4</v>
+      </c>
+      <c r="H6" s="213">
+        <f>$C$5+(D6/($C$2*100))</f>
+        <v>1.0888499999999999</v>
+      </c>
+      <c r="I6" s="213">
+        <f>$C$5+(F6/($C$2*100))</f>
+        <v>1.0438000000000001</v>
+      </c>
+      <c r="J6" s="220">
+        <f>LOG10(H6/$C$5)/LOG10(H6/I6)</f>
+        <v>1.3494675676334851</v>
+      </c>
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="86"/>
+      <c r="B7" s="211">
+        <v>3</v>
+      </c>
+      <c r="C7" s="212"/>
+      <c r="D7" s="217">
+        <v>123.3</v>
+      </c>
+      <c r="E7" s="217">
+        <v>1475.4</v>
+      </c>
+      <c r="F7" s="217">
+        <v>30.9</v>
+      </c>
+      <c r="G7" s="217">
+        <v>1475.2</v>
+      </c>
+      <c r="H7" s="213">
+        <f>$C$5+(D7/($C$2*100))</f>
+        <v>1.09015</v>
+      </c>
+      <c r="I7" s="213">
+        <f>$C$5+(F7/($C$2*100))</f>
+        <v>1.0439499999999999</v>
+      </c>
+      <c r="J7" s="220">
+        <f>LOG10(H7/$C$5)/LOG10(H7/I7)</f>
+        <v>1.3443161546273665</v>
+      </c>
+      <c r="K7" s="85"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="86"/>
+      <c r="B8" s="211">
+        <v>4</v>
+      </c>
+      <c r="C8" s="212"/>
+      <c r="D8" s="217">
+        <v>112.2</v>
+      </c>
+      <c r="E8" s="217">
+        <v>1475.9</v>
+      </c>
+      <c r="F8" s="217">
+        <v>28.2</v>
+      </c>
+      <c r="G8" s="217">
+        <v>1475.8</v>
+      </c>
+      <c r="H8" s="213">
+        <f>$C$5+(D8/($C$2*100))</f>
+        <v>1.0846</v>
+      </c>
+      <c r="I8" s="213">
+        <f>$C$5+(F8/($C$2*100))</f>
+        <v>1.0426</v>
+      </c>
+      <c r="J8" s="220">
+        <f>LOG10(H8/$C$5)/LOG10(H8/I8)</f>
+        <v>1.3447683128457768</v>
+      </c>
+      <c r="K8" s="85"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="86"/>
+      <c r="B9" s="211">
+        <v>5</v>
+      </c>
+      <c r="C9" s="212"/>
+      <c r="D9" s="217">
+        <v>123.4</v>
+      </c>
+      <c r="E9" s="217">
+        <v>1476</v>
+      </c>
+      <c r="F9" s="217">
+        <v>30.7</v>
+      </c>
+      <c r="G9" s="217">
+        <v>1475.9</v>
+      </c>
+      <c r="H9" s="213">
+        <f>$C$5+(D9/($C$2*100))</f>
+        <v>1.0902000000000001</v>
+      </c>
+      <c r="I9" s="213">
+        <f>$C$5+(F9/($C$2*100))</f>
+        <v>1.0438499999999999</v>
+      </c>
+      <c r="J9" s="220">
+        <f>LOG10(H9/$C$5)/LOG10(H9/I9)</f>
+        <v>1.3409885261194092</v>
+      </c>
+      <c r="K9" s="85"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="86"/>
+      <c r="B10" s="214">
+        <v>6</v>
+      </c>
+      <c r="C10" s="215"/>
+      <c r="D10" s="218">
+        <v>108.4</v>
+      </c>
+      <c r="E10" s="218">
+        <v>1476</v>
+      </c>
+      <c r="F10" s="218">
+        <v>27.1</v>
+      </c>
+      <c r="G10" s="218">
+        <v>1476</v>
+      </c>
+      <c r="H10" s="216">
+        <f>$C$5+(D10/($C$2*100))</f>
+        <v>1.0827</v>
+      </c>
+      <c r="I10" s="216">
+        <f>$C$5+(F10/($C$2*100))</f>
+        <v>1.0420499999999999</v>
+      </c>
+      <c r="J10" s="221">
+        <f>LOG10(H10/$C$5)/LOG10(H10/I10)</f>
+        <v>1.3420220181806992</v>
+      </c>
+      <c r="K10" s="85"/>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="86"/>
+      <c r="B11" s="227"/>
+      <c r="C11" s="227"/>
+      <c r="D11" s="227"/>
+      <c r="E11" s="227"/>
+      <c r="F11" s="227"/>
+      <c r="G11" s="227"/>
+      <c r="H11" s="227"/>
+      <c r="I11" s="227"/>
+      <c r="J11" s="227"/>
+      <c r="K11" s="85"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="86"/>
+      <c r="B12" s="222" t="s">
+        <v>210</v>
+      </c>
+      <c r="C12" s="225">
+        <f>AVERAGE(J5:J10)</f>
+        <v>1.342934858047518</v>
+      </c>
+      <c r="D12" s="227"/>
+      <c r="E12" s="227"/>
+      <c r="F12" s="227"/>
+      <c r="G12" s="227"/>
+      <c r="H12" s="227"/>
+      <c r="I12" s="227"/>
+      <c r="J12" s="227"/>
+      <c r="K12" s="85"/>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="86"/>
+      <c r="B13" s="227"/>
+      <c r="C13" s="227"/>
+      <c r="D13" s="227"/>
+      <c r="E13" s="227"/>
+      <c r="F13" s="227"/>
+      <c r="G13" s="227"/>
+      <c r="H13" s="227"/>
+      <c r="I13" s="227"/>
+      <c r="J13" s="227"/>
+      <c r="K13" s="85"/>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="86"/>
+      <c r="B14" s="222" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="226">
+        <f>ABS(C12-F2)/F2</f>
+        <v>4.2129202533867274E-2</v>
+      </c>
+      <c r="D14" s="227"/>
+      <c r="E14" s="227"/>
+      <c r="F14" s="227"/>
+      <c r="G14" s="227"/>
+      <c r="H14" s="227"/>
+      <c r="I14" s="227"/>
+      <c r="J14" s="227"/>
+      <c r="K14" s="85"/>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="107"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C5:C10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11211,22 +11988,22 @@
       <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="183" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="175"/>
-      <c r="C2" s="175"/>
-      <c r="D2" s="175"/>
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
       <c r="E2" s="93" t="s">
         <v>90</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="G2" s="178" t="s">
+      <c r="G2" s="179" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
       <c r="K2" s="94">
         <f>TRUNC(E2)+MID(E2,5,2)/60+MID(E2,7,2)/3600</f>
         <v>267.41666666666669</v>
@@ -11236,12 +12013,12 @@
     <row r="3" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="86"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="180" t="s">
+      <c r="G3" s="181" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
+      <c r="H3" s="182"/>
+      <c r="I3" s="182"/>
+      <c r="J3" s="182"/>
       <c r="K3" s="90">
         <f>1/3000</f>
         <v>3.3333333333333332E-4</v>
@@ -11263,21 +12040,21 @@
       <c r="L4" s="85"/>
     </row>
     <row r="5" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="183" t="s">
+      <c r="B5" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="183" t="s">
+      <c r="C5" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="185"/>
+      <c r="D5" s="177"/>
       <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="171"/>
-      <c r="B6" s="184"/>
+      <c r="B6" s="176"/>
       <c r="C6" s="91" t="s">
         <v>82</v>
       </c>
@@ -11299,7 +12076,7 @@
       <c r="D7" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="176" t="s">
+      <c r="F7" s="185" t="s">
         <v>109</v>
       </c>
       <c r="L7" s="85"/>
@@ -11315,7 +12092,7 @@
       <c r="D8" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="177"/>
+      <c r="F8" s="186"/>
       <c r="L8" s="85"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -11329,7 +12106,7 @@
       <c r="D9" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="177"/>
+      <c r="F9" s="186"/>
       <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -11345,7 +12122,7 @@
       <c r="D10" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="177"/>
+      <c r="F10" s="186"/>
       <c r="L10" s="85"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -11359,7 +12136,7 @@
       <c r="D11" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="177"/>
+      <c r="F11" s="186"/>
       <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -11373,7 +12150,7 @@
       <c r="D12" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="177"/>
+      <c r="F12" s="186"/>
       <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -11389,7 +12166,7 @@
       <c r="D13" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="177"/>
+      <c r="F13" s="186"/>
       <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -11403,11 +12180,11 @@
       <c r="D14" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="177"/>
+      <c r="F14" s="186"/>
       <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="173"/>
+      <c r="A15" s="174"/>
       <c r="B15" s="4" t="s">
         <v>86</v>
       </c>
@@ -11424,40 +12201,40 @@
       <c r="L16" s="85"/>
     </row>
     <row r="17" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="182" t="s">
+      <c r="A17" s="175" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="183" t="s">
+      <c r="B17" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="183" t="s">
+      <c r="C17" s="173" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="183"/>
-      <c r="E17" s="183" t="s">
+      <c r="D17" s="173"/>
+      <c r="E17" s="173" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="183"/>
-      <c r="G17" s="183" t="s">
+      <c r="F17" s="173"/>
+      <c r="G17" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="183" t="s">
+      <c r="H17" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="183" t="s">
+      <c r="I17" s="173" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="183" t="s">
+      <c r="J17" s="173" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="185" t="s">
+      <c r="K17" s="177" t="s">
         <v>2</v>
       </c>
       <c r="L17" s="85"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="171"/>
-      <c r="B18" s="184"/>
+      <c r="B18" s="176"/>
       <c r="C18" s="91" t="s">
         <v>82</v>
       </c>
@@ -11470,11 +12247,11 @@
       <c r="F18" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="184"/>
-      <c r="H18" s="184"/>
-      <c r="I18" s="184"/>
-      <c r="J18" s="184"/>
-      <c r="K18" s="186"/>
+      <c r="G18" s="176"/>
+      <c r="H18" s="176"/>
+      <c r="I18" s="176"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="178"/>
       <c r="L18" s="85"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
@@ -11828,7 +12605,7 @@
       <c r="L26" s="85"/>
     </row>
     <row r="27" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="173"/>
+      <c r="A27" s="174"/>
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
@@ -11886,28 +12663,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F7:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12587,8 +13364,6 @@
       <c r="G2" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="209"/>
-      <c r="I2" s="209"/>
       <c r="J2" s="85"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -12611,8 +13386,6 @@
       <c r="G3" s="136" t="s">
         <v>149</v>
       </c>
-      <c r="H3" s="209"/>
-      <c r="I3" s="209"/>
       <c r="J3" s="85"/>
     </row>
     <row r="4" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12635,20 +13408,10 @@
       <c r="G4" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="H4" s="209"/>
-      <c r="I4" s="209"/>
       <c r="J4" s="85"/>
     </row>
     <row r="5" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="86"/>
-      <c r="B5" s="209"/>
-      <c r="C5" s="209"/>
-      <c r="D5" s="209"/>
-      <c r="E5" s="209"/>
-      <c r="F5" s="209"/>
-      <c r="G5" s="209"/>
-      <c r="H5" s="209"/>
-      <c r="I5" s="209"/>
       <c r="J5" s="85"/>
     </row>
     <row r="6" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -12656,15 +13419,13 @@
       <c r="B6" s="192" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="183"/>
-      <c r="D6" s="183"/>
-      <c r="E6" s="183" t="s">
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
+      <c r="E6" s="173" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="183"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="209"/>
-      <c r="I6" s="209"/>
+      <c r="F6" s="173"/>
+      <c r="G6" s="177"/>
       <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -12679,20 +13440,10 @@
       </c>
       <c r="F7" s="194"/>
       <c r="G7" s="195"/>
-      <c r="H7" s="209"/>
-      <c r="I7" s="209"/>
       <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="86"/>
-      <c r="B8" s="209"/>
-      <c r="C8" s="209"/>
-      <c r="D8" s="209"/>
-      <c r="E8" s="209"/>
-      <c r="F8" s="209"/>
-      <c r="G8" s="209"/>
-      <c r="H8" s="209"/>
-      <c r="I8" s="209"/>
       <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" ht="28.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -12781,14 +13532,6 @@
     </row>
     <row r="12" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="86"/>
-      <c r="B12" s="209"/>
-      <c r="C12" s="209"/>
-      <c r="D12" s="209"/>
-      <c r="E12" s="209"/>
-      <c r="F12" s="209"/>
-      <c r="G12" s="209"/>
-      <c r="H12" s="209"/>
-      <c r="I12" s="209"/>
       <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" ht="42.5" thickTop="1" x14ac:dyDescent="0.3">
@@ -12877,88 +13620,80 @@
     </row>
     <row r="16" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="86"/>
-      <c r="B16" s="209"/>
-      <c r="C16" s="209"/>
-      <c r="D16" s="209"/>
-      <c r="E16" s="209"/>
-      <c r="F16" s="209"/>
-      <c r="G16" s="209"/>
-      <c r="H16" s="209"/>
-      <c r="I16" s="209"/>
       <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="86"/>
-      <c r="B17" s="208" t="s">
+      <c r="B17" s="196" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="208"/>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208"/>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208"/>
-      <c r="H17" s="208"/>
-      <c r="I17" s="208"/>
+      <c r="C17" s="196"/>
+      <c r="D17" s="196"/>
+      <c r="E17" s="196"/>
+      <c r="F17" s="196"/>
+      <c r="G17" s="196"/>
+      <c r="H17" s="196"/>
+      <c r="I17" s="196"/>
       <c r="J17" s="85"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="86"/>
-      <c r="B18" s="208"/>
-      <c r="C18" s="208"/>
-      <c r="D18" s="208"/>
-      <c r="E18" s="208"/>
-      <c r="F18" s="208"/>
-      <c r="G18" s="208"/>
-      <c r="H18" s="208"/>
-      <c r="I18" s="208"/>
+      <c r="B18" s="196"/>
+      <c r="C18" s="196"/>
+      <c r="D18" s="196"/>
+      <c r="E18" s="196"/>
+      <c r="F18" s="196"/>
+      <c r="G18" s="196"/>
+      <c r="H18" s="196"/>
+      <c r="I18" s="196"/>
       <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="86"/>
-      <c r="B19" s="208"/>
-      <c r="C19" s="208"/>
-      <c r="D19" s="208"/>
-      <c r="E19" s="208"/>
-      <c r="F19" s="208"/>
-      <c r="G19" s="208"/>
-      <c r="H19" s="208"/>
-      <c r="I19" s="208"/>
+      <c r="B19" s="196"/>
+      <c r="C19" s="196"/>
+      <c r="D19" s="196"/>
+      <c r="E19" s="196"/>
+      <c r="F19" s="196"/>
+      <c r="G19" s="196"/>
+      <c r="H19" s="196"/>
+      <c r="I19" s="196"/>
       <c r="J19" s="85"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="86"/>
-      <c r="B20" s="208"/>
-      <c r="C20" s="208"/>
-      <c r="D20" s="208"/>
-      <c r="E20" s="208"/>
-      <c r="F20" s="208"/>
-      <c r="G20" s="208"/>
-      <c r="H20" s="208"/>
-      <c r="I20" s="208"/>
+      <c r="B20" s="196"/>
+      <c r="C20" s="196"/>
+      <c r="D20" s="196"/>
+      <c r="E20" s="196"/>
+      <c r="F20" s="196"/>
+      <c r="G20" s="196"/>
+      <c r="H20" s="196"/>
+      <c r="I20" s="196"/>
       <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="86"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="208"/>
-      <c r="D21" s="208"/>
-      <c r="E21" s="208"/>
-      <c r="F21" s="208"/>
-      <c r="G21" s="208"/>
-      <c r="H21" s="208"/>
-      <c r="I21" s="208"/>
+      <c r="B21" s="196"/>
+      <c r="C21" s="196"/>
+      <c r="D21" s="196"/>
+      <c r="E21" s="196"/>
+      <c r="F21" s="196"/>
+      <c r="G21" s="196"/>
+      <c r="H21" s="196"/>
+      <c r="I21" s="196"/>
       <c r="J21" s="85"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="86"/>
-      <c r="B22" s="208"/>
-      <c r="C22" s="208"/>
-      <c r="D22" s="208"/>
-      <c r="E22" s="208"/>
-      <c r="F22" s="208"/>
-      <c r="G22" s="208"/>
-      <c r="H22" s="208"/>
-      <c r="I22" s="208"/>
+      <c r="B22" s="196"/>
+      <c r="C22" s="196"/>
+      <c r="D22" s="196"/>
+      <c r="E22" s="196"/>
+      <c r="F22" s="196"/>
+      <c r="G22" s="196"/>
+      <c r="H22" s="196"/>
+      <c r="I22" s="196"/>
       <c r="J22" s="85"/>
     </row>
     <row r="23" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -13784,18 +14519,18 @@
     </row>
     <row r="19" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="86"/>
-      <c r="B19" s="196" t="s">
+      <c r="B19" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="197"/>
-      <c r="D19" s="197"/>
-      <c r="E19" s="197"/>
-      <c r="F19" s="198">
+      <c r="C19" s="198"/>
+      <c r="D19" s="198"/>
+      <c r="E19" s="198"/>
+      <c r="F19" s="199">
         <f>MAX(S3:AF5)</f>
         <v>0.39032</v>
       </c>
-      <c r="G19" s="198"/>
-      <c r="H19" s="199"/>
+      <c r="G19" s="199"/>
+      <c r="H19" s="200"/>
       <c r="Q19" s="85"/>
     </row>
     <row r="20" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13804,18 +14539,18 @@
     </row>
     <row r="21" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="86"/>
-      <c r="B21" s="196" t="s">
+      <c r="B21" s="197" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="197"/>
-      <c r="D21" s="197"/>
-      <c r="E21" s="197"/>
-      <c r="F21" s="200">
+      <c r="C21" s="198"/>
+      <c r="D21" s="198"/>
+      <c r="E21" s="198"/>
+      <c r="F21" s="201">
         <f>F19/C3</f>
         <v>0.17440571939231456</v>
       </c>
-      <c r="G21" s="200"/>
-      <c r="H21" s="201"/>
+      <c r="G21" s="201"/>
+      <c r="H21" s="202"/>
       <c r="Q21" s="85"/>
     </row>
     <row r="22" spans="1:17" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">

--- a/物理实验/物理实验.xlsx
+++ b/物理实验/物理实验.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\SHMTU-Automation-Resources\物理实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE207B32-9A60-44AA-89C6-544F300378C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0968127A-FEFC-4D80-BF61-F5CC38FC4863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{289B0313-6EC0-446F-8799-597BA1CF6533}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{289B0313-6EC0-446F-8799-597BA1CF6533}"/>
   </bookViews>
   <sheets>
     <sheet name="使用方法介绍" sheetId="6" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2563,7 +2563,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3056,6 +3056,54 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3083,15 +3131,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3101,30 +3173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3173,80 +3221,29 @@
     <xf numFmtId="189" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8376,22 +8373,22 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="25.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.4140625" style="109" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.44140625" style="109" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3.6640625" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="25.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="180" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="110"/>
@@ -8399,21 +8396,21 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="165"/>
+      <c r="C2" s="181"/>
       <c r="D2" s="112"/>
       <c r="E2" s="113" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="165"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="114" t="s">
         <v>120</v>
       </c>
@@ -8421,22 +8418,22 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="25.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="166"/>
+      <c r="C4" s="182"/>
       <c r="D4" s="115"/>
       <c r="E4" s="116" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="25.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="130" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="130" t="s">
         <v>114</v>
       </c>
@@ -8447,27 +8444,27 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="131" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="130" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="130" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="130" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="130" t="s">
         <v>211</v>
       </c>
@@ -8488,6 +8485,7 @@
     <hyperlink ref="A9" location="光伏电池!A1" display="光伏电池" xr:uid="{980BFCC6-863C-41AE-9147-89B0F0E37206}"/>
     <hyperlink ref="A10" location="RLC!A1" display="RLC" xr:uid="{4B03C6FC-8A16-43A9-9D47-CBAEBE51291E}"/>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{E43B4457-6E04-4BCF-8426-1C5A510B93EC}"/>
+    <hyperlink ref="A11" location="空气比热容比测定!A1" display="空气比热容比测定" xr:uid="{8BC5EB63-2C8B-41A4-AFCC-9C4EB1767B1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8500,13 +8498,13 @@
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
     <col min="2" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89"/>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -8521,9 +8519,9 @@
       <c r="L1" s="88"/>
       <c r="M1" s="84"/>
     </row>
-    <row r="2" spans="1:13" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="86"/>
-      <c r="B2" s="203" t="s">
+      <c r="B2" s="224" t="s">
         <v>185</v>
       </c>
       <c r="C2" s="152">
@@ -8540,9 +8538,9 @@
       </c>
       <c r="M2" s="85"/>
     </row>
-    <row r="3" spans="1:13" ht="16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A3" s="86"/>
-      <c r="B3" s="204"/>
+      <c r="B3" s="222"/>
       <c r="C3" s="156" t="s">
         <v>183</v>
       </c>
@@ -8557,9 +8555,9 @@
       </c>
       <c r="M3" s="85"/>
     </row>
-    <row r="4" spans="1:13" ht="16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="86"/>
-      <c r="B4" s="204"/>
+      <c r="B4" s="222"/>
       <c r="C4" s="91" t="s">
         <v>182</v>
       </c>
@@ -8574,7 +8572,7 @@
       </c>
       <c r="M4" s="85"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="86"/>
       <c r="B5" s="132">
         <v>1000</v>
@@ -8595,7 +8593,7 @@
       </c>
       <c r="M5" s="85"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="86"/>
       <c r="B6" s="132">
         <v>1200</v>
@@ -8616,7 +8614,7 @@
       </c>
       <c r="M6" s="85"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="86"/>
       <c r="B7" s="132">
         <v>1400</v>
@@ -8637,7 +8635,7 @@
       </c>
       <c r="M7" s="85"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="86"/>
       <c r="B8" s="132">
         <v>1600</v>
@@ -8658,7 +8656,7 @@
       </c>
       <c r="M8" s="85"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="86"/>
       <c r="B9" s="132">
         <v>1800</v>
@@ -8679,7 +8677,7 @@
       </c>
       <c r="M9" s="85"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="132">
         <v>2000</v>
@@ -8700,7 +8698,7 @@
       </c>
       <c r="M10" s="85"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="132">
         <v>2100</v>
@@ -8721,7 +8719,7 @@
       </c>
       <c r="M11" s="85"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="132">
         <v>2200</v>
@@ -8742,7 +8740,7 @@
       </c>
       <c r="M12" s="85"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="132">
         <v>2300</v>
@@ -8763,7 +8761,7 @@
       </c>
       <c r="M13" s="85"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="132">
         <v>2400</v>
@@ -8784,7 +8782,7 @@
       </c>
       <c r="M14" s="85"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="86"/>
       <c r="B15" s="132">
         <v>2500</v>
@@ -8805,7 +8803,7 @@
       </c>
       <c r="M15" s="85"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="132">
         <v>2600</v>
@@ -8826,7 +8824,7 @@
       </c>
       <c r="M16" s="85"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="132">
         <v>2700</v>
@@ -8847,7 +8845,7 @@
       </c>
       <c r="M17" s="85"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="132">
         <v>2800</v>
@@ -8868,7 +8866,7 @@
       </c>
       <c r="M18" s="85"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
       <c r="B19" s="132">
         <v>2900</v>
@@ -8889,7 +8887,7 @@
       </c>
       <c r="M19" s="85"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
       <c r="B20" s="132">
         <v>3000</v>
@@ -8910,7 +8908,7 @@
       </c>
       <c r="M20" s="85"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
       <c r="B21" s="132">
         <v>3100</v>
@@ -8931,7 +8929,7 @@
       </c>
       <c r="M21" s="85"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
       <c r="B22" s="132">
         <v>3125</v>
@@ -8952,7 +8950,7 @@
       </c>
       <c r="M22" s="85"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="86"/>
       <c r="B23" s="132">
         <v>3150</v>
@@ -8973,7 +8971,7 @@
       </c>
       <c r="M23" s="85"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="86"/>
       <c r="B24" s="132">
         <v>3175</v>
@@ -8994,7 +8992,7 @@
       </c>
       <c r="M24" s="85"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="86"/>
       <c r="B25" s="132">
         <v>3200</v>
@@ -9015,7 +9013,7 @@
       </c>
       <c r="M25" s="85"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="86"/>
       <c r="B26" s="132">
         <v>3225</v>
@@ -9036,7 +9034,7 @@
       </c>
       <c r="M26" s="85"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="86"/>
       <c r="B27" s="132">
         <v>3250</v>
@@ -9057,7 +9055,7 @@
       </c>
       <c r="M27" s="85"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="86"/>
       <c r="B28" s="132">
         <v>3300</v>
@@ -9078,7 +9076,7 @@
       </c>
       <c r="M28" s="85"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="86"/>
       <c r="B29" s="132">
         <v>3400</v>
@@ -9099,7 +9097,7 @@
       </c>
       <c r="M29" s="85"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="86"/>
       <c r="B30" s="132">
         <v>3500</v>
@@ -9120,7 +9118,7 @@
       </c>
       <c r="M30" s="85"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="86"/>
       <c r="B31" s="132">
         <v>3600</v>
@@ -9141,7 +9139,7 @@
       </c>
       <c r="M31" s="85"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="86"/>
       <c r="B32" s="132">
         <v>3700</v>
@@ -9162,7 +9160,7 @@
       </c>
       <c r="M32" s="85"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="86"/>
       <c r="B33" s="132">
         <v>3800</v>
@@ -9183,7 +9181,7 @@
       </c>
       <c r="M33" s="85"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="86"/>
       <c r="B34" s="132">
         <v>3900</v>
@@ -9204,7 +9202,7 @@
       </c>
       <c r="M34" s="85"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="86"/>
       <c r="B35" s="132">
         <v>4000</v>
@@ -9225,7 +9223,7 @@
       </c>
       <c r="M35" s="85"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="86"/>
       <c r="B36" s="132">
         <v>4200</v>
@@ -9246,7 +9244,7 @@
       </c>
       <c r="M36" s="85"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="86"/>
       <c r="B37" s="132">
         <v>4400</v>
@@ -9267,7 +9265,7 @@
       </c>
       <c r="M37" s="85"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="86"/>
       <c r="B38" s="132">
         <v>4600</v>
@@ -9288,7 +9286,7 @@
       </c>
       <c r="M38" s="85"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="86"/>
       <c r="B39" s="132">
         <v>4800</v>
@@ -9309,7 +9307,7 @@
       </c>
       <c r="M39" s="85"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="86"/>
       <c r="B40" s="132">
         <v>5000</v>
@@ -9330,7 +9328,7 @@
       </c>
       <c r="M40" s="85"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="86"/>
       <c r="B41" s="132">
         <v>5200</v>
@@ -9351,7 +9349,7 @@
       </c>
       <c r="M41" s="85"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="86"/>
       <c r="B42" s="132">
         <v>5400</v>
@@ -9372,7 +9370,7 @@
       </c>
       <c r="M42" s="85"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="86"/>
       <c r="B43" s="132">
         <v>5600</v>
@@ -9393,7 +9391,7 @@
       </c>
       <c r="M43" s="85"/>
     </row>
-    <row r="44" spans="1:13" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="86"/>
       <c r="B44" s="117">
         <v>5800</v>
@@ -9414,66 +9412,66 @@
       </c>
       <c r="M44" s="85"/>
     </row>
-    <row r="45" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="86"/>
       <c r="M45" s="85"/>
     </row>
-    <row r="46" spans="1:13" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="86"/>
-      <c r="B46" s="206" t="s">
+      <c r="B46" s="220" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="207"/>
-      <c r="D46" s="173" t="s">
+      <c r="C46" s="221"/>
+      <c r="D46" s="199" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="173"/>
-      <c r="F46" s="173"/>
-      <c r="G46" s="173"/>
-      <c r="H46" s="173" t="s">
+      <c r="E46" s="199"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="199" t="s">
         <v>177</v>
       </c>
-      <c r="I46" s="173"/>
-      <c r="J46" s="173"/>
-      <c r="K46" s="173" t="s">
+      <c r="I46" s="199"/>
+      <c r="J46" s="199"/>
+      <c r="K46" s="199" t="s">
         <v>178</v>
       </c>
-      <c r="L46" s="177"/>
+      <c r="L46" s="201"/>
       <c r="M46" s="85"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="86"/>
-      <c r="B47" s="204"/>
-      <c r="C47" s="208"/>
-      <c r="D47" s="176" t="s">
+      <c r="B47" s="222"/>
+      <c r="C47" s="223"/>
+      <c r="D47" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="176"/>
-      <c r="F47" s="176"/>
-      <c r="G47" s="176" t="s">
+      <c r="E47" s="200"/>
+      <c r="F47" s="200"/>
+      <c r="G47" s="200" t="s">
         <v>181</v>
       </c>
-      <c r="H47" s="176" t="s">
+      <c r="H47" s="200" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="176" t="s">
+      <c r="I47" s="200" t="s">
         <v>193</v>
       </c>
-      <c r="J47" s="176" t="s">
+      <c r="J47" s="200" t="s">
         <v>190</v>
       </c>
-      <c r="K47" s="176" t="s">
+      <c r="K47" s="200" t="s">
         <v>192</v>
       </c>
-      <c r="L47" s="178" t="s">
+      <c r="L47" s="202" t="s">
         <v>191</v>
       </c>
       <c r="M47" s="85"/>
     </row>
-    <row r="48" spans="1:13" ht="16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A48" s="86"/>
-      <c r="B48" s="204"/>
-      <c r="C48" s="208"/>
+      <c r="B48" s="222"/>
+      <c r="C48" s="223"/>
       <c r="D48" s="91" t="s">
         <v>188</v>
       </c>
@@ -9483,17 +9481,17 @@
       <c r="F48" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="G48" s="176"/>
-      <c r="H48" s="176"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="176"/>
-      <c r="K48" s="176"/>
-      <c r="L48" s="178"/>
+      <c r="G48" s="200"/>
+      <c r="H48" s="200"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="200"/>
+      <c r="K48" s="200"/>
+      <c r="L48" s="202"/>
       <c r="M48" s="85"/>
     </row>
-    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="86"/>
-      <c r="B49" s="205" t="s">
+      <c r="B49" s="219" t="s">
         <v>186</v>
       </c>
       <c r="C49" s="148">
@@ -9538,9 +9536,9 @@
       </c>
       <c r="M49" s="85"/>
     </row>
-    <row r="50" spans="1:13" ht="32.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="86"/>
-      <c r="B50" s="181"/>
+      <c r="B50" s="196"/>
       <c r="C50" s="150">
         <f>D2+F3</f>
         <v>312.60000000000002</v>
@@ -9583,7 +9581,7 @@
       </c>
       <c r="M50" s="85"/>
     </row>
-    <row r="51" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="107"/>
       <c r="B51" s="108"/>
       <c r="C51" s="108"/>
@@ -9600,6 +9598,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H46:J46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B46:C48"/>
@@ -9608,11 +9611,6 @@
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="L47:L48"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9625,13 +9623,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EDF2BB-2301-4B7F-8D7C-189305C3C754}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89"/>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -9644,326 +9640,280 @@
       <c r="J1" s="88"/>
       <c r="K1" s="84"/>
     </row>
-    <row r="2" spans="1:11" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="86"/>
-      <c r="B2" s="222" t="s">
+      <c r="B2" s="175" t="s">
         <v>200</v>
       </c>
-      <c r="C2" s="223">
+      <c r="C2" s="176">
         <v>20</v>
       </c>
-      <c r="D2" s="227"/>
-      <c r="E2" s="222" t="s">
+      <c r="E2" s="175" t="s">
         <v>202</v>
       </c>
-      <c r="F2" s="224">
+      <c r="F2" s="177">
         <v>1.4019999999999999</v>
       </c>
-      <c r="G2" s="227"/>
-      <c r="H2" s="227"/>
-      <c r="I2" s="227"/>
-      <c r="J2" s="227"/>
       <c r="K2" s="85"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="86"/>
-      <c r="B3" s="227"/>
-      <c r="C3" s="227"/>
-      <c r="D3" s="227"/>
-      <c r="E3" s="227"/>
-      <c r="F3" s="227"/>
-      <c r="G3" s="227"/>
-      <c r="H3" s="227"/>
-      <c r="I3" s="227"/>
-      <c r="J3" s="227"/>
       <c r="K3" s="85"/>
     </row>
-    <row r="4" spans="1:11" ht="17" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="86"/>
-      <c r="B4" s="209"/>
-      <c r="C4" s="210" t="s">
+      <c r="B4" s="164"/>
+      <c r="C4" s="165" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="210" t="s">
+      <c r="D4" s="165" t="s">
         <v>204</v>
       </c>
-      <c r="E4" s="210" t="s">
+      <c r="E4" s="165" t="s">
         <v>205</v>
       </c>
-      <c r="F4" s="210" t="s">
+      <c r="F4" s="165" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="210" t="s">
+      <c r="G4" s="165" t="s">
         <v>207</v>
       </c>
-      <c r="H4" s="210" t="s">
+      <c r="H4" s="165" t="s">
         <v>208</v>
       </c>
-      <c r="I4" s="210" t="s">
+      <c r="I4" s="165" t="s">
         <v>209</v>
       </c>
-      <c r="J4" s="219" t="s">
+      <c r="J4" s="172" t="s">
         <v>201</v>
       </c>
       <c r="K4" s="85"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="86"/>
-      <c r="B5" s="211">
+      <c r="B5" s="166">
         <v>1</v>
       </c>
-      <c r="C5" s="212">
+      <c r="C5" s="225">
         <v>1.0285</v>
       </c>
-      <c r="D5" s="217">
+      <c r="D5" s="170">
         <v>130.19999999999999</v>
       </c>
-      <c r="E5" s="217">
+      <c r="E5" s="170">
         <v>1472.6</v>
       </c>
-      <c r="F5" s="217">
+      <c r="F5" s="170">
         <v>32</v>
       </c>
-      <c r="G5" s="217">
+      <c r="G5" s="170">
         <v>1472.6</v>
       </c>
-      <c r="H5" s="213">
-        <f>$C$5+(D5/($C$2*100))</f>
+      <c r="H5" s="167">
+        <f t="shared" ref="H5:H10" si="0">$C$5+(D5/($C$2*100))</f>
         <v>1.0935999999999999</v>
       </c>
-      <c r="I5" s="213">
-        <f>$C$5+(F5/($C$2*100))</f>
+      <c r="I5" s="167">
+        <f t="shared" ref="I5:I10" si="1">$C$5+(F5/($C$2*100))</f>
         <v>1.0445</v>
       </c>
-      <c r="J5" s="220">
-        <f>LOG10(H5/$C$5)/LOG10(H5/I5)</f>
+      <c r="J5" s="173">
+        <f t="shared" ref="J5:J10" si="2">LOG10(H5/$C$5)/LOG10(H5/I5)</f>
         <v>1.3360465688783709</v>
       </c>
       <c r="K5" s="85"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="86"/>
-      <c r="B6" s="211">
+      <c r="B6" s="166">
         <v>2</v>
       </c>
-      <c r="C6" s="212"/>
-      <c r="D6" s="217">
+      <c r="C6" s="225"/>
+      <c r="D6" s="170">
         <v>120.7</v>
       </c>
-      <c r="E6" s="217">
+      <c r="E6" s="170">
         <v>1474.3</v>
       </c>
-      <c r="F6" s="217">
+      <c r="F6" s="170">
         <v>30.6</v>
       </c>
-      <c r="G6" s="217">
+      <c r="G6" s="170">
         <v>1474.4</v>
       </c>
-      <c r="H6" s="213">
-        <f>$C$5+(D6/($C$2*100))</f>
+      <c r="H6" s="167">
+        <f t="shared" si="0"/>
         <v>1.0888499999999999</v>
       </c>
-      <c r="I6" s="213">
-        <f>$C$5+(F6/($C$2*100))</f>
+      <c r="I6" s="167">
+        <f t="shared" si="1"/>
         <v>1.0438000000000001</v>
       </c>
-      <c r="J6" s="220">
-        <f>LOG10(H6/$C$5)/LOG10(H6/I6)</f>
+      <c r="J6" s="173">
+        <f t="shared" si="2"/>
         <v>1.3494675676334851</v>
       </c>
       <c r="K6" s="85"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="86"/>
-      <c r="B7" s="211">
+      <c r="B7" s="166">
         <v>3</v>
       </c>
-      <c r="C7" s="212"/>
-      <c r="D7" s="217">
+      <c r="C7" s="225"/>
+      <c r="D7" s="170">
         <v>123.3</v>
       </c>
-      <c r="E7" s="217">
+      <c r="E7" s="170">
         <v>1475.4</v>
       </c>
-      <c r="F7" s="217">
+      <c r="F7" s="170">
         <v>30.9</v>
       </c>
-      <c r="G7" s="217">
+      <c r="G7" s="170">
         <v>1475.2</v>
       </c>
-      <c r="H7" s="213">
-        <f>$C$5+(D7/($C$2*100))</f>
+      <c r="H7" s="167">
+        <f t="shared" si="0"/>
         <v>1.09015</v>
       </c>
-      <c r="I7" s="213">
-        <f>$C$5+(F7/($C$2*100))</f>
+      <c r="I7" s="167">
+        <f t="shared" si="1"/>
         <v>1.0439499999999999</v>
       </c>
-      <c r="J7" s="220">
-        <f>LOG10(H7/$C$5)/LOG10(H7/I7)</f>
+      <c r="J7" s="173">
+        <f t="shared" si="2"/>
         <v>1.3443161546273665</v>
       </c>
       <c r="K7" s="85"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="86"/>
-      <c r="B8" s="211">
+      <c r="B8" s="166">
         <v>4</v>
       </c>
-      <c r="C8" s="212"/>
-      <c r="D8" s="217">
+      <c r="C8" s="225"/>
+      <c r="D8" s="170">
         <v>112.2</v>
       </c>
-      <c r="E8" s="217">
+      <c r="E8" s="170">
         <v>1475.9</v>
       </c>
-      <c r="F8" s="217">
+      <c r="F8" s="170">
         <v>28.2</v>
       </c>
-      <c r="G8" s="217">
+      <c r="G8" s="170">
         <v>1475.8</v>
       </c>
-      <c r="H8" s="213">
-        <f>$C$5+(D8/($C$2*100))</f>
+      <c r="H8" s="167">
+        <f t="shared" si="0"/>
         <v>1.0846</v>
       </c>
-      <c r="I8" s="213">
-        <f>$C$5+(F8/($C$2*100))</f>
+      <c r="I8" s="167">
+        <f t="shared" si="1"/>
         <v>1.0426</v>
       </c>
-      <c r="J8" s="220">
-        <f>LOG10(H8/$C$5)/LOG10(H8/I8)</f>
+      <c r="J8" s="173">
+        <f t="shared" si="2"/>
         <v>1.3447683128457768</v>
       </c>
       <c r="K8" s="85"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="86"/>
-      <c r="B9" s="211">
+      <c r="B9" s="166">
         <v>5</v>
       </c>
-      <c r="C9" s="212"/>
-      <c r="D9" s="217">
+      <c r="C9" s="225"/>
+      <c r="D9" s="170">
         <v>123.4</v>
       </c>
-      <c r="E9" s="217">
+      <c r="E9" s="170">
         <v>1476</v>
       </c>
-      <c r="F9" s="217">
+      <c r="F9" s="170">
         <v>30.7</v>
       </c>
-      <c r="G9" s="217">
+      <c r="G9" s="170">
         <v>1475.9</v>
       </c>
-      <c r="H9" s="213">
-        <f>$C$5+(D9/($C$2*100))</f>
+      <c r="H9" s="167">
+        <f t="shared" si="0"/>
         <v>1.0902000000000001</v>
       </c>
-      <c r="I9" s="213">
-        <f>$C$5+(F9/($C$2*100))</f>
+      <c r="I9" s="167">
+        <f t="shared" si="1"/>
         <v>1.0438499999999999</v>
       </c>
-      <c r="J9" s="220">
-        <f>LOG10(H9/$C$5)/LOG10(H9/I9)</f>
+      <c r="J9" s="173">
+        <f t="shared" si="2"/>
         <v>1.3409885261194092</v>
       </c>
       <c r="K9" s="85"/>
     </row>
-    <row r="10" spans="1:11" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="86"/>
-      <c r="B10" s="214">
+      <c r="B10" s="168">
         <v>6</v>
       </c>
-      <c r="C10" s="215"/>
-      <c r="D10" s="218">
+      <c r="C10" s="226"/>
+      <c r="D10" s="171">
         <v>108.4</v>
       </c>
-      <c r="E10" s="218">
+      <c r="E10" s="171">
         <v>1476</v>
       </c>
-      <c r="F10" s="218">
+      <c r="F10" s="171">
         <v>27.1</v>
       </c>
-      <c r="G10" s="218">
+      <c r="G10" s="171">
         <v>1476</v>
       </c>
-      <c r="H10" s="216">
-        <f>$C$5+(D10/($C$2*100))</f>
+      <c r="H10" s="169">
+        <f t="shared" si="0"/>
         <v>1.0827</v>
       </c>
-      <c r="I10" s="216">
-        <f>$C$5+(F10/($C$2*100))</f>
+      <c r="I10" s="169">
+        <f t="shared" si="1"/>
         <v>1.0420499999999999</v>
       </c>
-      <c r="J10" s="221">
-        <f>LOG10(H10/$C$5)/LOG10(H10/I10)</f>
+      <c r="J10" s="174">
+        <f t="shared" si="2"/>
         <v>1.3420220181806992</v>
       </c>
       <c r="K10" s="85"/>
     </row>
-    <row r="11" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="86"/>
-      <c r="B11" s="227"/>
-      <c r="C11" s="227"/>
-      <c r="D11" s="227"/>
-      <c r="E11" s="227"/>
-      <c r="F11" s="227"/>
-      <c r="G11" s="227"/>
-      <c r="H11" s="227"/>
-      <c r="I11" s="227"/>
-      <c r="J11" s="227"/>
       <c r="K11" s="85"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="86"/>
-      <c r="B12" s="222" t="s">
+      <c r="B12" s="175" t="s">
         <v>210</v>
       </c>
-      <c r="C12" s="225">
+      <c r="C12" s="178">
         <f>AVERAGE(J5:J10)</f>
         <v>1.342934858047518</v>
       </c>
-      <c r="D12" s="227"/>
-      <c r="E12" s="227"/>
-      <c r="F12" s="227"/>
-      <c r="G12" s="227"/>
-      <c r="H12" s="227"/>
-      <c r="I12" s="227"/>
-      <c r="J12" s="227"/>
       <c r="K12" s="85"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="86"/>
-      <c r="B13" s="227"/>
-      <c r="C13" s="227"/>
-      <c r="D13" s="227"/>
-      <c r="E13" s="227"/>
-      <c r="F13" s="227"/>
-      <c r="G13" s="227"/>
-      <c r="H13" s="227"/>
-      <c r="I13" s="227"/>
-      <c r="J13" s="227"/>
       <c r="K13" s="85"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="86"/>
-      <c r="B14" s="222" t="s">
+      <c r="B14" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="226">
+      <c r="C14" s="179">
         <f>ABS(C12-F2)/F2</f>
         <v>4.2129202533867274E-2</v>
       </c>
-      <c r="D14" s="227"/>
-      <c r="E14" s="227"/>
-      <c r="F14" s="227"/>
-      <c r="G14" s="227"/>
-      <c r="H14" s="227"/>
-      <c r="I14" s="227"/>
-      <c r="J14" s="227"/>
       <c r="K14" s="85"/>
     </row>
-    <row r="15" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="107"/>
       <c r="B15" s="108"/>
       <c r="C15" s="108"/>
@@ -9994,28 +9944,28 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="167" t="s">
+    <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="183" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
+      <c r="B1" s="184"/>
+      <c r="C1" s="184"/>
+      <c r="D1" s="184"/>
+      <c r="E1" s="184"/>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
       <c r="H1" s="12"/>
     </row>
-    <row r="2" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="2">
         <v>1</v>
@@ -10037,7 +9987,7 @@
       </c>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>3</v>
       </c>
@@ -10085,7 +10035,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
@@ -10133,7 +10083,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -10181,7 +10131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
@@ -10229,7 +10179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -10277,7 +10227,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -10325,7 +10275,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>11</v>
       </c>
@@ -10373,7 +10323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>12</v>
       </c>
@@ -10421,7 +10371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -10469,7 +10419,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -10479,7 +10429,7 @@
       <c r="G12" s="11"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:15" ht="42.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="42" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="71" t="s">
         <v>14</v>
       </c>
@@ -10492,7 +10442,7 @@
       <c r="G13" s="11"/>
       <c r="H13" s="14"/>
     </row>
-    <row r="14" spans="1:15" ht="42" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A14" s="72" t="s">
         <v>15</v>
       </c>
@@ -10505,7 +10455,7 @@
       <c r="G14" s="11"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:15" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="73" t="s">
         <v>16</v>
       </c>
@@ -10518,7 +10468,7 @@
       <c r="G15" s="11"/>
       <c r="H15" s="14"/>
     </row>
-    <row r="16" spans="1:15" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -10528,19 +10478,19 @@
       <c r="G16" s="11"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="169" t="s">
+    <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="170"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="186"/>
+      <c r="F17" s="186"/>
+      <c r="G17" s="186"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -10562,7 +10512,7 @@
       </c>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>3</v>
       </c>
@@ -10591,7 +10541,7 @@
       </c>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
@@ -10620,7 +10570,7 @@
       </c>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>9</v>
       </c>
@@ -10649,7 +10599,7 @@
       </c>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>10</v>
       </c>
@@ -10678,7 +10628,7 @@
       </c>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>1</v>
       </c>
@@ -10707,7 +10657,7 @@
       </c>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>0</v>
       </c>
@@ -10736,7 +10686,7 @@
       </c>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>11</v>
       </c>
@@ -10765,7 +10715,7 @@
       </c>
       <c r="H25" s="14"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>12</v>
       </c>
@@ -10794,7 +10744,7 @@
       </c>
       <c r="H26" s="14"/>
     </row>
-    <row r="27" spans="1:8" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>13</v>
       </c>
@@ -10823,7 +10773,7 @@
       </c>
       <c r="H27" s="14"/>
     </row>
-    <row r="28" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="28"/>
       <c r="B28" s="29"/>
       <c r="C28" s="29"/>
@@ -10851,16 +10801,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -10871,7 +10821,7 @@
       <c r="H1" s="6"/>
       <c r="I1" s="12"/>
     </row>
-    <row r="2" spans="1:16" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>25</v>
       </c>
@@ -10898,7 +10848,7 @@
       </c>
       <c r="I2" s="14"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>0</v>
       </c>
@@ -10926,7 +10876,7 @@
       </c>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="78" t="s">
         <v>1</v>
       </c>
@@ -10954,7 +10904,7 @@
       </c>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="79"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -10965,7 +10915,7 @@
       <c r="H5" s="11"/>
       <c r="I5" s="14"/>
     </row>
-    <row r="6" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="80" t="s">
         <v>24</v>
       </c>
@@ -10981,7 +10931,7 @@
       <c r="H6" s="11"/>
       <c r="I6" s="14"/>
     </row>
-    <row r="7" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="79"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -10992,7 +10942,7 @@
       <c r="H7" s="11"/>
       <c r="I7" s="14"/>
     </row>
-    <row r="8" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="80" t="s">
         <v>32</v>
       </c>
@@ -11007,7 +10957,7 @@
       <c r="H8" s="11"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="79"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -11019,7 +10969,7 @@
       <c r="I9" s="14"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="28.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="76" t="s">
         <v>26</v>
       </c>
@@ -11039,7 +10989,7 @@
       <c r="I10" s="14"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="77">
         <v>1</v>
       </c>
@@ -11059,7 +11009,7 @@
       <c r="I11" s="14"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="77">
         <v>2</v>
       </c>
@@ -11078,7 +11028,7 @@
       <c r="H12" s="11"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="77">
         <v>3</v>
       </c>
@@ -11097,7 +11047,7 @@
       <c r="H13" s="11"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="77">
         <v>4</v>
       </c>
@@ -11116,7 +11066,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="77">
         <v>5</v>
       </c>
@@ -11135,7 +11085,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="77">
         <v>6</v>
       </c>
@@ -11154,7 +11104,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="78" t="s">
         <v>74</v>
       </c>
@@ -11176,7 +11126,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="76" t="s">
         <v>30</v>
       </c>
@@ -11198,7 +11148,7 @@
       <c r="H18" s="11"/>
       <c r="I18" s="14"/>
     </row>
-    <row r="19" spans="1:9" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="78" t="s">
         <v>31</v>
       </c>
@@ -11220,7 +11170,7 @@
       <c r="H19" s="11"/>
       <c r="I19" s="14"/>
     </row>
-    <row r="20" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -11244,33 +11194,33 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.9140625" customWidth="1"/>
-    <col min="2" max="2" width="7.58203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" customWidth="1"/>
-    <col min="4" max="4" width="9.4140625" customWidth="1"/>
-    <col min="5" max="5" width="7.25" customWidth="1"/>
-    <col min="6" max="7" width="6.58203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" customWidth="1"/>
+    <col min="6" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89"/>
       <c r="B1" s="88"/>
-      <c r="C1" s="172" t="s">
+      <c r="C1" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="84"/>
     </row>
-    <row r="2" spans="1:10" ht="28.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="C2" s="42" t="s">
         <v>34</v>
@@ -11287,7 +11237,7 @@
       <c r="I2" s="11"/>
       <c r="J2" s="85"/>
     </row>
-    <row r="3" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10"/>
       <c r="C3" s="45">
         <v>1084</v>
@@ -11304,7 +11254,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="85"/>
     </row>
-    <row r="4" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -11316,7 +11266,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="85"/>
     </row>
-    <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
@@ -11328,7 +11278,7 @@
       <c r="I5" s="11"/>
       <c r="J5" s="85"/>
     </row>
-    <row r="6" spans="1:10" ht="28.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="2"/>
       <c r="C6" s="43" t="s">
@@ -11346,8 +11296,8 @@
       <c r="I6" s="11"/>
       <c r="J6" s="85"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="171" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="187" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3">
@@ -11368,8 +11318,8 @@
       <c r="I7" s="11"/>
       <c r="J7" s="85"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="171"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="187"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -11388,8 +11338,8 @@
       <c r="I8" s="11"/>
       <c r="J8" s="85"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="171"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="187"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -11408,8 +11358,8 @@
       <c r="I9" s="11"/>
       <c r="J9" s="85"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="171"/>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="187"/>
       <c r="B10" s="3">
         <v>4</v>
       </c>
@@ -11428,8 +11378,8 @@
       <c r="I10" s="11"/>
       <c r="J10" s="85"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="171"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="187"/>
       <c r="B11" s="3">
         <v>5</v>
       </c>
@@ -11448,8 +11398,8 @@
       <c r="I11" s="11"/>
       <c r="J11" s="85"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="171"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="187"/>
       <c r="B12" s="3">
         <v>6</v>
       </c>
@@ -11468,8 +11418,8 @@
       <c r="I12" s="11"/>
       <c r="J12" s="85"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="171"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="187"/>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -11491,7 +11441,7 @@
       <c r="I13" s="11"/>
       <c r="J13" s="85"/>
     </row>
-    <row r="14" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
@@ -11516,7 +11466,7 @@
       <c r="I14" s="11"/>
       <c r="J14" s="85"/>
     </row>
-    <row r="15" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -11528,7 +11478,7 @@
       <c r="I15" s="11"/>
       <c r="J15" s="85"/>
     </row>
-    <row r="16" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="B16" s="81"/>
       <c r="C16" s="2">
@@ -11554,7 +11504,7 @@
       </c>
       <c r="J16" s="85"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="B17" s="82" t="s">
         <v>3</v>
@@ -11583,7 +11533,7 @@
       </c>
       <c r="J17" s="85"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
       <c r="B18" s="82" t="s">
         <v>7</v>
@@ -11612,7 +11562,7 @@
       </c>
       <c r="J18" s="85"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
       <c r="B19" s="82" t="s">
         <v>42</v>
@@ -11641,7 +11591,7 @@
       </c>
       <c r="J19" s="85"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
       <c r="B20" s="82" t="s">
         <v>43</v>
@@ -11670,7 +11620,7 @@
       </c>
       <c r="J20" s="85"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
       <c r="B21" s="82" t="s">
         <v>6</v>
@@ -11699,7 +11649,7 @@
       </c>
       <c r="J21" s="85"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
       <c r="B22" s="82" t="s">
         <v>5</v>
@@ -11728,7 +11678,7 @@
       </c>
       <c r="J22" s="85"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="86"/>
       <c r="B23" s="82" t="s">
         <v>44</v>
@@ -11757,7 +11707,7 @@
       </c>
       <c r="J23" s="85"/>
     </row>
-    <row r="24" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="86"/>
       <c r="B24" s="83" t="s">
         <v>4</v>
@@ -11786,7 +11736,7 @@
       </c>
       <c r="J24" s="85"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -11798,7 +11748,7 @@
       <c r="I25" s="11"/>
       <c r="J25" s="85"/>
     </row>
-    <row r="26" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A26" s="86"/>
       <c r="B26" s="81" t="s">
         <v>48</v>
@@ -11815,7 +11765,7 @@
       <c r="I26" s="11"/>
       <c r="J26" s="85"/>
     </row>
-    <row r="27" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="86"/>
       <c r="B27" s="83" t="s">
         <v>49</v>
@@ -11832,7 +11782,7 @@
       <c r="I27" s="11"/>
       <c r="J27" s="85"/>
     </row>
-    <row r="28" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -11844,7 +11794,7 @@
       <c r="I28" s="11"/>
       <c r="J28" s="85"/>
     </row>
-    <row r="29" spans="1:10" ht="28.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="86"/>
       <c r="B29" s="42"/>
       <c r="C29" s="43" t="s">
@@ -11862,7 +11812,7 @@
       <c r="I29" s="11"/>
       <c r="J29" s="85"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="86"/>
       <c r="B30" s="82" t="s">
         <v>45</v>
@@ -11885,7 +11835,7 @@
       <c r="I30" s="11"/>
       <c r="J30" s="85"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="86"/>
       <c r="B31" s="82" t="s">
         <v>46</v>
@@ -11908,7 +11858,7 @@
       <c r="I31" s="11"/>
       <c r="J31" s="85"/>
     </row>
-    <row r="32" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="86"/>
       <c r="B32" s="83" t="s">
         <v>47</v>
@@ -11931,7 +11881,7 @@
       <c r="I32" s="11"/>
       <c r="J32" s="85"/>
     </row>
-    <row r="33" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="28"/>
       <c r="B33" s="57"/>
       <c r="C33" s="29"/>
@@ -11960,20 +11910,20 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.4140625" customWidth="1"/>
-    <col min="2" max="2" width="5.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.58203125" customWidth="1"/>
-    <col min="9" max="9" width="11.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -11987,45 +11937,45 @@
       <c r="K1" s="6"/>
       <c r="L1" s="84"/>
     </row>
-    <row r="2" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="183" t="s">
+    <row r="2" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="190" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="184"/>
-      <c r="C2" s="184"/>
-      <c r="D2" s="184"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
       <c r="E2" s="93" t="s">
         <v>90</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="G2" s="179" t="s">
+      <c r="G2" s="194" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
       <c r="K2" s="94">
         <f>TRUNC(E2)+MID(E2,5,2)/60+MID(E2,7,2)/3600</f>
         <v>267.41666666666669</v>
       </c>
       <c r="L2" s="105"/>
     </row>
-    <row r="3" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="86"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="181" t="s">
+      <c r="G3" s="196" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="182"/>
-      <c r="I3" s="182"/>
-      <c r="J3" s="182"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
       <c r="K3" s="90">
         <f>1/3000</f>
         <v>3.3333333333333332E-4</v>
       </c>
       <c r="L3" s="85"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="106"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -12039,22 +11989,22 @@
       <c r="K4" s="11"/>
       <c r="L4" s="85"/>
     </row>
-    <row r="5" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="175" t="s">
+    <row r="5" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="173" t="s">
+      <c r="C5" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="177"/>
+      <c r="D5" s="201"/>
       <c r="L5" s="85"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="171"/>
-      <c r="B6" s="176"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="187"/>
+      <c r="B6" s="200"/>
       <c r="C6" s="91" t="s">
         <v>82</v>
       </c>
@@ -12063,8 +12013,8 @@
       </c>
       <c r="L6" s="85"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="171">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="187">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -12076,13 +12026,13 @@
       <c r="D7" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="185" t="s">
+      <c r="F7" s="192" t="s">
         <v>109</v>
       </c>
       <c r="L7" s="85"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="171"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="187"/>
       <c r="B8" s="3" t="s">
         <v>85</v>
       </c>
@@ -12092,11 +12042,11 @@
       <c r="D8" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="186"/>
+      <c r="F8" s="193"/>
       <c r="L8" s="85"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="171"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="187"/>
       <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
@@ -12106,11 +12056,11 @@
       <c r="D9" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="186"/>
+      <c r="F9" s="193"/>
       <c r="L9" s="85"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="171">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="187">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -12122,11 +12072,11 @@
       <c r="D10" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="186"/>
+      <c r="F10" s="193"/>
       <c r="L10" s="85"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="171"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="187"/>
       <c r="B11" s="3" t="s">
         <v>85</v>
       </c>
@@ -12136,11 +12086,11 @@
       <c r="D11" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="186"/>
+      <c r="F11" s="193"/>
       <c r="L11" s="85"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="171"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="187"/>
       <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
@@ -12150,11 +12100,11 @@
       <c r="D12" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="186"/>
+      <c r="F12" s="193"/>
       <c r="L12" s="85"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="171">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="187">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -12166,11 +12116,11 @@
       <c r="D13" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="186"/>
+      <c r="F13" s="193"/>
       <c r="L13" s="85"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="171"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="187"/>
       <c r="B14" s="3" t="s">
         <v>85</v>
       </c>
@@ -12180,11 +12130,11 @@
       <c r="D14" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="186"/>
+      <c r="F14" s="193"/>
       <c r="L14" s="85"/>
     </row>
-    <row r="15" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="174"/>
+    <row r="15" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="189"/>
       <c r="B15" s="4" t="s">
         <v>86</v>
       </c>
@@ -12196,45 +12146,45 @@
       </c>
       <c r="L15" s="85"/>
     </row>
-    <row r="16" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="86"/>
       <c r="L16" s="85"/>
     </row>
-    <row r="17" spans="1:12" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="175" t="s">
+    <row r="17" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="198" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="173" t="s">
+      <c r="C17" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="173"/>
-      <c r="E17" s="173" t="s">
+      <c r="D17" s="199"/>
+      <c r="E17" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="173"/>
-      <c r="G17" s="173" t="s">
+      <c r="F17" s="199"/>
+      <c r="G17" s="199" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="173" t="s">
+      <c r="H17" s="199" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="173" t="s">
+      <c r="I17" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="173" t="s">
+      <c r="J17" s="199" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="177" t="s">
+      <c r="K17" s="201" t="s">
         <v>2</v>
       </c>
       <c r="L17" s="85"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="171"/>
-      <c r="B18" s="176"/>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="187"/>
+      <c r="B18" s="200"/>
       <c r="C18" s="91" t="s">
         <v>82</v>
       </c>
@@ -12247,15 +12197,15 @@
       <c r="F18" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="176"/>
-      <c r="H18" s="176"/>
-      <c r="I18" s="176"/>
-      <c r="J18" s="176"/>
-      <c r="K18" s="178"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="202"/>
       <c r="L18" s="85"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="171">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="187">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -12299,8 +12249,8 @@
       </c>
       <c r="L19" s="85"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="171"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="187"/>
       <c r="B20" s="3" t="s">
         <v>85</v>
       </c>
@@ -12342,8 +12292,8 @@
       </c>
       <c r="L20" s="85"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="171"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="187"/>
       <c r="B21" s="3" t="s">
         <v>86</v>
       </c>
@@ -12385,8 +12335,8 @@
       </c>
       <c r="L21" s="85"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="171">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="187">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -12430,8 +12380,8 @@
       </c>
       <c r="L22" s="85"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="171"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="187"/>
       <c r="B23" s="3" t="s">
         <v>85</v>
       </c>
@@ -12473,8 +12423,8 @@
       </c>
       <c r="L23" s="85"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="171"/>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="187"/>
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
@@ -12516,8 +12466,8 @@
       </c>
       <c r="L24" s="85"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="171">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="187">
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -12561,8 +12511,8 @@
       </c>
       <c r="L25" s="85"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="171"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="187"/>
       <c r="B26" s="3" t="s">
         <v>85</v>
       </c>
@@ -12604,8 +12554,8 @@
       </c>
       <c r="L26" s="85"/>
     </row>
-    <row r="27" spans="1:12" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="174"/>
+    <row r="27" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="189"/>
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
@@ -12647,7 +12597,7 @@
       </c>
       <c r="L27" s="85"/>
     </row>
-    <row r="28" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="107"/>
       <c r="B28" s="108"/>
       <c r="C28" s="108"/>
@@ -12663,28 +12613,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F7:F14"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F7:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12701,19 +12651,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="81" t="s">
         <v>54</v>
       </c>
@@ -12728,7 +12678,7 @@
       </c>
       <c r="E2" s="14"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="82" t="s">
         <v>58</v>
       </c>
@@ -12743,7 +12693,7 @@
       </c>
       <c r="E3" s="14"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="82" t="s">
         <v>59</v>
       </c>
@@ -12761,7 +12711,7 @@
       </c>
       <c r="E4" s="14"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="82" t="s">
         <v>60</v>
       </c>
@@ -12779,7 +12729,7 @@
       </c>
       <c r="E5" s="14"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="82" t="s">
         <v>61</v>
       </c>
@@ -12794,7 +12744,7 @@
       </c>
       <c r="E6" s="14"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="82" t="s">
         <v>62</v>
       </c>
@@ -12812,7 +12762,7 @@
       </c>
       <c r="E7" s="14"/>
     </row>
-    <row r="8" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="83" t="s">
         <v>63</v>
       </c>
@@ -12830,7 +12780,7 @@
       </c>
       <c r="E8" s="14"/>
     </row>
-    <row r="9" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>64</v>
       </c>
@@ -12845,7 +12795,7 @@
       </c>
       <c r="E9" s="14"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>65</v>
       </c>
@@ -12860,7 +12810,7 @@
       </c>
       <c r="E10" s="14"/>
     </row>
-    <row r="11" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>66</v>
       </c>
@@ -12875,14 +12825,14 @@
       </c>
       <c r="E11" s="14"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="14"/>
     </row>
-    <row r="13" spans="1:5" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>67</v>
       </c>
@@ -12897,7 +12847,7 @@
       </c>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>68</v>
       </c>
@@ -12912,7 +12862,7 @@
       </c>
       <c r="E14" s="14"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>69</v>
       </c>
@@ -12927,7 +12877,7 @@
       </c>
       <c r="E15" s="14"/>
     </row>
-    <row r="16" spans="1:5" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>70</v>
       </c>
@@ -12942,7 +12892,7 @@
       </c>
       <c r="E16" s="14"/>
     </row>
-    <row r="17" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="28"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -12961,17 +12911,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.9140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.58203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.4140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="6"/>
       <c r="C1" s="6"/>
@@ -12980,7 +12930,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="12"/>
     </row>
-    <row r="2" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>122</v>
       </c>
@@ -12993,13 +12943,13 @@
       <c r="D2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="187" t="s">
+      <c r="E2" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="188"/>
+      <c r="F2" s="204"/>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="118">
         <v>30</v>
       </c>
@@ -13013,14 +12963,14 @@
         <f>B3-C3</f>
         <v>10.413</v>
       </c>
-      <c r="E3" s="189">
+      <c r="E3" s="205">
         <f>D3-D4</f>
         <v>1.0130000000000017</v>
       </c>
       <c r="F3" s="49"/>
       <c r="G3" s="14"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="118">
         <v>25</v>
       </c>
@@ -13034,14 +12984,14 @@
         <f t="shared" ref="D4:D8" si="0">B4-C4</f>
         <v>9.3999999999999986</v>
       </c>
-      <c r="E4" s="189"/>
-      <c r="F4" s="190">
+      <c r="E4" s="205"/>
+      <c r="F4" s="206">
         <f>D4-D5</f>
         <v>0.74200000000000088</v>
       </c>
       <c r="G4" s="14"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="118">
         <v>20</v>
       </c>
@@ -13055,14 +13005,14 @@
         <f t="shared" si="0"/>
         <v>8.6579999999999977</v>
       </c>
-      <c r="E5" s="189">
+      <c r="E5" s="205">
         <f t="shared" ref="E5:E7" si="1">D5-D6</f>
         <v>1.0999999999999979</v>
       </c>
-      <c r="F5" s="190"/>
+      <c r="F5" s="206"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="118">
         <v>15</v>
       </c>
@@ -13076,14 +13026,14 @@
         <f t="shared" si="0"/>
         <v>7.5579999999999998</v>
       </c>
-      <c r="E6" s="189"/>
-      <c r="F6" s="190">
+      <c r="E6" s="205"/>
+      <c r="F6" s="206">
         <f>D6-D7</f>
         <v>1.3090000000000011</v>
       </c>
       <c r="G6" s="14"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="118">
         <v>10</v>
       </c>
@@ -13097,14 +13047,14 @@
         <f t="shared" si="0"/>
         <v>6.2489999999999988</v>
       </c>
-      <c r="E7" s="189">
+      <c r="E7" s="205">
         <f t="shared" si="1"/>
         <v>1.4309999999999974</v>
       </c>
-      <c r="F7" s="190"/>
+      <c r="F7" s="206"/>
       <c r="G7" s="14"/>
     </row>
-    <row r="8" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="119">
         <v>5</v>
       </c>
@@ -13118,11 +13068,11 @@
         <f t="shared" si="0"/>
         <v>4.8180000000000014</v>
       </c>
-      <c r="E8" s="191"/>
+      <c r="E8" s="207"/>
       <c r="F8" s="51"/>
       <c r="G8" s="14"/>
     </row>
-    <row r="9" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -13131,7 +13081,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="14"/>
     </row>
-    <row r="10" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -13140,7 +13090,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="14"/>
     </row>
-    <row r="11" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>123</v>
       </c>
@@ -13161,7 +13111,7 @@
       </c>
       <c r="G11" s="14"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="121" t="s">
         <v>124</v>
       </c>
@@ -13186,7 +13136,7 @@
       </c>
       <c r="G12" s="14"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="121" t="s">
         <v>125</v>
       </c>
@@ -13211,7 +13161,7 @@
       </c>
       <c r="G13" s="14"/>
     </row>
-    <row r="14" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="123" t="s">
         <v>126</v>
       </c>
@@ -13236,7 +13186,7 @@
       </c>
       <c r="G14" s="14"/>
     </row>
-    <row r="15" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -13245,7 +13195,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="14"/>
     </row>
-    <row r="16" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="125" t="s">
         <v>127</v>
       </c>
@@ -13263,7 +13213,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="14"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -13272,7 +13222,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="14"/>
     </row>
-    <row r="18" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="125" t="s">
         <v>128</v>
       </c>
@@ -13286,7 +13236,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="14"/>
     </row>
-    <row r="19" spans="1:7" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -13295,7 +13245,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="14"/>
     </row>
-    <row r="20" spans="1:7" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="28"/>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -13327,12 +13277,12 @@
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="11.08203125" customWidth="1"/>
+    <col min="2" max="9" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89"/>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -13344,7 +13294,7 @@
       <c r="I1" s="88"/>
       <c r="J1" s="84"/>
     </row>
-    <row r="2" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="86"/>
       <c r="B2" s="42" t="s">
         <v>140</v>
@@ -13366,7 +13316,7 @@
       </c>
       <c r="J2" s="85"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="86"/>
       <c r="B3" s="132" t="s">
         <v>146</v>
@@ -13388,7 +13338,7 @@
       </c>
       <c r="J3" s="85"/>
     </row>
-    <row r="4" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="86"/>
       <c r="B4" s="117" t="s">
         <v>147</v>
@@ -13410,43 +13360,43 @@
       </c>
       <c r="J4" s="85"/>
     </row>
-    <row r="5" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="86"/>
       <c r="J5" s="85"/>
     </row>
-    <row r="6" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86"/>
-      <c r="B6" s="192" t="s">
+      <c r="B6" s="208" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
-      <c r="E6" s="173" t="s">
+      <c r="C6" s="199"/>
+      <c r="D6" s="199"/>
+      <c r="E6" s="199" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="173"/>
-      <c r="G6" s="177"/>
+      <c r="F6" s="199"/>
+      <c r="G6" s="201"/>
       <c r="J6" s="85"/>
     </row>
-    <row r="7" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86"/>
-      <c r="B7" s="193" t="s">
+      <c r="B7" s="209" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="194"/>
-      <c r="D7" s="194"/>
-      <c r="E7" s="194" t="s">
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="194"/>
-      <c r="G7" s="195"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="211"/>
       <c r="J7" s="85"/>
     </row>
-    <row r="8" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="86"/>
       <c r="J8" s="85"/>
     </row>
-    <row r="9" spans="1:10" ht="28.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="28.2" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="86"/>
       <c r="B9" s="42" t="s">
         <v>154</v>
@@ -13474,7 +13424,7 @@
       </c>
       <c r="J9" s="85"/>
     </row>
-    <row r="10" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="132" t="s">
         <v>155</v>
@@ -13502,7 +13452,7 @@
       </c>
       <c r="J10" s="85"/>
     </row>
-    <row r="11" spans="1:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="86"/>
       <c r="B11" s="117" t="s">
         <v>156</v>
@@ -13530,11 +13480,11 @@
       </c>
       <c r="J11" s="85"/>
     </row>
-    <row r="12" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="86"/>
       <c r="J12" s="85"/>
     </row>
-    <row r="13" spans="1:10" ht="42.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="55.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="42" t="s">
         <v>162</v>
@@ -13562,7 +13512,7 @@
       </c>
       <c r="J13" s="85"/>
     </row>
-    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="132" t="s">
         <v>163</v>
@@ -13590,7 +13540,7 @@
       </c>
       <c r="J14" s="85"/>
     </row>
-    <row r="15" spans="1:10" ht="56.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="55.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="86"/>
       <c r="B15" s="117" t="s">
         <v>164</v>
@@ -13618,85 +13568,85 @@
       </c>
       <c r="J15" s="85"/>
     </row>
-    <row r="16" spans="1:10" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="J16" s="85"/>
     </row>
-    <row r="17" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
-      <c r="B17" s="196" t="s">
+      <c r="B17" s="212" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="196"/>
-      <c r="D17" s="196"/>
-      <c r="E17" s="196"/>
-      <c r="F17" s="196"/>
-      <c r="G17" s="196"/>
-      <c r="H17" s="196"/>
-      <c r="I17" s="196"/>
+      <c r="C17" s="212"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
+      <c r="H17" s="212"/>
+      <c r="I17" s="212"/>
       <c r="J17" s="85"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
-      <c r="B18" s="196"/>
-      <c r="C18" s="196"/>
-      <c r="D18" s="196"/>
-      <c r="E18" s="196"/>
-      <c r="F18" s="196"/>
-      <c r="G18" s="196"/>
-      <c r="H18" s="196"/>
-      <c r="I18" s="196"/>
+      <c r="B18" s="212"/>
+      <c r="C18" s="212"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
+      <c r="H18" s="212"/>
+      <c r="I18" s="212"/>
       <c r="J18" s="85"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
-      <c r="B19" s="196"/>
-      <c r="C19" s="196"/>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
-      <c r="H19" s="196"/>
-      <c r="I19" s="196"/>
+      <c r="B19" s="212"/>
+      <c r="C19" s="212"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
+      <c r="H19" s="212"/>
+      <c r="I19" s="212"/>
       <c r="J19" s="85"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
-      <c r="B20" s="196"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="196"/>
-      <c r="I20" s="196"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
+      <c r="H20" s="212"/>
+      <c r="I20" s="212"/>
       <c r="J20" s="85"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
-      <c r="B21" s="196"/>
-      <c r="C21" s="196"/>
-      <c r="D21" s="196"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
-      <c r="H21" s="196"/>
-      <c r="I21" s="196"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="212"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
+      <c r="H21" s="212"/>
+      <c r="I21" s="212"/>
       <c r="J21" s="85"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
-      <c r="B22" s="196"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="196"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="196"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="196"/>
+      <c r="B22" s="212"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="212"/>
+      <c r="H22" s="212"/>
+      <c r="I22" s="212"/>
       <c r="J22" s="85"/>
     </row>
-    <row r="23" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="107"/>
       <c r="B23" s="108"/>
       <c r="C23" s="108"/>
@@ -13728,13 +13678,13 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16" width="6.58203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="16" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89"/>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -13753,7 +13703,7 @@
       <c r="P1" s="88"/>
       <c r="Q1" s="84"/>
     </row>
-    <row r="2" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="86"/>
       <c r="B2" s="42" t="s">
         <v>165</v>
@@ -13790,7 +13740,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="86"/>
       <c r="B3" s="132" t="s">
         <v>166</v>
@@ -13880,7 +13830,7 @@
         <v>0.20400000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="86"/>
       <c r="B4" s="132" t="s">
         <v>167</v>
@@ -13970,7 +13920,7 @@
         <v>0.190302</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="86"/>
       <c r="B5" s="117" t="s">
         <v>168</v>
@@ -14060,11 +14010,11 @@
         <v>2.1299999999999999E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:32" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="86"/>
       <c r="Q6" s="85"/>
     </row>
-    <row r="7" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="86"/>
       <c r="B7" s="42" t="s">
         <v>169</v>
@@ -14113,7 +14063,7 @@
       </c>
       <c r="Q7" s="85"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="86"/>
       <c r="B8" s="132" t="s">
         <v>170</v>
@@ -14162,7 +14112,7 @@
       </c>
       <c r="Q8" s="85"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="86"/>
       <c r="B9" s="132" t="s">
         <v>171</v>
@@ -14211,7 +14161,7 @@
       </c>
       <c r="Q9" s="85"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="86"/>
       <c r="B10" s="132" t="s">
         <v>169</v>
@@ -14260,7 +14210,7 @@
       </c>
       <c r="Q10" s="85"/>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="86"/>
       <c r="B11" s="132" t="s">
         <v>170</v>
@@ -14309,7 +14259,7 @@
       </c>
       <c r="Q11" s="85"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
       <c r="B12" s="132" t="s">
         <v>171</v>
@@ -14358,7 +14308,7 @@
       </c>
       <c r="Q12" s="85"/>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
       <c r="B13" s="132" t="s">
         <v>169</v>
@@ -14407,7 +14357,7 @@
       </c>
       <c r="Q13" s="85"/>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
       <c r="B14" s="132" t="s">
         <v>170</v>
@@ -14456,7 +14406,7 @@
       </c>
       <c r="Q14" s="85"/>
     </row>
-    <row r="15" spans="1:32" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:32" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="86"/>
       <c r="B15" s="117" t="s">
         <v>171</v>
@@ -14505,199 +14455,199 @@
       </c>
       <c r="Q15" s="85"/>
     </row>
-    <row r="16" spans="1:32" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="86"/>
       <c r="Q16" s="85"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
       <c r="Q17" s="85"/>
     </row>
-    <row r="18" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="86"/>
       <c r="Q18" s="85"/>
     </row>
-    <row r="19" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="86"/>
-      <c r="B19" s="197" t="s">
+      <c r="B19" s="213" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="198"/>
-      <c r="D19" s="198"/>
-      <c r="E19" s="198"/>
-      <c r="F19" s="199">
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="215">
         <f>MAX(S3:AF5)</f>
         <v>0.39032</v>
       </c>
-      <c r="G19" s="199"/>
-      <c r="H19" s="200"/>
+      <c r="G19" s="215"/>
+      <c r="H19" s="216"/>
       <c r="Q19" s="85"/>
     </row>
-    <row r="20" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="86"/>
       <c r="Q20" s="85"/>
     </row>
-    <row r="21" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="86"/>
-      <c r="B21" s="197" t="s">
+      <c r="B21" s="213" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="198"/>
-      <c r="D21" s="198"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="201">
+      <c r="C21" s="214"/>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="217">
         <f>F19/C3</f>
         <v>0.17440571939231456</v>
       </c>
-      <c r="G21" s="201"/>
-      <c r="H21" s="202"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="218"/>
       <c r="Q21" s="85"/>
     </row>
-    <row r="22" spans="1:17" ht="14.5" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
       <c r="Q22" s="85"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="86"/>
       <c r="Q23" s="85"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="86"/>
       <c r="Q24" s="85"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="86"/>
       <c r="Q25" s="85"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="86"/>
       <c r="Q26" s="85"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="86"/>
       <c r="Q27" s="85"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="86"/>
       <c r="Q28" s="85"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="86"/>
       <c r="Q29" s="85"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="86"/>
       <c r="Q30" s="85"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="86"/>
       <c r="Q31" s="85"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="86"/>
       <c r="Q32" s="85"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="86"/>
       <c r="Q33" s="85"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="86"/>
       <c r="Q34" s="85"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="86"/>
       <c r="Q35" s="85"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="86"/>
       <c r="Q36" s="85"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="86"/>
       <c r="Q37" s="85"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="86"/>
       <c r="Q38" s="85"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="86"/>
       <c r="Q39" s="85"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="86"/>
       <c r="Q40" s="85"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="86"/>
       <c r="Q41" s="85"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="86"/>
       <c r="Q42" s="85"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="86"/>
       <c r="Q43" s="85"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="86"/>
       <c r="Q44" s="85"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="86"/>
       <c r="Q45" s="85"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="86"/>
       <c r="Q46" s="85"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="86"/>
       <c r="Q47" s="85"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="86"/>
       <c r="Q48" s="85"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="86"/>
       <c r="Q49" s="85"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="86"/>
       <c r="Q50" s="85"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="86"/>
       <c r="Q51" s="85"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="86"/>
       <c r="Q52" s="85"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" s="86"/>
       <c r="Q53" s="85"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" s="86"/>
       <c r="Q54" s="85"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" s="86"/>
       <c r="Q55" s="85"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" s="86"/>
       <c r="Q56" s="85"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" s="86"/>
       <c r="Q57" s="85"/>
     </row>
-    <row r="58" spans="1:17" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="107"/>
       <c r="B58" s="108"/>
       <c r="C58" s="108"/>

--- a/物理实验/物理实验.xlsx
+++ b/物理实验/物理实验.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\SHMTU-Automation-Resources\物理实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0968127A-FEFC-4D80-BF61-F5CC38FC4863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC87A816-437C-4FD9-90BD-4D69936F9522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{289B0313-6EC0-446F-8799-597BA1CF6533}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{289B0313-6EC0-446F-8799-597BA1CF6533}"/>
   </bookViews>
   <sheets>
     <sheet name="使用方法介绍" sheetId="6" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="光伏电池" sheetId="9" r:id="rId9"/>
     <sheet name="RLC" sheetId="10" r:id="rId10"/>
     <sheet name="空气比热容比测定" sheetId="11" r:id="rId11"/>
+    <sheet name="霍尔效应及其应用" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="238">
   <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1813,12 +1814,956 @@
     <t>空气比热容比测定</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>+I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,+I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>+I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,-I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,-I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>-I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,+I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(mV)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(mV)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(mV)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(mV)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(mA)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=(V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)/4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(mA)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>σ/mV</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关系测量图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>关系测量图</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KH实验=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>k/B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>σ=I</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*L/(V0*S)=</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霍尔效应及其应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="20">
+  <numFmts count="24">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
@@ -1839,6 +2784,10 @@
     <numFmt numFmtId="193" formatCode="\C\=0.00_ &quot;μF&quot;"/>
     <numFmt numFmtId="194" formatCode="\U\=0.000_ &quot;V&quot;"/>
     <numFmt numFmtId="195" formatCode="\R\=\R0\+\R\L\=000.0_ &quot;Ω&quot;"/>
+    <numFmt numFmtId="196" formatCode="0.00_ &quot;mA&quot;"/>
+    <numFmt numFmtId="197" formatCode="0.00_ &quot;Ω&quot;"/>
+    <numFmt numFmtId="198" formatCode="0.00_ &quot;mv/mA*T&quot;"/>
+    <numFmt numFmtId="199" formatCode="0_ &quot;mA&quot;"/>
   </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
@@ -2563,7 +3512,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="248">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3104,6 +4053,9 @@
     <xf numFmtId="10" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3131,9 +4083,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3146,33 +4125,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3221,6 +4173,12 @@
     <xf numFmtId="189" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3230,19 +4188,73 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5340,6 +6352,714 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>霍尔效应及其应用!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VH-IS关系测量图</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>霍尔效应及其应用!$B$8:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>霍尔效应及其应用!$G$8:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76750000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96000000000000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1475</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3425</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5375000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9275000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-19CB-46E3-8E07-81344528A31A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1244955263"/>
+        <c:axId val="1244956223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1244955263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1244956223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1244956223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1244955263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>霍尔效应及其应用!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VH-IM关系测量图</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>霍尔效应及其应用!$B$21:$B$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>霍尔效应及其应用!$G$21:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00_ </c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.38750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56750000000000012</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.95000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.335</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.5299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7274999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9275000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D05C-4D8D-83D0-BAF91A67D656}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1244955263"/>
+        <c:axId val="1244956223"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1244955263"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1244956223"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1244956223"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1244955263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5461,6 +7181,86 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7564,6 +9364,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
@@ -8053,6 +10885,85 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>582704</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>26895</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25A8AF89-9B20-B54D-39FF-AC2BDF83201F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>8964</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>17929</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B933CDA-835D-4F7A-ADEC-8111F9C4BFDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -8370,11 +11281,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B123489D-5DE1-4D8D-BE68-F86D0C1B8DF9}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8388,7 +11297,7 @@
       <c r="A1" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="180" t="s">
+      <c r="C1" s="181" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="110"/>
@@ -8400,7 +11309,7 @@
       <c r="A2" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="181"/>
+      <c r="C2" s="182"/>
       <c r="D2" s="112"/>
       <c r="E2" s="113" t="s">
         <v>119</v>
@@ -8410,7 +11319,7 @@
       <c r="A3" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="181"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="114" t="s">
         <v>120</v>
       </c>
@@ -8422,7 +11331,7 @@
       <c r="A4" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="182"/>
+      <c r="C4" s="183"/>
       <c r="D4" s="115"/>
       <c r="E4" s="116" t="s">
         <v>121</v>
@@ -8467,6 +11376,11 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="130" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="130" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -8486,6 +11400,7 @@
     <hyperlink ref="A10" location="RLC!A1" display="RLC" xr:uid="{4B03C6FC-8A16-43A9-9D47-CBAEBE51291E}"/>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{E43B4457-6E04-4BCF-8426-1C5A510B93EC}"/>
     <hyperlink ref="A11" location="空气比热容比测定!A1" display="空气比热容比测定" xr:uid="{8BC5EB63-2C8B-41A4-AFCC-9C4EB1767B1A}"/>
+    <hyperlink ref="A12" location="霍尔效应及其应用!A1" display="霍尔效应及其应用" xr:uid="{99810F2B-10EC-4C42-8F73-9665E4437989}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8521,7 +11436,7 @@
     </row>
     <row r="2" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="86"/>
-      <c r="B2" s="224" t="s">
+      <c r="B2" s="220" t="s">
         <v>185</v>
       </c>
       <c r="C2" s="152">
@@ -8540,7 +11455,7 @@
     </row>
     <row r="3" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A3" s="86"/>
-      <c r="B3" s="222"/>
+      <c r="B3" s="221"/>
       <c r="C3" s="156" t="s">
         <v>183</v>
       </c>
@@ -8557,7 +11472,7 @@
     </row>
     <row r="4" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="86"/>
-      <c r="B4" s="222"/>
+      <c r="B4" s="221"/>
       <c r="C4" s="91" t="s">
         <v>182</v>
       </c>
@@ -9418,60 +12333,60 @@
     </row>
     <row r="46" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="86"/>
-      <c r="B46" s="220" t="s">
+      <c r="B46" s="223" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="221"/>
-      <c r="D46" s="199" t="s">
+      <c r="C46" s="224"/>
+      <c r="D46" s="190" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="199"/>
-      <c r="F46" s="199"/>
-      <c r="G46" s="199"/>
-      <c r="H46" s="199" t="s">
+      <c r="E46" s="190"/>
+      <c r="F46" s="190"/>
+      <c r="G46" s="190"/>
+      <c r="H46" s="190" t="s">
         <v>177</v>
       </c>
-      <c r="I46" s="199"/>
-      <c r="J46" s="199"/>
-      <c r="K46" s="199" t="s">
+      <c r="I46" s="190"/>
+      <c r="J46" s="190"/>
+      <c r="K46" s="190" t="s">
         <v>178</v>
       </c>
-      <c r="L46" s="201"/>
+      <c r="L46" s="194"/>
       <c r="M46" s="85"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="86"/>
-      <c r="B47" s="222"/>
-      <c r="C47" s="223"/>
-      <c r="D47" s="200" t="s">
+      <c r="B47" s="221"/>
+      <c r="C47" s="225"/>
+      <c r="D47" s="193" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="200"/>
-      <c r="F47" s="200"/>
-      <c r="G47" s="200" t="s">
+      <c r="E47" s="193"/>
+      <c r="F47" s="193"/>
+      <c r="G47" s="193" t="s">
         <v>181</v>
       </c>
-      <c r="H47" s="200" t="s">
+      <c r="H47" s="193" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="200" t="s">
+      <c r="I47" s="193" t="s">
         <v>193</v>
       </c>
-      <c r="J47" s="200" t="s">
+      <c r="J47" s="193" t="s">
         <v>190</v>
       </c>
-      <c r="K47" s="200" t="s">
+      <c r="K47" s="193" t="s">
         <v>192</v>
       </c>
-      <c r="L47" s="202" t="s">
+      <c r="L47" s="195" t="s">
         <v>191</v>
       </c>
       <c r="M47" s="85"/>
     </row>
     <row r="48" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A48" s="86"/>
-      <c r="B48" s="222"/>
-      <c r="C48" s="223"/>
+      <c r="B48" s="221"/>
+      <c r="C48" s="225"/>
       <c r="D48" s="91" t="s">
         <v>188</v>
       </c>
@@ -9481,17 +12396,17 @@
       <c r="F48" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="G48" s="200"/>
-      <c r="H48" s="200"/>
-      <c r="I48" s="200"/>
-      <c r="J48" s="200"/>
-      <c r="K48" s="200"/>
-      <c r="L48" s="202"/>
+      <c r="G48" s="193"/>
+      <c r="H48" s="193"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="193"/>
+      <c r="K48" s="193"/>
+      <c r="L48" s="195"/>
       <c r="M48" s="85"/>
     </row>
     <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="86"/>
-      <c r="B49" s="219" t="s">
+      <c r="B49" s="222" t="s">
         <v>186</v>
       </c>
       <c r="C49" s="148">
@@ -9538,7 +12453,7 @@
     </row>
     <row r="50" spans="1:13" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="86"/>
-      <c r="B50" s="196"/>
+      <c r="B50" s="198"/>
       <c r="C50" s="150">
         <f>D2+F3</f>
         <v>312.60000000000002</v>
@@ -9598,11 +12513,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H46:J46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B46:C48"/>
@@ -9611,6 +12521,11 @@
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="L47:L48"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9694,7 +12609,7 @@
       <c r="B5" s="166">
         <v>1</v>
       </c>
-      <c r="C5" s="225">
+      <c r="C5" s="226">
         <v>1.0285</v>
       </c>
       <c r="D5" s="170">
@@ -9728,7 +12643,7 @@
       <c r="B6" s="166">
         <v>2</v>
       </c>
-      <c r="C6" s="225"/>
+      <c r="C6" s="226"/>
       <c r="D6" s="170">
         <v>120.7</v>
       </c>
@@ -9760,7 +12675,7 @@
       <c r="B7" s="166">
         <v>3</v>
       </c>
-      <c r="C7" s="225"/>
+      <c r="C7" s="226"/>
       <c r="D7" s="170">
         <v>123.3</v>
       </c>
@@ -9792,7 +12707,7 @@
       <c r="B8" s="166">
         <v>4</v>
       </c>
-      <c r="C8" s="225"/>
+      <c r="C8" s="226"/>
       <c r="D8" s="170">
         <v>112.2</v>
       </c>
@@ -9824,7 +12739,7 @@
       <c r="B9" s="166">
         <v>5</v>
       </c>
-      <c r="C9" s="225"/>
+      <c r="C9" s="226"/>
       <c r="D9" s="170">
         <v>123.4</v>
       </c>
@@ -9856,7 +12771,7 @@
       <c r="B10" s="168">
         <v>6</v>
       </c>
-      <c r="C10" s="226"/>
+      <c r="C10" s="227"/>
       <c r="D10" s="171">
         <v>108.4</v>
       </c>
@@ -9933,6 +12848,1037 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65FFA0E-795E-4D59-B2AD-69D4898D686F}">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="12"/>
+    </row>
+    <row r="2" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="10"/>
+      <c r="B2" s="127" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" s="228">
+        <v>-0.35</v>
+      </c>
+      <c r="D2" s="242"/>
+      <c r="E2" s="127" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="228">
+        <v>0.35</v>
+      </c>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="242"/>
+      <c r="L2" s="242"/>
+      <c r="M2" s="242"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="127" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3" s="229">
+        <f>C2/5</f>
+        <v>-6.9999999999999993E-2</v>
+      </c>
+      <c r="D3" s="242"/>
+      <c r="E3" s="127" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" s="229">
+        <f>F2/5</f>
+        <v>6.9999999999999993E-2</v>
+      </c>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="242"/>
+      <c r="L3" s="242"/>
+      <c r="M3" s="242"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="242"/>
+      <c r="C4" s="242"/>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="242"/>
+      <c r="L4" s="242"/>
+      <c r="M4" s="242"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="243" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="243"/>
+      <c r="D5" s="243"/>
+      <c r="E5" s="243"/>
+      <c r="F5" s="127" t="s">
+        <v>229</v>
+      </c>
+      <c r="G5" s="247">
+        <v>500</v>
+      </c>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="242"/>
+      <c r="L5" s="242"/>
+      <c r="M5" s="242"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="230" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="194" t="s">
+        <v>225</v>
+      </c>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
+      <c r="J6" s="242"/>
+      <c r="K6" s="242"/>
+      <c r="L6" s="242"/>
+      <c r="M6" s="242"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="232" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="232" t="s">
+        <v>217</v>
+      </c>
+      <c r="E7" s="232" t="s">
+        <v>218</v>
+      </c>
+      <c r="F7" s="232" t="s">
+        <v>219</v>
+      </c>
+      <c r="G7" s="195"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="242"/>
+      <c r="L7" s="242"/>
+      <c r="M7" s="242"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="233">
+        <v>1</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0.32</v>
+      </c>
+      <c r="D8" s="31">
+        <v>-0.45</v>
+      </c>
+      <c r="E8" s="31">
+        <v>0.45</v>
+      </c>
+      <c r="F8" s="31">
+        <v>-0.32</v>
+      </c>
+      <c r="G8" s="52">
+        <f>(C8-D8+E8-F8)/4</f>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="242"/>
+      <c r="L8" s="242"/>
+      <c r="M8" s="242"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="233">
+        <v>1.5</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0.49</v>
+      </c>
+      <c r="D9" s="31">
+        <v>-0.67</v>
+      </c>
+      <c r="E9" s="31">
+        <v>0.67</v>
+      </c>
+      <c r="F9" s="31">
+        <v>-0.48</v>
+      </c>
+      <c r="G9" s="52">
+        <f t="shared" ref="G9:G16" si="0">(C9-D9+E9-F9)/4</f>
+        <v>0.57750000000000001</v>
+      </c>
+      <c r="H9" s="242"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="242"/>
+      <c r="L9" s="242"/>
+      <c r="M9" s="242"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="233">
+        <v>2</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0.65</v>
+      </c>
+      <c r="D10" s="31">
+        <v>-0.89</v>
+      </c>
+      <c r="E10" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="F10" s="31">
+        <v>-0.64</v>
+      </c>
+      <c r="G10" s="52">
+        <f t="shared" si="0"/>
+        <v>0.76750000000000007</v>
+      </c>
+      <c r="H10" s="242"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="242"/>
+      <c r="L10" s="242"/>
+      <c r="M10" s="242"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="233">
+        <v>2.5</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0.81</v>
+      </c>
+      <c r="D11" s="31">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="E11" s="31">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F11" s="31">
+        <v>-0.81</v>
+      </c>
+      <c r="G11" s="52">
+        <f t="shared" si="0"/>
+        <v>0.96000000000000008</v>
+      </c>
+      <c r="H11" s="242"/>
+      <c r="I11" s="242"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="242"/>
+      <c r="L11" s="242"/>
+      <c r="M11" s="242"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="233">
+        <v>3</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0.97</v>
+      </c>
+      <c r="D12" s="31">
+        <v>-1.33</v>
+      </c>
+      <c r="E12" s="31">
+        <v>1.33</v>
+      </c>
+      <c r="F12" s="31">
+        <v>-0.96</v>
+      </c>
+      <c r="G12" s="52">
+        <f t="shared" si="0"/>
+        <v>1.1475</v>
+      </c>
+      <c r="H12" s="242"/>
+      <c r="I12" s="242"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="242"/>
+      <c r="L12" s="242"/>
+      <c r="M12" s="242"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="233">
+        <v>3.5</v>
+      </c>
+      <c r="C13" s="31">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D13" s="31">
+        <v>-1.56</v>
+      </c>
+      <c r="E13" s="31">
+        <v>1.56</v>
+      </c>
+      <c r="F13" s="31">
+        <v>-1.1200000000000001</v>
+      </c>
+      <c r="G13" s="52">
+        <f t="shared" si="0"/>
+        <v>1.3425</v>
+      </c>
+      <c r="H13" s="242"/>
+      <c r="I13" s="242"/>
+      <c r="J13" s="242"/>
+      <c r="K13" s="242"/>
+      <c r="L13" s="242"/>
+      <c r="M13" s="242"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="233">
+        <v>4</v>
+      </c>
+      <c r="C14" s="31">
+        <v>1.28</v>
+      </c>
+      <c r="D14" s="31">
+        <v>-1.8</v>
+      </c>
+      <c r="E14" s="31">
+        <v>1.8</v>
+      </c>
+      <c r="F14" s="31">
+        <v>-1.27</v>
+      </c>
+      <c r="G14" s="52">
+        <f t="shared" si="0"/>
+        <v>1.5375000000000001</v>
+      </c>
+      <c r="H14" s="242"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="242"/>
+      <c r="K14" s="242"/>
+      <c r="L14" s="242"/>
+      <c r="M14" s="242"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="233">
+        <v>4.5</v>
+      </c>
+      <c r="C15" s="31">
+        <v>1.43</v>
+      </c>
+      <c r="D15" s="31">
+        <v>-2.0299999999999998</v>
+      </c>
+      <c r="E15" s="31">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="F15" s="31">
+        <v>-1.42</v>
+      </c>
+      <c r="G15" s="52">
+        <f t="shared" si="0"/>
+        <v>1.7275</v>
+      </c>
+      <c r="H15" s="242"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="242"/>
+      <c r="K15" s="242"/>
+      <c r="L15" s="242"/>
+      <c r="M15" s="242"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="234">
+        <v>5</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1.59</v>
+      </c>
+      <c r="D16" s="17">
+        <v>-2.27</v>
+      </c>
+      <c r="E16" s="17">
+        <v>2.27</v>
+      </c>
+      <c r="F16" s="17">
+        <v>-1.58</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="0"/>
+        <v>1.9275000000000002</v>
+      </c>
+      <c r="H16" s="242"/>
+      <c r="I16" s="242"/>
+      <c r="J16" s="242"/>
+      <c r="K16" s="242"/>
+      <c r="L16" s="242"/>
+      <c r="M16" s="242"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="242"/>
+      <c r="C17" s="242"/>
+      <c r="D17" s="242"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="242"/>
+      <c r="K17" s="242"/>
+      <c r="L17" s="242"/>
+      <c r="M17" s="242"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="243" t="s">
+        <v>232</v>
+      </c>
+      <c r="C18" s="243"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="243"/>
+      <c r="F18" s="127" t="s">
+        <v>230</v>
+      </c>
+      <c r="G18" s="228">
+        <v>5</v>
+      </c>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="242"/>
+      <c r="L18" s="242"/>
+      <c r="M18" s="242"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="1:14" ht="16.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="230" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G19" s="194" t="s">
+        <v>225</v>
+      </c>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="242"/>
+      <c r="L19" s="242"/>
+      <c r="M19" s="242"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="232" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" s="232" t="s">
+        <v>217</v>
+      </c>
+      <c r="E20" s="232" t="s">
+        <v>218</v>
+      </c>
+      <c r="F20" s="232" t="s">
+        <v>219</v>
+      </c>
+      <c r="G20" s="195"/>
+      <c r="H20" s="242"/>
+      <c r="I20" s="242"/>
+      <c r="J20" s="242"/>
+      <c r="K20" s="242"/>
+      <c r="L20" s="242"/>
+      <c r="M20" s="242"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="235">
+        <v>100</v>
+      </c>
+      <c r="C21" s="31">
+        <v>0.04</v>
+      </c>
+      <c r="D21" s="31">
+        <v>-0.74</v>
+      </c>
+      <c r="E21" s="31">
+        <v>0.74</v>
+      </c>
+      <c r="F21" s="31">
+        <v>-0.03</v>
+      </c>
+      <c r="G21" s="52">
+        <f>(C21-D21+E21-F21)/4</f>
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="H21" s="242"/>
+      <c r="I21" s="242"/>
+      <c r="J21" s="242"/>
+      <c r="K21" s="242"/>
+      <c r="L21" s="242"/>
+      <c r="M21" s="242"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="235">
+        <v>150</v>
+      </c>
+      <c r="C22" s="31">
+        <v>0.23</v>
+      </c>
+      <c r="D22" s="31">
+        <v>-0.91</v>
+      </c>
+      <c r="E22" s="31">
+        <v>0.91</v>
+      </c>
+      <c r="F22" s="31">
+        <v>-0.22</v>
+      </c>
+      <c r="G22" s="52">
+        <f t="shared" ref="G22:G29" si="1">(C22-D22+E22-F22)/4</f>
+        <v>0.56750000000000012</v>
+      </c>
+      <c r="H22" s="242"/>
+      <c r="I22" s="242"/>
+      <c r="J22" s="242"/>
+      <c r="K22" s="242"/>
+      <c r="L22" s="242"/>
+      <c r="M22" s="242"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="235">
+        <v>200</v>
+      </c>
+      <c r="C23" s="31">
+        <v>0.42</v>
+      </c>
+      <c r="D23" s="31">
+        <v>-1.1100000000000001</v>
+      </c>
+      <c r="E23" s="31">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F23" s="31">
+        <v>-0.41</v>
+      </c>
+      <c r="G23" s="52">
+        <f t="shared" si="1"/>
+        <v>0.76250000000000007</v>
+      </c>
+      <c r="H23" s="242"/>
+      <c r="I23" s="242"/>
+      <c r="J23" s="242"/>
+      <c r="K23" s="242"/>
+      <c r="L23" s="242"/>
+      <c r="M23" s="242"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="235">
+        <v>250</v>
+      </c>
+      <c r="C24" s="31">
+        <v>0.6</v>
+      </c>
+      <c r="D24" s="31">
+        <v>-1.3</v>
+      </c>
+      <c r="E24" s="31">
+        <v>1.3</v>
+      </c>
+      <c r="F24" s="31">
+        <v>-0.6</v>
+      </c>
+      <c r="G24" s="52">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="H24" s="242"/>
+      <c r="I24" s="242"/>
+      <c r="J24" s="242"/>
+      <c r="K24" s="242"/>
+      <c r="L24" s="242"/>
+      <c r="M24" s="242"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="235">
+        <v>300</v>
+      </c>
+      <c r="C25" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="31">
+        <v>-1.48</v>
+      </c>
+      <c r="E25" s="31">
+        <v>1.48</v>
+      </c>
+      <c r="F25" s="31">
+        <v>-0.8</v>
+      </c>
+      <c r="G25" s="52">
+        <f t="shared" si="1"/>
+        <v>1.1400000000000001</v>
+      </c>
+      <c r="H25" s="242"/>
+      <c r="I25" s="242"/>
+      <c r="J25" s="242"/>
+      <c r="K25" s="242"/>
+      <c r="L25" s="242"/>
+      <c r="M25" s="242"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="235">
+        <v>350</v>
+      </c>
+      <c r="C26" s="31">
+        <v>1</v>
+      </c>
+      <c r="D26" s="31">
+        <v>-1.67</v>
+      </c>
+      <c r="E26" s="31">
+        <v>1.67</v>
+      </c>
+      <c r="F26" s="31">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="52">
+        <f t="shared" si="1"/>
+        <v>1.335</v>
+      </c>
+      <c r="H26" s="242"/>
+      <c r="I26" s="242"/>
+      <c r="J26" s="242"/>
+      <c r="K26" s="242"/>
+      <c r="L26" s="242"/>
+      <c r="M26" s="242"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="235">
+        <v>400</v>
+      </c>
+      <c r="C27" s="31">
+        <v>1.19</v>
+      </c>
+      <c r="D27" s="31">
+        <v>-1.87</v>
+      </c>
+      <c r="E27" s="31">
+        <v>1.87</v>
+      </c>
+      <c r="F27" s="31">
+        <v>-1.19</v>
+      </c>
+      <c r="G27" s="52">
+        <f t="shared" si="1"/>
+        <v>1.5299999999999998</v>
+      </c>
+      <c r="H27" s="242"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="242"/>
+      <c r="K27" s="242"/>
+      <c r="L27" s="242"/>
+      <c r="M27" s="242"/>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="235">
+        <v>450</v>
+      </c>
+      <c r="C28" s="31">
+        <v>1.39</v>
+      </c>
+      <c r="D28" s="31">
+        <v>-2.0699999999999998</v>
+      </c>
+      <c r="E28" s="31">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="F28" s="31">
+        <v>-1.38</v>
+      </c>
+      <c r="G28" s="52">
+        <f t="shared" si="1"/>
+        <v>1.7274999999999998</v>
+      </c>
+      <c r="H28" s="242"/>
+      <c r="I28" s="242"/>
+      <c r="J28" s="242"/>
+      <c r="K28" s="242"/>
+      <c r="L28" s="242"/>
+      <c r="M28" s="242"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="236">
+        <v>500</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1.59</v>
+      </c>
+      <c r="D29" s="17">
+        <v>-2.27</v>
+      </c>
+      <c r="E29" s="17">
+        <v>2.27</v>
+      </c>
+      <c r="F29" s="17">
+        <v>-1.58</v>
+      </c>
+      <c r="G29" s="18">
+        <f t="shared" si="1"/>
+        <v>1.9275000000000002</v>
+      </c>
+      <c r="H29" s="242"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="242"/>
+      <c r="K29" s="242"/>
+      <c r="L29" s="242"/>
+      <c r="M29" s="242"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="1:14" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="242"/>
+      <c r="K30" s="242"/>
+      <c r="L30" s="242"/>
+      <c r="M30" s="242"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="127" t="s">
+        <v>227</v>
+      </c>
+      <c r="C31" s="237">
+        <v>170</v>
+      </c>
+      <c r="D31" s="238"/>
+      <c r="E31" s="244"/>
+      <c r="F31" s="242"/>
+      <c r="G31" s="242"/>
+      <c r="H31" s="242"/>
+      <c r="I31" s="242"/>
+      <c r="J31" s="242"/>
+      <c r="K31" s="242"/>
+      <c r="L31" s="242"/>
+      <c r="M31" s="242"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="242"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="242"/>
+      <c r="E32" s="242"/>
+      <c r="F32" s="242" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" s="242"/>
+      <c r="H32" s="242"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="242"/>
+      <c r="K32" s="242"/>
+      <c r="L32" s="242"/>
+      <c r="M32" s="242"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="127" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" s="180" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" s="246">
+        <f>SLOPE(G8:G16,B8:B16)*1000/2.25</f>
+        <v>171.00000000000003</v>
+      </c>
+      <c r="E33" s="245"/>
+      <c r="F33" s="242"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="242"/>
+      <c r="I33" s="242"/>
+      <c r="J33" s="242"/>
+      <c r="K33" s="242"/>
+      <c r="L33" s="242"/>
+      <c r="M33" s="242"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10"/>
+      <c r="B34" s="242"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="242"/>
+      <c r="E34" s="242"/>
+      <c r="F34" s="242"/>
+      <c r="G34" s="242"/>
+      <c r="H34" s="242"/>
+      <c r="I34" s="242"/>
+      <c r="J34" s="242"/>
+      <c r="K34" s="242"/>
+      <c r="L34" s="242"/>
+      <c r="M34" s="242"/>
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10"/>
+      <c r="B35" s="127" t="s">
+        <v>128</v>
+      </c>
+      <c r="C35" s="128">
+        <f>ABS(D33-C31)/C31</f>
+        <v>5.8823529411766379E-3</v>
+      </c>
+      <c r="D35" s="242"/>
+      <c r="E35" s="242"/>
+      <c r="F35" s="242"/>
+      <c r="G35" s="242"/>
+      <c r="H35" s="242"/>
+      <c r="I35" s="242"/>
+      <c r="J35" s="242"/>
+      <c r="K35" s="242"/>
+      <c r="L35" s="242"/>
+      <c r="M35" s="242"/>
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10"/>
+      <c r="B36" s="242"/>
+      <c r="C36" s="242"/>
+      <c r="D36" s="242"/>
+      <c r="E36" s="242"/>
+      <c r="F36" s="242"/>
+      <c r="G36" s="242"/>
+      <c r="H36" s="242"/>
+      <c r="I36" s="242"/>
+      <c r="J36" s="242"/>
+      <c r="K36" s="242"/>
+      <c r="L36" s="242"/>
+      <c r="M36" s="242"/>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="1:14" ht="16.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="81" t="s">
+        <v>226</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="E37" s="242"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="242"/>
+      <c r="M37" s="242"/>
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="234">
+        <v>0</v>
+      </c>
+      <c r="C38" s="239">
+        <v>2</v>
+      </c>
+      <c r="D38" s="47">
+        <v>1510</v>
+      </c>
+      <c r="E38" s="242"/>
+      <c r="F38" s="242"/>
+      <c r="G38" s="242"/>
+      <c r="H38" s="242"/>
+      <c r="I38" s="242"/>
+      <c r="J38" s="242"/>
+      <c r="K38" s="242"/>
+      <c r="L38" s="242"/>
+      <c r="M38" s="242"/>
+      <c r="N38" s="14"/>
+    </row>
+    <row r="39" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10"/>
+      <c r="B39" s="242"/>
+      <c r="C39" s="242"/>
+      <c r="D39" s="242"/>
+      <c r="E39" s="242"/>
+      <c r="F39" s="242"/>
+      <c r="G39" s="242"/>
+      <c r="H39" s="242"/>
+      <c r="I39" s="242"/>
+      <c r="J39" s="242"/>
+      <c r="K39" s="242"/>
+      <c r="L39" s="242"/>
+      <c r="M39" s="242"/>
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="240" t="s">
+        <v>236</v>
+      </c>
+      <c r="C40" s="241"/>
+      <c r="D40" s="126">
+        <f>C38*1.5/(D38*1.5*0.2*0.001)</f>
+        <v>6.6225165562913908</v>
+      </c>
+      <c r="E40" s="242"/>
+      <c r="F40" s="242"/>
+      <c r="G40" s="242"/>
+      <c r="H40" s="242"/>
+      <c r="I40" s="242"/>
+      <c r="J40" s="242"/>
+      <c r="K40" s="242"/>
+      <c r="L40" s="242"/>
+      <c r="M40" s="242"/>
+      <c r="N40" s="14"/>
+    </row>
+    <row r="41" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="29"/>
+      <c r="M41" s="29"/>
+      <c r="N41" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="G19:G20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9954,15 +13900,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="183" t="s">
+      <c r="A1" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="184"/>
-      <c r="C1" s="184"/>
-      <c r="D1" s="184"/>
-      <c r="E1" s="184"/>
-      <c r="F1" s="184"/>
-      <c r="G1" s="184"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
+      <c r="E1" s="185"/>
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -10479,15 +14425,15 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="185" t="s">
+      <c r="A17" s="186" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="186"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="186"/>
-      <c r="E17" s="186"/>
-      <c r="F17" s="186"/>
-      <c r="G17" s="186"/>
+      <c r="B17" s="187"/>
+      <c r="C17" s="187"/>
+      <c r="D17" s="187"/>
+      <c r="E17" s="187"/>
+      <c r="F17" s="187"/>
+      <c r="G17" s="187"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -11209,11 +15155,11 @@
     <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89"/>
       <c r="B1" s="88"/>
-      <c r="C1" s="188" t="s">
+      <c r="C1" s="189" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="188"/>
-      <c r="E1" s="188"/>
+      <c r="D1" s="189"/>
+      <c r="E1" s="189"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -11297,7 +15243,7 @@
       <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="187" t="s">
+      <c r="A7" s="188" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3">
@@ -11319,7 +15265,7 @@
       <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
+      <c r="A8" s="188"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -11339,7 +15285,7 @@
       <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="187"/>
+      <c r="A9" s="188"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -11359,7 +15305,7 @@
       <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="187"/>
+      <c r="A10" s="188"/>
       <c r="B10" s="3">
         <v>4</v>
       </c>
@@ -11379,7 +15325,7 @@
       <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="187"/>
+      <c r="A11" s="188"/>
       <c r="B11" s="3">
         <v>5</v>
       </c>
@@ -11399,7 +15345,7 @@
       <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="187"/>
+      <c r="A12" s="188"/>
       <c r="B12" s="3">
         <v>6</v>
       </c>
@@ -11419,7 +15365,7 @@
       <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="187"/>
+      <c r="A13" s="188"/>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -11938,22 +15884,22 @@
       <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="200" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="201"/>
       <c r="E2" s="93" t="s">
         <v>90</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="G2" s="194" t="s">
+      <c r="G2" s="196" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="195"/>
-      <c r="I2" s="195"/>
-      <c r="J2" s="195"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
       <c r="K2" s="94">
         <f>TRUNC(E2)+MID(E2,5,2)/60+MID(E2,7,2)/3600</f>
         <v>267.41666666666669</v>
@@ -11963,12 +15909,12 @@
     <row r="3" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="86"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="196" t="s">
+      <c r="G3" s="198" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
       <c r="K3" s="90">
         <f>1/3000</f>
         <v>3.3333333333333332E-4</v>
@@ -11990,21 +15936,21 @@
       <c r="L4" s="85"/>
     </row>
     <row r="5" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="198" t="s">
+      <c r="A5" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="199" t="s">
+      <c r="B5" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="199" t="s">
+      <c r="C5" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="201"/>
+      <c r="D5" s="194"/>
       <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="187"/>
-      <c r="B6" s="200"/>
+      <c r="A6" s="188"/>
+      <c r="B6" s="193"/>
       <c r="C6" s="91" t="s">
         <v>82</v>
       </c>
@@ -12014,7 +15960,7 @@
       <c r="L6" s="85"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="187">
+      <c r="A7" s="188">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -12026,13 +15972,13 @@
       <c r="D7" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="192" t="s">
+      <c r="F7" s="202" t="s">
         <v>109</v>
       </c>
       <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="187"/>
+      <c r="A8" s="188"/>
       <c r="B8" s="3" t="s">
         <v>85</v>
       </c>
@@ -12042,11 +15988,11 @@
       <c r="D8" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="193"/>
+      <c r="F8" s="203"/>
       <c r="L8" s="85"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="187"/>
+      <c r="A9" s="188"/>
       <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
@@ -12056,11 +16002,11 @@
       <c r="D9" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="193"/>
+      <c r="F9" s="203"/>
       <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="187">
+      <c r="A10" s="188">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -12072,11 +16018,11 @@
       <c r="D10" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="193"/>
+      <c r="F10" s="203"/>
       <c r="L10" s="85"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="187"/>
+      <c r="A11" s="188"/>
       <c r="B11" s="3" t="s">
         <v>85</v>
       </c>
@@ -12086,11 +16032,11 @@
       <c r="D11" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="193"/>
+      <c r="F11" s="203"/>
       <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="187"/>
+      <c r="A12" s="188"/>
       <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
@@ -12100,11 +16046,11 @@
       <c r="D12" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="193"/>
+      <c r="F12" s="203"/>
       <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="187">
+      <c r="A13" s="188">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -12116,11 +16062,11 @@
       <c r="D13" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="193"/>
+      <c r="F13" s="203"/>
       <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="187"/>
+      <c r="A14" s="188"/>
       <c r="B14" s="3" t="s">
         <v>85</v>
       </c>
@@ -12130,11 +16076,11 @@
       <c r="D14" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="193"/>
+      <c r="F14" s="203"/>
       <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="189"/>
+      <c r="A15" s="191"/>
       <c r="B15" s="4" t="s">
         <v>86</v>
       </c>
@@ -12151,40 +16097,40 @@
       <c r="L16" s="85"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="198" t="s">
+      <c r="A17" s="192" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="199" t="s">
+      <c r="B17" s="190" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="199" t="s">
+      <c r="C17" s="190" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="199"/>
-      <c r="E17" s="199" t="s">
+      <c r="D17" s="190"/>
+      <c r="E17" s="190" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="199"/>
-      <c r="G17" s="199" t="s">
+      <c r="F17" s="190"/>
+      <c r="G17" s="190" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="199" t="s">
+      <c r="H17" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="199" t="s">
+      <c r="I17" s="190" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="199" t="s">
+      <c r="J17" s="190" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="201" t="s">
+      <c r="K17" s="194" t="s">
         <v>2</v>
       </c>
       <c r="L17" s="85"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="187"/>
-      <c r="B18" s="200"/>
+      <c r="A18" s="188"/>
+      <c r="B18" s="193"/>
       <c r="C18" s="91" t="s">
         <v>82</v>
       </c>
@@ -12197,15 +16143,15 @@
       <c r="F18" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="202"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="195"/>
       <c r="L18" s="85"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="187">
+      <c r="A19" s="188">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -12250,7 +16196,7 @@
       <c r="L19" s="85"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="187"/>
+      <c r="A20" s="188"/>
       <c r="B20" s="3" t="s">
         <v>85</v>
       </c>
@@ -12293,7 +16239,7 @@
       <c r="L20" s="85"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="187"/>
+      <c r="A21" s="188"/>
       <c r="B21" s="3" t="s">
         <v>86</v>
       </c>
@@ -12336,7 +16282,7 @@
       <c r="L21" s="85"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="187">
+      <c r="A22" s="188">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -12381,7 +16327,7 @@
       <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="187"/>
+      <c r="A23" s="188"/>
       <c r="B23" s="3" t="s">
         <v>85</v>
       </c>
@@ -12424,7 +16370,7 @@
       <c r="L23" s="85"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="187"/>
+      <c r="A24" s="188"/>
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
@@ -12467,7 +16413,7 @@
       <c r="L24" s="85"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="187">
+      <c r="A25" s="188">
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -12512,7 +16458,7 @@
       <c r="L25" s="85"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="187"/>
+      <c r="A26" s="188"/>
       <c r="B26" s="3" t="s">
         <v>85</v>
       </c>
@@ -12555,7 +16501,7 @@
       <c r="L26" s="85"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="189"/>
+      <c r="A27" s="191"/>
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
@@ -12613,28 +16559,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F7:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12943,10 +16889,10 @@
       <c r="D2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="203" t="s">
+      <c r="E2" s="204" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="204"/>
+      <c r="F2" s="205"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -12963,7 +16909,7 @@
         <f>B3-C3</f>
         <v>10.413</v>
       </c>
-      <c r="E3" s="205">
+      <c r="E3" s="206">
         <f>D3-D4</f>
         <v>1.0130000000000017</v>
       </c>
@@ -12984,8 +16930,8 @@
         <f t="shared" ref="D4:D8" si="0">B4-C4</f>
         <v>9.3999999999999986</v>
       </c>
-      <c r="E4" s="205"/>
-      <c r="F4" s="206">
+      <c r="E4" s="206"/>
+      <c r="F4" s="207">
         <f>D4-D5</f>
         <v>0.74200000000000088</v>
       </c>
@@ -13005,11 +16951,11 @@
         <f t="shared" si="0"/>
         <v>8.6579999999999977</v>
       </c>
-      <c r="E5" s="205">
+      <c r="E5" s="206">
         <f t="shared" ref="E5:E7" si="1">D5-D6</f>
         <v>1.0999999999999979</v>
       </c>
-      <c r="F5" s="206"/>
+      <c r="F5" s="207"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -13026,8 +16972,8 @@
         <f t="shared" si="0"/>
         <v>7.5579999999999998</v>
       </c>
-      <c r="E6" s="205"/>
-      <c r="F6" s="206">
+      <c r="E6" s="206"/>
+      <c r="F6" s="207">
         <f>D6-D7</f>
         <v>1.3090000000000011</v>
       </c>
@@ -13047,11 +16993,11 @@
         <f t="shared" si="0"/>
         <v>6.2489999999999988</v>
       </c>
-      <c r="E7" s="205">
+      <c r="E7" s="206">
         <f t="shared" si="1"/>
         <v>1.4309999999999974</v>
       </c>
-      <c r="F7" s="206"/>
+      <c r="F7" s="207"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -13068,7 +17014,7 @@
         <f t="shared" si="0"/>
         <v>4.8180000000000014</v>
       </c>
-      <c r="E8" s="207"/>
+      <c r="E8" s="208"/>
       <c r="F8" s="51"/>
       <c r="G8" s="14"/>
     </row>
@@ -13366,30 +17312,30 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86"/>
-      <c r="B6" s="208" t="s">
+      <c r="B6" s="209" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="199"/>
-      <c r="D6" s="199"/>
-      <c r="E6" s="199" t="s">
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="199"/>
-      <c r="G6" s="201"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="194"/>
       <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86"/>
-      <c r="B7" s="209" t="s">
+      <c r="B7" s="210" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="210"/>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210" t="s">
+      <c r="C7" s="211"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="210"/>
-      <c r="G7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="212"/>
       <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13574,76 +17520,76 @@
     </row>
     <row r="17" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
-      <c r="B17" s="212" t="s">
+      <c r="B17" s="213" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="212"/>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
-      <c r="H17" s="212"/>
-      <c r="I17" s="212"/>
+      <c r="C17" s="213"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="213"/>
+      <c r="F17" s="213"/>
+      <c r="G17" s="213"/>
+      <c r="H17" s="213"/>
+      <c r="I17" s="213"/>
       <c r="J17" s="85"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
-      <c r="B18" s="212"/>
-      <c r="C18" s="212"/>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
-      <c r="H18" s="212"/>
-      <c r="I18" s="212"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="213"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="213"/>
+      <c r="F18" s="213"/>
+      <c r="G18" s="213"/>
+      <c r="H18" s="213"/>
+      <c r="I18" s="213"/>
       <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
-      <c r="B19" s="212"/>
-      <c r="C19" s="212"/>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="212"/>
-      <c r="H19" s="212"/>
-      <c r="I19" s="212"/>
+      <c r="B19" s="213"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
+      <c r="H19" s="213"/>
+      <c r="I19" s="213"/>
       <c r="J19" s="85"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
-      <c r="B20" s="212"/>
-      <c r="C20" s="212"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="212"/>
-      <c r="H20" s="212"/>
-      <c r="I20" s="212"/>
+      <c r="B20" s="213"/>
+      <c r="C20" s="213"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
+      <c r="H20" s="213"/>
+      <c r="I20" s="213"/>
       <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
-      <c r="B21" s="212"/>
-      <c r="C21" s="212"/>
-      <c r="D21" s="212"/>
-      <c r="E21" s="212"/>
-      <c r="F21" s="212"/>
-      <c r="G21" s="212"/>
-      <c r="H21" s="212"/>
-      <c r="I21" s="212"/>
+      <c r="B21" s="213"/>
+      <c r="C21" s="213"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
+      <c r="H21" s="213"/>
+      <c r="I21" s="213"/>
       <c r="J21" s="85"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
-      <c r="B22" s="212"/>
-      <c r="C22" s="212"/>
-      <c r="D22" s="212"/>
-      <c r="E22" s="212"/>
-      <c r="F22" s="212"/>
-      <c r="G22" s="212"/>
-      <c r="H22" s="212"/>
-      <c r="I22" s="212"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="213"/>
+      <c r="D22" s="213"/>
+      <c r="E22" s="213"/>
+      <c r="F22" s="213"/>
+      <c r="G22" s="213"/>
+      <c r="H22" s="213"/>
+      <c r="I22" s="213"/>
       <c r="J22" s="85"/>
     </row>
     <row r="23" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -14469,18 +18415,18 @@
     </row>
     <row r="19" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="86"/>
-      <c r="B19" s="213" t="s">
+      <c r="B19" s="214" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="215">
+      <c r="C19" s="215"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="216">
         <f>MAX(S3:AF5)</f>
         <v>0.39032</v>
       </c>
-      <c r="G19" s="215"/>
-      <c r="H19" s="216"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="217"/>
       <c r="Q19" s="85"/>
     </row>
     <row r="20" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -14489,18 +18435,18 @@
     </row>
     <row r="21" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="86"/>
-      <c r="B21" s="213" t="s">
+      <c r="B21" s="214" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="214"/>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="217">
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="218">
         <f>F19/C3</f>
         <v>0.17440571939231456</v>
       </c>
-      <c r="G21" s="217"/>
-      <c r="H21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="219"/>
       <c r="Q21" s="85"/>
     </row>
     <row r="22" spans="1:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">

--- a/物理实验/物理实验.xlsx
+++ b/物理实验/物理实验.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\SHMTU-Automation-Resources\物理实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC87A816-437C-4FD9-90BD-4D69936F9522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0971D1F9-2DBB-4795-BA32-A1CBB3860698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{289B0313-6EC0-446F-8799-597BA1CF6533}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{289B0313-6EC0-446F-8799-597BA1CF6533}"/>
   </bookViews>
   <sheets>
     <sheet name="使用方法介绍" sheetId="6" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="RLC" sheetId="10" r:id="rId10"/>
     <sheet name="空气比热容比测定" sheetId="11" r:id="rId11"/>
     <sheet name="霍尔效应及其应用" sheetId="12" r:id="rId12"/>
+    <sheet name="波尔共振实验" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="255">
   <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2758,12 +2759,245 @@
     <t>霍尔效应及其应用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>振幅θ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>周期T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(s)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>振幅θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ln(θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/θ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i+5)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ln(θi/θi+5)平均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阻尼挡位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10T=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>β=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电机周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强迫力矩周期(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位差φ(°)测量值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>振幅θ(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>°</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)测量值</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>查表1得出的与振幅θ对应的周期T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ω/ω</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波尔共振实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="24">
+  <numFmts count="25">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
@@ -2788,8 +3022,9 @@
     <numFmt numFmtId="197" formatCode="0.00_ &quot;Ω&quot;"/>
     <numFmt numFmtId="198" formatCode="0.00_ &quot;mv/mA*T&quot;"/>
     <numFmt numFmtId="199" formatCode="0_ &quot;mA&quot;"/>
+    <numFmt numFmtId="200" formatCode="0.00000_ "/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2957,6 +3192,14 @@
     <font>
       <vertAlign val="subscript"/>
       <sz val="12.65"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -3512,7 +3755,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4056,6 +4299,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="196" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="199" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4083,15 +4350,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4101,30 +4392,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4173,34 +4440,40 @@
     <xf numFmtId="189" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="196" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="197" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="198" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="198" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4209,53 +4482,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="198" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="200" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="198" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="199" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -7005,6 +7278,856 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1244955263"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>幅度特性曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41111111111111104"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0803149606299215E-2"/>
+          <c:y val="0.18039370078740158"/>
+          <c:w val="0.86805796150481185"/>
+          <c:h val="0.7125772820064159"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>波尔共振实验!$G$43:$G$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.95051787776734797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9568281395690803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96983610388072861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97989831872384492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98915579876415671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9934716007369977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99496081678565773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99662720587183018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99765671466207217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99829976322445224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99932664797000992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0000933947587336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0020663177183584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0044501315195378</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0098147565455218</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0234294292696751</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0373793679001773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>波尔共振实验!$E$43:$E$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-573F-439A-883C-BEB031133A45}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="233196607"/>
+        <c:axId val="233195167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="233196607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233195167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="233195167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="233196607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>相频特性曲线</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>波尔共振实验!$G$43:$G$59</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>0.95051787776734797</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9568281395690803</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96983610388072861</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97989831872384492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98915579876415671</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9934716007369977</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99496081678565773</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99662720587183018</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99765671466207217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99829976322445224</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99932664797000992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0000933947587336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0020663177183584</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0044501315195378</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0098147565455218</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0234294292696751</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0373793679001773</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>波尔共振实验!$D$43:$D$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>153</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E08D-41ED-8EEF-FFA7B540B637}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="230725167"/>
+        <c:axId val="230729487"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="230725167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0_ " sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230729487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="230729487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="230725167"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7300,6 +8423,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -9881,6 +11084,1038 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10964,6 +13199,83 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>42806</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>111386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>134246</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>50427</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="图表 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0AF8CF-83A8-B2EE-E63F-9D17D230B728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>274095</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>126626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175035</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>65667</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="图表 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D66EC01-2589-D447-D81A-B4005C2554CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -11281,9 +13593,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B123489D-5DE1-4D8D-BE68-F86D0C1B8DF9}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -11297,7 +13611,7 @@
       <c r="A1" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="181" t="s">
+      <c r="C1" s="189" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="110"/>
@@ -11309,7 +13623,7 @@
       <c r="A2" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="182"/>
+      <c r="C2" s="190"/>
       <c r="D2" s="112"/>
       <c r="E2" s="113" t="s">
         <v>119</v>
@@ -11319,7 +13633,7 @@
       <c r="A3" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="182"/>
+      <c r="C3" s="190"/>
       <c r="D3" s="114" t="s">
         <v>120</v>
       </c>
@@ -11331,7 +13645,7 @@
       <c r="A4" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="183"/>
+      <c r="C4" s="191"/>
       <c r="D4" s="115"/>
       <c r="E4" s="116" t="s">
         <v>121</v>
@@ -11381,6 +13695,11 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="130" t="s">
         <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="130" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -11401,6 +13720,7 @@
     <hyperlink ref="E6" r:id="rId1" xr:uid="{E43B4457-6E04-4BCF-8426-1C5A510B93EC}"/>
     <hyperlink ref="A11" location="空气比热容比测定!A1" display="空气比热容比测定" xr:uid="{8BC5EB63-2C8B-41A4-AFCC-9C4EB1767B1A}"/>
     <hyperlink ref="A12" location="霍尔效应及其应用!A1" display="霍尔效应及其应用" xr:uid="{99810F2B-10EC-4C42-8F73-9665E4437989}"/>
+    <hyperlink ref="A13" location="波尔共振实验!A1" display="波尔共振实验" xr:uid="{AB43FCFB-CBFB-499D-89A8-D778F15DF15D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -11411,12 +13731,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE0279F-6EED-4D27-ACC8-9A3CC350B554}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="13" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -11436,7 +13760,7 @@
     </row>
     <row r="2" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="86"/>
-      <c r="B2" s="220" t="s">
+      <c r="B2" s="233" t="s">
         <v>185</v>
       </c>
       <c r="C2" s="152">
@@ -11455,7 +13779,7 @@
     </row>
     <row r="3" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A3" s="86"/>
-      <c r="B3" s="221"/>
+      <c r="B3" s="231"/>
       <c r="C3" s="156" t="s">
         <v>183</v>
       </c>
@@ -11472,7 +13796,7 @@
     </row>
     <row r="4" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="86"/>
-      <c r="B4" s="221"/>
+      <c r="B4" s="231"/>
       <c r="C4" s="91" t="s">
         <v>182</v>
       </c>
@@ -12333,60 +14657,60 @@
     </row>
     <row r="46" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="86"/>
-      <c r="B46" s="223" t="s">
+      <c r="B46" s="229" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="224"/>
-      <c r="D46" s="190" t="s">
+      <c r="C46" s="230"/>
+      <c r="D46" s="208" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="190"/>
-      <c r="F46" s="190"/>
-      <c r="G46" s="190"/>
-      <c r="H46" s="190" t="s">
+      <c r="E46" s="208"/>
+      <c r="F46" s="208"/>
+      <c r="G46" s="208"/>
+      <c r="H46" s="208" t="s">
         <v>177</v>
       </c>
-      <c r="I46" s="190"/>
-      <c r="J46" s="190"/>
-      <c r="K46" s="190" t="s">
+      <c r="I46" s="208"/>
+      <c r="J46" s="208"/>
+      <c r="K46" s="208" t="s">
         <v>178</v>
       </c>
-      <c r="L46" s="194"/>
+      <c r="L46" s="210"/>
       <c r="M46" s="85"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="86"/>
-      <c r="B47" s="221"/>
-      <c r="C47" s="225"/>
-      <c r="D47" s="193" t="s">
+      <c r="B47" s="231"/>
+      <c r="C47" s="232"/>
+      <c r="D47" s="209" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="193"/>
-      <c r="F47" s="193"/>
-      <c r="G47" s="193" t="s">
+      <c r="E47" s="209"/>
+      <c r="F47" s="209"/>
+      <c r="G47" s="209" t="s">
         <v>181</v>
       </c>
-      <c r="H47" s="193" t="s">
+      <c r="H47" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="193" t="s">
+      <c r="I47" s="209" t="s">
         <v>193</v>
       </c>
-      <c r="J47" s="193" t="s">
+      <c r="J47" s="209" t="s">
         <v>190</v>
       </c>
-      <c r="K47" s="193" t="s">
+      <c r="K47" s="209" t="s">
         <v>192</v>
       </c>
-      <c r="L47" s="195" t="s">
+      <c r="L47" s="211" t="s">
         <v>191</v>
       </c>
       <c r="M47" s="85"/>
     </row>
     <row r="48" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A48" s="86"/>
-      <c r="B48" s="221"/>
-      <c r="C48" s="225"/>
+      <c r="B48" s="231"/>
+      <c r="C48" s="232"/>
       <c r="D48" s="91" t="s">
         <v>188</v>
       </c>
@@ -12396,17 +14720,17 @@
       <c r="F48" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="G48" s="193"/>
-      <c r="H48" s="193"/>
-      <c r="I48" s="193"/>
-      <c r="J48" s="193"/>
-      <c r="K48" s="193"/>
-      <c r="L48" s="195"/>
+      <c r="G48" s="209"/>
+      <c r="H48" s="209"/>
+      <c r="I48" s="209"/>
+      <c r="J48" s="209"/>
+      <c r="K48" s="209"/>
+      <c r="L48" s="211"/>
       <c r="M48" s="85"/>
     </row>
     <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="86"/>
-      <c r="B49" s="222" t="s">
+      <c r="B49" s="228" t="s">
         <v>186</v>
       </c>
       <c r="C49" s="148">
@@ -12453,7 +14777,7 @@
     </row>
     <row r="50" spans="1:13" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="86"/>
-      <c r="B50" s="198"/>
+      <c r="B50" s="205"/>
       <c r="C50" s="150">
         <f>D2+F3</f>
         <v>312.60000000000002</v>
@@ -12513,6 +14837,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H46:J46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B46:C48"/>
@@ -12521,11 +14850,6 @@
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="L47:L48"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12538,7 +14862,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0EDF2BB-2301-4B7F-8D7C-189305C3C754}">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -12609,7 +14935,7 @@
       <c r="B5" s="166">
         <v>1</v>
       </c>
-      <c r="C5" s="226">
+      <c r="C5" s="234">
         <v>1.0285</v>
       </c>
       <c r="D5" s="170">
@@ -12643,7 +14969,7 @@
       <c r="B6" s="166">
         <v>2</v>
       </c>
-      <c r="C6" s="226"/>
+      <c r="C6" s="234"/>
       <c r="D6" s="170">
         <v>120.7</v>
       </c>
@@ -12675,7 +15001,7 @@
       <c r="B7" s="166">
         <v>3</v>
       </c>
-      <c r="C7" s="226"/>
+      <c r="C7" s="234"/>
       <c r="D7" s="170">
         <v>123.3</v>
       </c>
@@ -12707,7 +15033,7 @@
       <c r="B8" s="166">
         <v>4</v>
       </c>
-      <c r="C8" s="226"/>
+      <c r="C8" s="234"/>
       <c r="D8" s="170">
         <v>112.2</v>
       </c>
@@ -12739,7 +15065,7 @@
       <c r="B9" s="166">
         <v>5</v>
       </c>
-      <c r="C9" s="226"/>
+      <c r="C9" s="234"/>
       <c r="D9" s="170">
         <v>123.4</v>
       </c>
@@ -12771,7 +15097,7 @@
       <c r="B10" s="168">
         <v>6</v>
       </c>
-      <c r="C10" s="227"/>
+      <c r="C10" s="235"/>
       <c r="D10" s="171">
         <v>108.4</v>
       </c>
@@ -12855,7 +15181,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D65FFA0E-795E-4D59-B2AD-69D4898D686F}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12889,23 +15217,23 @@
       <c r="B2" s="127" t="s">
         <v>214</v>
       </c>
-      <c r="C2" s="228">
+      <c r="C2" s="182">
         <v>-0.35</v>
       </c>
-      <c r="D2" s="242"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="127" t="s">
         <v>215</v>
       </c>
-      <c r="F2" s="228">
+      <c r="F2" s="182">
         <v>0.35</v>
       </c>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
-      <c r="K2" s="242"/>
-      <c r="L2" s="242"/>
-      <c r="M2" s="242"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
       <c r="N2" s="14"/>
     </row>
     <row r="3" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -12913,68 +15241,68 @@
       <c r="B3" s="127" t="s">
         <v>212</v>
       </c>
-      <c r="C3" s="229">
+      <c r="C3" s="183">
         <f>C2/5</f>
         <v>-6.9999999999999993E-2</v>
       </c>
-      <c r="D3" s="242"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="127" t="s">
         <v>213</v>
       </c>
-      <c r="F3" s="229">
+      <c r="F3" s="183">
         <f>F2/5</f>
         <v>6.9999999999999993E-2</v>
       </c>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
-      <c r="K3" s="242"/>
-      <c r="L3" s="242"/>
-      <c r="M3" s="242"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="14"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10"/>
-      <c r="B4" s="242"/>
-      <c r="C4" s="242"/>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
-      <c r="K4" s="242"/>
-      <c r="L4" s="242"/>
-      <c r="M4" s="242"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="14"/>
     </row>
     <row r="5" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="243" t="s">
+      <c r="B5" s="195" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="243"/>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
       <c r="F5" s="127" t="s">
         <v>229</v>
       </c>
-      <c r="G5" s="247">
+      <c r="G5" s="188">
         <v>500</v>
       </c>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
-      <c r="K5" s="242"/>
-      <c r="L5" s="242"/>
-      <c r="M5" s="242"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
       <c r="N5" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="16.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="230" t="s">
+      <c r="B6" s="240" t="s">
         <v>224</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -12989,44 +15317,44 @@
       <c r="F6" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="194" t="s">
+      <c r="G6" s="210" t="s">
         <v>225</v>
       </c>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
-      <c r="K6" s="242"/>
-      <c r="L6" s="242"/>
-      <c r="M6" s="242"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="231"/>
-      <c r="C7" s="232" t="s">
+      <c r="B7" s="241"/>
+      <c r="C7" s="184" t="s">
         <v>216</v>
       </c>
-      <c r="D7" s="232" t="s">
+      <c r="D7" s="184" t="s">
         <v>217</v>
       </c>
-      <c r="E7" s="232" t="s">
+      <c r="E7" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="F7" s="232" t="s">
+      <c r="F7" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="195"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="242"/>
-      <c r="L7" s="242"/>
-      <c r="M7" s="242"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
       <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="233">
+      <c r="B8" s="185">
         <v>1</v>
       </c>
       <c r="C8" s="31">
@@ -13045,17 +15373,17 @@
         <f>(C8-D8+E8-F8)/4</f>
         <v>0.38500000000000001</v>
       </c>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="242"/>
-      <c r="L8" s="242"/>
-      <c r="M8" s="242"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="233">
+      <c r="B9" s="185">
         <v>1.5</v>
       </c>
       <c r="C9" s="31">
@@ -13074,17 +15402,17 @@
         <f t="shared" ref="G9:G16" si="0">(C9-D9+E9-F9)/4</f>
         <v>0.57750000000000001</v>
       </c>
-      <c r="H9" s="242"/>
-      <c r="I9" s="242"/>
-      <c r="J9" s="242"/>
-      <c r="K9" s="242"/>
-      <c r="L9" s="242"/>
-      <c r="M9" s="242"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
       <c r="N9" s="14"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="233">
+      <c r="B10" s="185">
         <v>2</v>
       </c>
       <c r="C10" s="31">
@@ -13103,17 +15431,17 @@
         <f t="shared" si="0"/>
         <v>0.76750000000000007</v>
       </c>
-      <c r="H10" s="242"/>
-      <c r="I10" s="242"/>
-      <c r="J10" s="242"/>
-      <c r="K10" s="242"/>
-      <c r="L10" s="242"/>
-      <c r="M10" s="242"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
       <c r="N10" s="14"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="233">
+      <c r="B11" s="185">
         <v>2.5</v>
       </c>
       <c r="C11" s="31">
@@ -13132,17 +15460,17 @@
         <f t="shared" si="0"/>
         <v>0.96000000000000008</v>
       </c>
-      <c r="H11" s="242"/>
-      <c r="I11" s="242"/>
-      <c r="J11" s="242"/>
-      <c r="K11" s="242"/>
-      <c r="L11" s="242"/>
-      <c r="M11" s="242"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
       <c r="N11" s="14"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="233">
+      <c r="B12" s="185">
         <v>3</v>
       </c>
       <c r="C12" s="31">
@@ -13161,17 +15489,17 @@
         <f t="shared" si="0"/>
         <v>1.1475</v>
       </c>
-      <c r="H12" s="242"/>
-      <c r="I12" s="242"/>
-      <c r="J12" s="242"/>
-      <c r="K12" s="242"/>
-      <c r="L12" s="242"/>
-      <c r="M12" s="242"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
       <c r="N12" s="14"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="233">
+      <c r="B13" s="185">
         <v>3.5</v>
       </c>
       <c r="C13" s="31">
@@ -13190,17 +15518,17 @@
         <f t="shared" si="0"/>
         <v>1.3425</v>
       </c>
-      <c r="H13" s="242"/>
-      <c r="I13" s="242"/>
-      <c r="J13" s="242"/>
-      <c r="K13" s="242"/>
-      <c r="L13" s="242"/>
-      <c r="M13" s="242"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
       <c r="N13" s="14"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="233">
+      <c r="B14" s="185">
         <v>4</v>
       </c>
       <c r="C14" s="31">
@@ -13219,17 +15547,17 @@
         <f t="shared" si="0"/>
         <v>1.5375000000000001</v>
       </c>
-      <c r="H14" s="242"/>
-      <c r="I14" s="242"/>
-      <c r="J14" s="242"/>
-      <c r="K14" s="242"/>
-      <c r="L14" s="242"/>
-      <c r="M14" s="242"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
       <c r="N14" s="14"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="233">
+      <c r="B15" s="185">
         <v>4.5</v>
       </c>
       <c r="C15" s="31">
@@ -13248,17 +15576,17 @@
         <f t="shared" si="0"/>
         <v>1.7275</v>
       </c>
-      <c r="H15" s="242"/>
-      <c r="I15" s="242"/>
-      <c r="J15" s="242"/>
-      <c r="K15" s="242"/>
-      <c r="L15" s="242"/>
-      <c r="M15" s="242"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
       <c r="N15" s="14"/>
     </row>
     <row r="16" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
-      <c r="B16" s="234">
+      <c r="B16" s="186">
         <v>5</v>
       </c>
       <c r="C16" s="17">
@@ -13277,55 +15605,55 @@
         <f t="shared" si="0"/>
         <v>1.9275000000000002</v>
       </c>
-      <c r="H16" s="242"/>
-      <c r="I16" s="242"/>
-      <c r="J16" s="242"/>
-      <c r="K16" s="242"/>
-      <c r="L16" s="242"/>
-      <c r="M16" s="242"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
       <c r="N16" s="14"/>
     </row>
     <row r="17" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
-      <c r="B17" s="242"/>
-      <c r="C17" s="242"/>
-      <c r="D17" s="242"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
-      <c r="H17" s="242"/>
-      <c r="I17" s="242"/>
-      <c r="J17" s="242"/>
-      <c r="K17" s="242"/>
-      <c r="L17" s="242"/>
-      <c r="M17" s="242"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
       <c r="N17" s="14"/>
     </row>
     <row r="18" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="243" t="s">
+      <c r="B18" s="195" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="243"/>
-      <c r="D18" s="243"/>
-      <c r="E18" s="243"/>
+      <c r="C18" s="195"/>
+      <c r="D18" s="195"/>
+      <c r="E18" s="195"/>
       <c r="F18" s="127" t="s">
         <v>230</v>
       </c>
-      <c r="G18" s="228">
+      <c r="G18" s="182">
         <v>5</v>
       </c>
-      <c r="H18" s="242"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="242"/>
-      <c r="K18" s="242"/>
-      <c r="L18" s="242"/>
-      <c r="M18" s="242"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
       <c r="N18" s="14"/>
     </row>
     <row r="19" spans="1:14" ht="16.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="230" t="s">
+      <c r="B19" s="240" t="s">
         <v>226</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -13340,44 +15668,44 @@
       <c r="F19" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G19" s="194" t="s">
+      <c r="G19" s="210" t="s">
         <v>225</v>
       </c>
-      <c r="H19" s="242"/>
-      <c r="I19" s="242"/>
-      <c r="J19" s="242"/>
-      <c r="K19" s="242"/>
-      <c r="L19" s="242"/>
-      <c r="M19" s="242"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
       <c r="N19" s="14"/>
     </row>
     <row r="20" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="231"/>
-      <c r="C20" s="232" t="s">
+      <c r="B20" s="241"/>
+      <c r="C20" s="184" t="s">
         <v>216</v>
       </c>
-      <c r="D20" s="232" t="s">
+      <c r="D20" s="184" t="s">
         <v>217</v>
       </c>
-      <c r="E20" s="232" t="s">
+      <c r="E20" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="F20" s="232" t="s">
+      <c r="F20" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="195"/>
-      <c r="H20" s="242"/>
-      <c r="I20" s="242"/>
-      <c r="J20" s="242"/>
-      <c r="K20" s="242"/>
-      <c r="L20" s="242"/>
-      <c r="M20" s="242"/>
+      <c r="G20" s="211"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
       <c r="N20" s="14"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="235">
+      <c r="B21" s="82">
         <v>100</v>
       </c>
       <c r="C21" s="31">
@@ -13396,17 +15724,17 @@
         <f>(C21-D21+E21-F21)/4</f>
         <v>0.38750000000000001</v>
       </c>
-      <c r="H21" s="242"/>
-      <c r="I21" s="242"/>
-      <c r="J21" s="242"/>
-      <c r="K21" s="242"/>
-      <c r="L21" s="242"/>
-      <c r="M21" s="242"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
       <c r="N21" s="14"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="235">
+      <c r="B22" s="82">
         <v>150</v>
       </c>
       <c r="C22" s="31">
@@ -13425,17 +15753,17 @@
         <f t="shared" ref="G22:G29" si="1">(C22-D22+E22-F22)/4</f>
         <v>0.56750000000000012</v>
       </c>
-      <c r="H22" s="242"/>
-      <c r="I22" s="242"/>
-      <c r="J22" s="242"/>
-      <c r="K22" s="242"/>
-      <c r="L22" s="242"/>
-      <c r="M22" s="242"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="235">
+      <c r="B23" s="82">
         <v>200</v>
       </c>
       <c r="C23" s="31">
@@ -13454,17 +15782,17 @@
         <f t="shared" si="1"/>
         <v>0.76250000000000007</v>
       </c>
-      <c r="H23" s="242"/>
-      <c r="I23" s="242"/>
-      <c r="J23" s="242"/>
-      <c r="K23" s="242"/>
-      <c r="L23" s="242"/>
-      <c r="M23" s="242"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
       <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="235">
+      <c r="B24" s="82">
         <v>250</v>
       </c>
       <c r="C24" s="31">
@@ -13483,17 +15811,17 @@
         <f t="shared" si="1"/>
         <v>0.95000000000000007</v>
       </c>
-      <c r="H24" s="242"/>
-      <c r="I24" s="242"/>
-      <c r="J24" s="242"/>
-      <c r="K24" s="242"/>
-      <c r="L24" s="242"/>
-      <c r="M24" s="242"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
       <c r="N24" s="14"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="B25" s="235">
+      <c r="B25" s="82">
         <v>300</v>
       </c>
       <c r="C25" s="31">
@@ -13512,17 +15840,17 @@
         <f t="shared" si="1"/>
         <v>1.1400000000000001</v>
       </c>
-      <c r="H25" s="242"/>
-      <c r="I25" s="242"/>
-      <c r="J25" s="242"/>
-      <c r="K25" s="242"/>
-      <c r="L25" s="242"/>
-      <c r="M25" s="242"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
       <c r="N25" s="14"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="235">
+      <c r="B26" s="82">
         <v>350</v>
       </c>
       <c r="C26" s="31">
@@ -13541,17 +15869,17 @@
         <f t="shared" si="1"/>
         <v>1.335</v>
       </c>
-      <c r="H26" s="242"/>
-      <c r="I26" s="242"/>
-      <c r="J26" s="242"/>
-      <c r="K26" s="242"/>
-      <c r="L26" s="242"/>
-      <c r="M26" s="242"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
       <c r="N26" s="14"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
-      <c r="B27" s="235">
+      <c r="B27" s="82">
         <v>400</v>
       </c>
       <c r="C27" s="31">
@@ -13570,17 +15898,17 @@
         <f t="shared" si="1"/>
         <v>1.5299999999999998</v>
       </c>
-      <c r="H27" s="242"/>
-      <c r="I27" s="242"/>
-      <c r="J27" s="242"/>
-      <c r="K27" s="242"/>
-      <c r="L27" s="242"/>
-      <c r="M27" s="242"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
       <c r="N27" s="14"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="235">
+      <c r="B28" s="82">
         <v>450</v>
       </c>
       <c r="C28" s="31">
@@ -13599,17 +15927,17 @@
         <f t="shared" si="1"/>
         <v>1.7274999999999998</v>
       </c>
-      <c r="H28" s="242"/>
-      <c r="I28" s="242"/>
-      <c r="J28" s="242"/>
-      <c r="K28" s="242"/>
-      <c r="L28" s="242"/>
-      <c r="M28" s="242"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
       <c r="N28" s="14"/>
     </row>
     <row r="29" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
-      <c r="B29" s="236">
+      <c r="B29" s="83">
         <v>500</v>
       </c>
       <c r="C29" s="17">
@@ -13628,28 +15956,28 @@
         <f t="shared" si="1"/>
         <v>1.9275000000000002</v>
       </c>
-      <c r="H29" s="242"/>
-      <c r="I29" s="242"/>
-      <c r="J29" s="242"/>
-      <c r="K29" s="242"/>
-      <c r="L29" s="242"/>
-      <c r="M29" s="242"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
       <c r="N29" s="14"/>
     </row>
     <row r="30" spans="1:14" ht="13.8" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="10"/>
-      <c r="B30" s="242"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
-      <c r="I30" s="242"/>
-      <c r="J30" s="242"/>
-      <c r="K30" s="242"/>
-      <c r="L30" s="242"/>
-      <c r="M30" s="242"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
       <c r="N30" s="14"/>
     </row>
     <row r="31" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13657,37 +15985,37 @@
       <c r="B31" s="127" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="237">
+      <c r="C31" s="236">
         <v>170</v>
       </c>
-      <c r="D31" s="238"/>
-      <c r="E31" s="244"/>
-      <c r="F31" s="242"/>
-      <c r="G31" s="242"/>
-      <c r="H31" s="242"/>
-      <c r="I31" s="242"/>
-      <c r="J31" s="242"/>
-      <c r="K31" s="242"/>
-      <c r="L31" s="242"/>
-      <c r="M31" s="242"/>
+      <c r="D31" s="237"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
       <c r="N31" s="14"/>
     </row>
     <row r="32" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10"/>
-      <c r="B32" s="242"/>
-      <c r="C32" s="242"/>
-      <c r="D32" s="242"/>
-      <c r="E32" s="242"/>
-      <c r="F32" s="242" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="G32" s="242"/>
-      <c r="H32" s="242"/>
-      <c r="I32" s="242"/>
-      <c r="J32" s="242"/>
-      <c r="K32" s="242"/>
-      <c r="L32" s="242"/>
-      <c r="M32" s="242"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="14"/>
     </row>
     <row r="33" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13698,35 +16026,35 @@
       <c r="C33" s="180" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="246">
+      <c r="D33" s="238">
         <f>SLOPE(G8:G16,B8:B16)*1000/2.25</f>
         <v>171.00000000000003</v>
       </c>
-      <c r="E33" s="245"/>
-      <c r="F33" s="242"/>
-      <c r="G33" s="242"/>
-      <c r="H33" s="242"/>
-      <c r="I33" s="242"/>
-      <c r="J33" s="242"/>
-      <c r="K33" s="242"/>
-      <c r="L33" s="242"/>
-      <c r="M33" s="242"/>
+      <c r="E33" s="239"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
       <c r="N33" s="14"/>
     </row>
     <row r="34" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="242"/>
-      <c r="C34" s="242"/>
-      <c r="D34" s="242"/>
-      <c r="E34" s="242"/>
-      <c r="F34" s="242"/>
-      <c r="G34" s="242"/>
-      <c r="H34" s="242"/>
-      <c r="I34" s="242"/>
-      <c r="J34" s="242"/>
-      <c r="K34" s="242"/>
-      <c r="L34" s="242"/>
-      <c r="M34" s="242"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
       <c r="N34" s="14"/>
     </row>
     <row r="35" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13738,32 +16066,32 @@
         <f>ABS(D33-C31)/C31</f>
         <v>5.8823529411766379E-3</v>
       </c>
-      <c r="D35" s="242"/>
-      <c r="E35" s="242"/>
-      <c r="F35" s="242"/>
-      <c r="G35" s="242"/>
-      <c r="H35" s="242"/>
-      <c r="I35" s="242"/>
-      <c r="J35" s="242"/>
-      <c r="K35" s="242"/>
-      <c r="L35" s="242"/>
-      <c r="M35" s="242"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
       <c r="N35" s="14"/>
     </row>
     <row r="36" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
-      <c r="B36" s="242"/>
-      <c r="C36" s="242"/>
-      <c r="D36" s="242"/>
-      <c r="E36" s="242"/>
-      <c r="F36" s="242"/>
-      <c r="G36" s="242"/>
-      <c r="H36" s="242"/>
-      <c r="I36" s="242"/>
-      <c r="J36" s="242"/>
-      <c r="K36" s="242"/>
-      <c r="L36" s="242"/>
-      <c r="M36" s="242"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
       <c r="N36" s="14"/>
     </row>
     <row r="37" spans="1:14" ht="16.8" thickTop="1" x14ac:dyDescent="0.25">
@@ -13777,74 +16105,74 @@
       <c r="D37" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="E37" s="242"/>
-      <c r="F37" s="242"/>
-      <c r="G37" s="242"/>
-      <c r="H37" s="242"/>
-      <c r="I37" s="242"/>
-      <c r="J37" s="242"/>
-      <c r="K37" s="242"/>
-      <c r="L37" s="242"/>
-      <c r="M37" s="242"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
       <c r="N37" s="14"/>
     </row>
     <row r="38" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="234">
+      <c r="B38" s="186">
         <v>0</v>
       </c>
-      <c r="C38" s="239">
+      <c r="C38" s="187">
         <v>2</v>
       </c>
       <c r="D38" s="47">
         <v>1510</v>
       </c>
-      <c r="E38" s="242"/>
-      <c r="F38" s="242"/>
-      <c r="G38" s="242"/>
-      <c r="H38" s="242"/>
-      <c r="I38" s="242"/>
-      <c r="J38" s="242"/>
-      <c r="K38" s="242"/>
-      <c r="L38" s="242"/>
-      <c r="M38" s="242"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
       <c r="N38" s="14"/>
     </row>
     <row r="39" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="10"/>
-      <c r="B39" s="242"/>
-      <c r="C39" s="242"/>
-      <c r="D39" s="242"/>
-      <c r="E39" s="242"/>
-      <c r="F39" s="242"/>
-      <c r="G39" s="242"/>
-      <c r="H39" s="242"/>
-      <c r="I39" s="242"/>
-      <c r="J39" s="242"/>
-      <c r="K39" s="242"/>
-      <c r="L39" s="242"/>
-      <c r="M39" s="242"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
       <c r="N39" s="14"/>
     </row>
     <row r="40" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="240" t="s">
+      <c r="B40" s="222" t="s">
         <v>236</v>
       </c>
-      <c r="C40" s="241"/>
+      <c r="C40" s="223"/>
       <c r="D40" s="126">
         <f>C38*1.5/(D38*1.5*0.2*0.001)</f>
         <v>6.6225165562913908</v>
       </c>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="242"/>
-      <c r="J40" s="242"/>
-      <c r="K40" s="242"/>
-      <c r="L40" s="242"/>
-      <c r="M40" s="242"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
       <c r="N40" s="14"/>
     </row>
     <row r="41" spans="1:14" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -13865,15 +16193,1494 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="G19:G20"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="G19:G20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDD44F06-E772-4DBB-A27E-88920BE166F2}">
+  <dimension ref="A1:K77"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.33203125" customWidth="1"/>
+    <col min="3" max="5" width="9.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="12"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D2" s="242"/>
+      <c r="E2" s="242"/>
+      <c r="F2" s="242"/>
+      <c r="G2" s="242"/>
+      <c r="H2" s="242"/>
+      <c r="I2" s="242"/>
+      <c r="J2" s="242"/>
+      <c r="K2" s="14"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="243">
+        <v>160</v>
+      </c>
+      <c r="C3" s="244">
+        <v>1.5619000000000001</v>
+      </c>
+      <c r="D3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="242"/>
+      <c r="G3" s="242"/>
+      <c r="H3" s="242"/>
+      <c r="I3" s="242"/>
+      <c r="J3" s="242"/>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="243">
+        <v>159</v>
+      </c>
+      <c r="C4" s="244">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="D4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="242"/>
+      <c r="G4" s="242"/>
+      <c r="H4" s="242"/>
+      <c r="I4" s="242"/>
+      <c r="J4" s="242"/>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="243">
+        <v>157</v>
+      </c>
+      <c r="C5" s="244">
+        <v>1.5621</v>
+      </c>
+      <c r="D5" s="242"/>
+      <c r="E5" s="242"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
+      <c r="H5" s="242"/>
+      <c r="I5" s="242"/>
+      <c r="J5" s="242"/>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="243">
+        <v>156</v>
+      </c>
+      <c r="C6" s="244">
+        <v>1.5622</v>
+      </c>
+      <c r="D6" s="242"/>
+      <c r="E6" s="242"/>
+      <c r="F6" s="242"/>
+      <c r="G6" s="242"/>
+      <c r="H6" s="242"/>
+      <c r="I6" s="242"/>
+      <c r="J6" s="242"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="243">
+        <v>154</v>
+      </c>
+      <c r="C7" s="244">
+        <v>1.5623</v>
+      </c>
+      <c r="D7" s="242"/>
+      <c r="E7" s="242"/>
+      <c r="F7" s="242"/>
+      <c r="G7" s="242"/>
+      <c r="H7" s="242"/>
+      <c r="I7" s="242"/>
+      <c r="J7" s="242"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="243">
+        <v>153</v>
+      </c>
+      <c r="C8" s="244">
+        <v>1.5624</v>
+      </c>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="243">
+        <v>152</v>
+      </c>
+      <c r="C9" s="244">
+        <v>1.5625</v>
+      </c>
+      <c r="D9" s="242"/>
+      <c r="E9" s="242"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="242"/>
+      <c r="H9" s="242"/>
+      <c r="I9" s="242"/>
+      <c r="J9" s="242"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="243">
+        <v>150</v>
+      </c>
+      <c r="C10" s="244">
+        <v>1.5627</v>
+      </c>
+      <c r="D10" s="242"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="242"/>
+      <c r="G10" s="242"/>
+      <c r="H10" s="242"/>
+      <c r="I10" s="242"/>
+      <c r="J10" s="242"/>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="243">
+        <v>149</v>
+      </c>
+      <c r="C11" s="244">
+        <v>1.5628</v>
+      </c>
+      <c r="D11" s="242"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="242"/>
+      <c r="G11" s="242"/>
+      <c r="H11" s="242"/>
+      <c r="I11" s="242"/>
+      <c r="J11" s="242"/>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="243">
+        <v>147</v>
+      </c>
+      <c r="C12" s="244">
+        <v>1.5629</v>
+      </c>
+      <c r="D12" s="242"/>
+      <c r="E12" s="242"/>
+      <c r="F12" s="242"/>
+      <c r="G12" s="242"/>
+      <c r="H12" s="242"/>
+      <c r="I12" s="242"/>
+      <c r="J12" s="242"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="243">
+        <v>146</v>
+      </c>
+      <c r="C13" s="244">
+        <v>1.5629999999999999</v>
+      </c>
+      <c r="D13" s="242"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="242"/>
+      <c r="G13" s="242"/>
+      <c r="H13" s="242"/>
+      <c r="I13" s="242"/>
+      <c r="J13" s="242"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="10"/>
+      <c r="B14" s="243">
+        <v>145</v>
+      </c>
+      <c r="C14" s="244">
+        <v>1.5631999999999999</v>
+      </c>
+      <c r="D14" s="242"/>
+      <c r="E14" s="242"/>
+      <c r="F14" s="242"/>
+      <c r="G14" s="242"/>
+      <c r="H14" s="242"/>
+      <c r="I14" s="242"/>
+      <c r="J14" s="242"/>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="10"/>
+      <c r="B15" s="243">
+        <v>143</v>
+      </c>
+      <c r="C15" s="244">
+        <v>1.5632999999999999</v>
+      </c>
+      <c r="D15" s="242"/>
+      <c r="E15" s="242"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="242"/>
+      <c r="J15" s="242"/>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="243">
+        <v>142</v>
+      </c>
+      <c r="C16" s="244">
+        <v>1.5633999999999999</v>
+      </c>
+      <c r="D16" s="242"/>
+      <c r="E16" s="242"/>
+      <c r="F16" s="242"/>
+      <c r="G16" s="242"/>
+      <c r="H16" s="242"/>
+      <c r="I16" s="242"/>
+      <c r="J16" s="242"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="10"/>
+      <c r="B17" s="243">
+        <v>141</v>
+      </c>
+      <c r="C17" s="244">
+        <v>1.5634999999999999</v>
+      </c>
+      <c r="D17" s="242"/>
+      <c r="E17" s="242"/>
+      <c r="F17" s="242"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="242"/>
+      <c r="I17" s="242"/>
+      <c r="J17" s="242"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+      <c r="B18" s="243">
+        <v>139</v>
+      </c>
+      <c r="C18" s="244">
+        <v>1.5636000000000001</v>
+      </c>
+      <c r="D18" s="242"/>
+      <c r="E18" s="242"/>
+      <c r="F18" s="242"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="242"/>
+      <c r="I18" s="242"/>
+      <c r="J18" s="242"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="243">
+        <v>138</v>
+      </c>
+      <c r="C19" s="244">
+        <v>1.5638000000000001</v>
+      </c>
+      <c r="D19" s="242"/>
+      <c r="E19" s="242"/>
+      <c r="F19" s="242"/>
+      <c r="G19" s="242"/>
+      <c r="H19" s="242"/>
+      <c r="I19" s="242"/>
+      <c r="J19" s="242"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="243">
+        <v>137</v>
+      </c>
+      <c r="C20" s="244">
+        <v>1.5639000000000001</v>
+      </c>
+      <c r="D20" s="242"/>
+      <c r="E20" s="242"/>
+      <c r="F20" s="242"/>
+      <c r="G20" s="242"/>
+      <c r="H20" s="242"/>
+      <c r="I20" s="242"/>
+      <c r="J20" s="242"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="243">
+        <v>135</v>
+      </c>
+      <c r="C21" s="244">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="D21" s="242"/>
+      <c r="E21" s="242"/>
+      <c r="F21" s="242"/>
+      <c r="G21" s="242"/>
+      <c r="H21" s="242"/>
+      <c r="I21" s="242"/>
+      <c r="J21" s="242"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="243">
+        <v>134</v>
+      </c>
+      <c r="C22" s="244">
+        <v>1.5642</v>
+      </c>
+      <c r="D22" s="242"/>
+      <c r="E22" s="242"/>
+      <c r="F22" s="242"/>
+      <c r="G22" s="242"/>
+      <c r="H22" s="242"/>
+      <c r="I22" s="242"/>
+      <c r="J22" s="242"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="243">
+        <v>131</v>
+      </c>
+      <c r="C23" s="244">
+        <v>1.5644</v>
+      </c>
+      <c r="D23" s="242"/>
+      <c r="E23" s="242"/>
+      <c r="F23" s="242"/>
+      <c r="G23" s="242"/>
+      <c r="H23" s="242"/>
+      <c r="I23" s="242"/>
+      <c r="J23" s="242"/>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="243">
+        <v>130</v>
+      </c>
+      <c r="C24" s="244">
+        <v>1.5646</v>
+      </c>
+      <c r="D24" s="242"/>
+      <c r="E24" s="242"/>
+      <c r="F24" s="242"/>
+      <c r="G24" s="242"/>
+      <c r="H24" s="242"/>
+      <c r="I24" s="242"/>
+      <c r="J24" s="242"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="10"/>
+      <c r="B25" s="243">
+        <v>129</v>
+      </c>
+      <c r="C25" s="244">
+        <v>1.5646</v>
+      </c>
+      <c r="D25" s="242"/>
+      <c r="E25" s="242"/>
+      <c r="F25" s="242"/>
+      <c r="G25" s="242"/>
+      <c r="H25" s="242"/>
+      <c r="I25" s="242"/>
+      <c r="J25" s="242"/>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="243">
+        <v>128</v>
+      </c>
+      <c r="C26" s="244">
+        <v>1.5646</v>
+      </c>
+      <c r="D26" s="242"/>
+      <c r="E26" s="242"/>
+      <c r="F26" s="242"/>
+      <c r="G26" s="242"/>
+      <c r="H26" s="242"/>
+      <c r="I26" s="242"/>
+      <c r="J26" s="242"/>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="10"/>
+      <c r="B27" s="243">
+        <v>126</v>
+      </c>
+      <c r="C27" s="244">
+        <v>1.5649</v>
+      </c>
+      <c r="D27" s="242"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
+      <c r="G27" s="242"/>
+      <c r="H27" s="242"/>
+      <c r="I27" s="242"/>
+      <c r="J27" s="242"/>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="243">
+        <v>125</v>
+      </c>
+      <c r="C28" s="244">
+        <v>1.5649999999999999</v>
+      </c>
+      <c r="D28" s="242"/>
+      <c r="E28" s="242"/>
+      <c r="F28" s="242"/>
+      <c r="G28" s="242"/>
+      <c r="H28" s="242"/>
+      <c r="I28" s="242"/>
+      <c r="J28" s="242"/>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10"/>
+      <c r="B29" s="181">
+        <v>124</v>
+      </c>
+      <c r="C29" s="245">
+        <v>1.5650999999999999</v>
+      </c>
+      <c r="D29" s="242"/>
+      <c r="E29" s="242"/>
+      <c r="F29" s="242"/>
+      <c r="G29" s="242"/>
+      <c r="H29" s="242"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="242"/>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="242"/>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10"/>
+      <c r="B31" s="246" t="s">
+        <v>243</v>
+      </c>
+      <c r="C31" s="246"/>
+      <c r="D31" s="246"/>
+      <c r="E31" s="246"/>
+      <c r="F31" s="242" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" s="242"/>
+      <c r="H31" s="242"/>
+      <c r="I31" s="242"/>
+      <c r="J31" s="242"/>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D32" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>240</v>
+      </c>
+      <c r="F32" s="44" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" s="242"/>
+      <c r="H32" s="242"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="242"/>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="132">
+        <v>1</v>
+      </c>
+      <c r="C33" s="135">
+        <v>124</v>
+      </c>
+      <c r="D33" s="91">
+        <v>6</v>
+      </c>
+      <c r="E33" s="135">
+        <v>72</v>
+      </c>
+      <c r="F33" s="247">
+        <f>LN((C33/E33))</f>
+        <v>0.54361544658898164</v>
+      </c>
+      <c r="G33" s="242"/>
+      <c r="H33" s="242"/>
+      <c r="I33" s="242"/>
+      <c r="J33" s="242"/>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="132">
+        <v>2</v>
+      </c>
+      <c r="C34" s="135">
+        <v>111</v>
+      </c>
+      <c r="D34" s="91">
+        <v>7</v>
+      </c>
+      <c r="E34" s="135">
+        <v>64</v>
+      </c>
+      <c r="F34" s="247">
+        <f t="shared" ref="F34:F37" si="0">LN((C34/E34))</f>
+        <v>0.5506471179526623</v>
+      </c>
+      <c r="G34" s="242"/>
+      <c r="H34" s="242"/>
+      <c r="I34" s="242"/>
+      <c r="J34" s="242"/>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="132">
+        <v>3</v>
+      </c>
+      <c r="C35" s="135">
+        <v>100</v>
+      </c>
+      <c r="D35" s="91">
+        <v>8</v>
+      </c>
+      <c r="E35" s="135">
+        <v>58</v>
+      </c>
+      <c r="F35" s="247">
+        <f t="shared" si="0"/>
+        <v>0.54472717544167193</v>
+      </c>
+      <c r="G35" s="242"/>
+      <c r="H35" s="242"/>
+      <c r="I35" s="242"/>
+      <c r="J35" s="242"/>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="132">
+        <v>4</v>
+      </c>
+      <c r="C36" s="135">
+        <v>90</v>
+      </c>
+      <c r="D36" s="91">
+        <v>9</v>
+      </c>
+      <c r="E36" s="135">
+        <v>51</v>
+      </c>
+      <c r="F36" s="247">
+        <f t="shared" si="0"/>
+        <v>0.5679840376059393</v>
+      </c>
+      <c r="G36" s="242"/>
+      <c r="H36" s="242"/>
+      <c r="I36" s="242"/>
+      <c r="J36" s="242"/>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="132">
+        <v>5</v>
+      </c>
+      <c r="C37" s="135">
+        <v>81</v>
+      </c>
+      <c r="D37" s="91">
+        <v>10</v>
+      </c>
+      <c r="E37" s="135">
+        <v>46</v>
+      </c>
+      <c r="F37" s="247">
+        <f t="shared" si="0"/>
+        <v>0.56580775818334383</v>
+      </c>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10"/>
+      <c r="B38" s="205" t="s">
+        <v>242</v>
+      </c>
+      <c r="C38" s="206"/>
+      <c r="D38" s="206"/>
+      <c r="E38" s="206"/>
+      <c r="F38" s="248">
+        <f>AVERAGE(F33:F37)</f>
+        <v>0.55455630715451976</v>
+      </c>
+      <c r="G38" s="242"/>
+      <c r="H38" s="242"/>
+      <c r="I38" s="242"/>
+      <c r="J38" s="242"/>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="242" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="249">
+        <v>15.689399999999999</v>
+      </c>
+      <c r="D39" s="242" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" s="250">
+        <f>C39/10</f>
+        <v>1.56894</v>
+      </c>
+      <c r="F39" s="242"/>
+      <c r="G39" s="242"/>
+      <c r="H39" s="242"/>
+      <c r="I39" s="242"/>
+      <c r="J39" s="242"/>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="251" t="s">
+        <v>245</v>
+      </c>
+      <c r="C40" s="252">
+        <f>F38/(5*E39)</f>
+        <v>7.0691843812321672E-2</v>
+      </c>
+      <c r="D40" s="242"/>
+      <c r="E40" s="242"/>
+      <c r="F40" s="242"/>
+      <c r="G40" s="242"/>
+      <c r="H40" s="242"/>
+      <c r="I40" s="242"/>
+      <c r="J40" s="242"/>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10"/>
+      <c r="B41" s="242"/>
+      <c r="C41" s="242"/>
+      <c r="D41" s="242"/>
+      <c r="E41" s="242"/>
+      <c r="F41" s="242"/>
+      <c r="G41" s="242"/>
+      <c r="H41" s="242"/>
+      <c r="I41" s="242"/>
+      <c r="J41" s="242"/>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" ht="31.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10"/>
+      <c r="B42" s="42" t="s">
+        <v>248</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>249</v>
+      </c>
+      <c r="D42" s="43" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>252</v>
+      </c>
+      <c r="G42" s="253" t="s">
+        <v>253</v>
+      </c>
+      <c r="H42" s="242"/>
+      <c r="I42" s="242"/>
+      <c r="J42" s="242"/>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="132">
+        <v>300</v>
+      </c>
+      <c r="C43" s="254">
+        <v>1.6536999999999999</v>
+      </c>
+      <c r="D43" s="135">
+        <v>20</v>
+      </c>
+      <c r="E43" s="135">
+        <v>48</v>
+      </c>
+      <c r="F43" s="255">
+        <f>SLOPE($C$3:$C$29,$B$3:$B$29)*E43+INTERCEPT($C$3:$C$29,$B$3:$B$29)</f>
+        <v>1.5718714144638632</v>
+      </c>
+      <c r="G43" s="247">
+        <f>F43/C43</f>
+        <v>0.95051787776734797</v>
+      </c>
+      <c r="H43" s="242"/>
+      <c r="I43" s="242"/>
+      <c r="J43" s="242"/>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="10"/>
+      <c r="B44" s="132">
+        <v>240</v>
+      </c>
+      <c r="C44" s="254">
+        <v>1.6427</v>
+      </c>
+      <c r="D44" s="135">
+        <v>23</v>
+      </c>
+      <c r="E44" s="135">
+        <v>49</v>
+      </c>
+      <c r="F44" s="255">
+        <f t="shared" ref="F44:F59" si="1">SLOPE($C$3:$C$29,$B$3:$B$29)*E44+INTERCEPT($C$3:$C$29,$B$3:$B$29)</f>
+        <v>1.5717815848701282</v>
+      </c>
+      <c r="G44" s="247">
+        <f t="shared" ref="G44:G59" si="2">F44/C44</f>
+        <v>0.9568281395690803</v>
+      </c>
+      <c r="H44" s="242"/>
+      <c r="I44" s="242"/>
+      <c r="J44" s="242"/>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="132">
+        <v>180</v>
+      </c>
+      <c r="C45" s="254">
+        <v>1.619</v>
+      </c>
+      <c r="D45" s="135">
+        <v>29</v>
+      </c>
+      <c r="E45" s="135">
+        <v>67</v>
+      </c>
+      <c r="F45" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5701646521828996</v>
+      </c>
+      <c r="G45" s="247">
+        <f t="shared" si="2"/>
+        <v>0.96983610388072861</v>
+      </c>
+      <c r="H45" s="242"/>
+      <c r="I45" s="242"/>
+      <c r="J45" s="242"/>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="10"/>
+      <c r="B46" s="132">
+        <v>120</v>
+      </c>
+      <c r="C46" s="254">
+        <v>1.601</v>
+      </c>
+      <c r="D46" s="135">
+        <v>39</v>
+      </c>
+      <c r="E46" s="135">
+        <v>82</v>
+      </c>
+      <c r="F46" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5688172082768757</v>
+      </c>
+      <c r="G46" s="247">
+        <f t="shared" si="2"/>
+        <v>0.97989831872384492</v>
+      </c>
+      <c r="H46" s="242"/>
+      <c r="I46" s="242"/>
+      <c r="J46" s="242"/>
+      <c r="K46" s="14"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="10"/>
+      <c r="B47" s="132">
+        <v>60</v>
+      </c>
+      <c r="C47" s="254">
+        <v>1.5842000000000001</v>
+      </c>
+      <c r="D47" s="135">
+        <v>56</v>
+      </c>
+      <c r="E47" s="135">
+        <v>102</v>
+      </c>
+      <c r="F47" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5670206164021772</v>
+      </c>
+      <c r="G47" s="247">
+        <f t="shared" si="2"/>
+        <v>0.98915579876415671</v>
+      </c>
+      <c r="H47" s="242"/>
+      <c r="I47" s="242"/>
+      <c r="J47" s="242"/>
+      <c r="K47" s="14"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="10"/>
+      <c r="B48" s="132">
+        <v>30</v>
+      </c>
+      <c r="C48" s="254">
+        <v>1.5755999999999999</v>
+      </c>
+      <c r="D48" s="135">
+        <v>66</v>
+      </c>
+      <c r="E48" s="135">
+        <v>121</v>
+      </c>
+      <c r="F48" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5653138541212135</v>
+      </c>
+      <c r="G48" s="247">
+        <f t="shared" si="2"/>
+        <v>0.9934716007369977</v>
+      </c>
+      <c r="H48" s="242"/>
+      <c r="I48" s="242"/>
+      <c r="J48" s="242"/>
+      <c r="K48" s="14"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="10"/>
+      <c r="B49" s="132">
+        <v>20</v>
+      </c>
+      <c r="C49" s="254">
+        <v>1.5727</v>
+      </c>
+      <c r="D49" s="135">
+        <v>72</v>
+      </c>
+      <c r="E49" s="135">
+        <v>127</v>
+      </c>
+      <c r="F49" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5647748765588039</v>
+      </c>
+      <c r="G49" s="247">
+        <f t="shared" si="2"/>
+        <v>0.99496081678565773</v>
+      </c>
+      <c r="H49" s="242"/>
+      <c r="I49" s="242"/>
+      <c r="J49" s="242"/>
+      <c r="K49" s="14"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="10"/>
+      <c r="B50" s="132">
+        <v>10</v>
+      </c>
+      <c r="C50" s="254">
+        <v>1.5698000000000001</v>
+      </c>
+      <c r="D50" s="135">
+        <v>75</v>
+      </c>
+      <c r="E50" s="135">
+        <v>130</v>
+      </c>
+      <c r="F50" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5645053877775992</v>
+      </c>
+      <c r="G50" s="247">
+        <f t="shared" si="2"/>
+        <v>0.99662720587183018</v>
+      </c>
+      <c r="H50" s="242"/>
+      <c r="I50" s="242"/>
+      <c r="J50" s="242"/>
+      <c r="K50" s="14"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="10"/>
+      <c r="B51" s="132">
+        <v>5</v>
+      </c>
+      <c r="C51" s="254">
+        <v>1.5680000000000001</v>
+      </c>
+      <c r="D51" s="135">
+        <v>80</v>
+      </c>
+      <c r="E51" s="135">
+        <v>132</v>
+      </c>
+      <c r="F51" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5643257285901293</v>
+      </c>
+      <c r="G51" s="247">
+        <f t="shared" si="2"/>
+        <v>0.99765671466207217</v>
+      </c>
+      <c r="H51" s="242"/>
+      <c r="I51" s="242"/>
+      <c r="J51" s="242"/>
+      <c r="K51" s="14"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="10"/>
+      <c r="B52" s="132">
+        <v>0</v>
+      </c>
+      <c r="C52" s="254">
+        <v>1.5669</v>
+      </c>
+      <c r="D52" s="135">
+        <v>82</v>
+      </c>
+      <c r="E52" s="135">
+        <v>133</v>
+      </c>
+      <c r="F52" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5642358989963943</v>
+      </c>
+      <c r="G52" s="247">
+        <f t="shared" si="2"/>
+        <v>0.99829976322445224</v>
+      </c>
+      <c r="H52" s="242"/>
+      <c r="I52" s="242"/>
+      <c r="J52" s="242"/>
+      <c r="K52" s="14"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="10"/>
+      <c r="B53" s="132">
+        <v>-5</v>
+      </c>
+      <c r="C53" s="254">
+        <v>1.5651999999999999</v>
+      </c>
+      <c r="D53" s="135">
+        <v>84</v>
+      </c>
+      <c r="E53" s="135">
+        <v>134</v>
+      </c>
+      <c r="F53" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5641460694026594</v>
+      </c>
+      <c r="G53" s="247">
+        <f t="shared" si="2"/>
+        <v>0.99932664797000992</v>
+      </c>
+      <c r="H53" s="242"/>
+      <c r="I53" s="242"/>
+      <c r="J53" s="242"/>
+      <c r="K53" s="14"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="10"/>
+      <c r="B54" s="132">
+        <v>-10</v>
+      </c>
+      <c r="C54" s="254">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="D54" s="135">
+        <v>87</v>
+      </c>
+      <c r="E54" s="135">
+        <v>134</v>
+      </c>
+      <c r="F54" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5641460694026594</v>
+      </c>
+      <c r="G54" s="247">
+        <f t="shared" si="2"/>
+        <v>1.0000933947587336</v>
+      </c>
+      <c r="H54" s="242"/>
+      <c r="I54" s="242"/>
+      <c r="J54" s="242"/>
+      <c r="K54" s="14"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="10"/>
+      <c r="B55" s="132">
+        <v>-20</v>
+      </c>
+      <c r="C55" s="254">
+        <v>1.5610999999999999</v>
+      </c>
+      <c r="D55" s="135">
+        <v>95</v>
+      </c>
+      <c r="E55" s="135">
+        <v>132</v>
+      </c>
+      <c r="F55" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5643257285901293</v>
+      </c>
+      <c r="G55" s="247">
+        <f t="shared" si="2"/>
+        <v>1.0020663177183584</v>
+      </c>
+      <c r="H55" s="242"/>
+      <c r="I55" s="242"/>
+      <c r="J55" s="242"/>
+      <c r="K55" s="14"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="132">
+        <v>-30</v>
+      </c>
+      <c r="C56" s="254">
+        <v>1.5582</v>
+      </c>
+      <c r="D56" s="135">
+        <v>99</v>
+      </c>
+      <c r="E56" s="135">
+        <v>123</v>
+      </c>
+      <c r="F56" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5651341949337436</v>
+      </c>
+      <c r="G56" s="247">
+        <f t="shared" si="2"/>
+        <v>1.0044501315195378</v>
+      </c>
+      <c r="H56" s="242"/>
+      <c r="I56" s="242"/>
+      <c r="J56" s="242"/>
+      <c r="K56" s="14"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="10"/>
+      <c r="B57" s="132">
+        <v>-60</v>
+      </c>
+      <c r="C57" s="254">
+        <v>1.5501</v>
+      </c>
+      <c r="D57" s="135">
+        <v>118</v>
+      </c>
+      <c r="E57" s="135">
+        <v>121</v>
+      </c>
+      <c r="F57" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5653138541212135</v>
+      </c>
+      <c r="G57" s="247">
+        <f t="shared" si="2"/>
+        <v>1.0098147565455218</v>
+      </c>
+      <c r="H57" s="242"/>
+      <c r="I57" s="242"/>
+      <c r="J57" s="242"/>
+      <c r="K57" s="14"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="10"/>
+      <c r="B58" s="132">
+        <v>-120</v>
+      </c>
+      <c r="C58" s="254">
+        <v>1.5322</v>
+      </c>
+      <c r="D58" s="135">
+        <v>143</v>
+      </c>
+      <c r="E58" s="135">
+        <v>90</v>
+      </c>
+      <c r="F58" s="255">
+        <f t="shared" si="1"/>
+        <v>1.5680985715269962</v>
+      </c>
+      <c r="G58" s="247">
+        <f t="shared" si="2"/>
+        <v>1.0234294292696751</v>
+      </c>
+      <c r="H58" s="242"/>
+      <c r="I58" s="242"/>
+      <c r="J58" s="242"/>
+      <c r="K58" s="14"/>
+    </row>
+    <row r="59" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10"/>
+      <c r="B59" s="117">
+        <v>-180</v>
+      </c>
+      <c r="C59" s="256">
+        <v>1.5147999999999999</v>
+      </c>
+      <c r="D59" s="137">
+        <v>153</v>
+      </c>
+      <c r="E59" s="137">
+        <v>53</v>
+      </c>
+      <c r="F59" s="257">
+        <f t="shared" si="1"/>
+        <v>1.5714222664951885</v>
+      </c>
+      <c r="G59" s="248">
+        <f t="shared" si="2"/>
+        <v>1.0373793679001773</v>
+      </c>
+      <c r="H59" s="242"/>
+      <c r="I59" s="242"/>
+      <c r="J59" s="242"/>
+      <c r="K59" s="14"/>
+    </row>
+    <row r="60" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="10"/>
+      <c r="B60" s="242"/>
+      <c r="C60" s="242"/>
+      <c r="D60" s="242"/>
+      <c r="E60" s="242"/>
+      <c r="F60" s="242"/>
+      <c r="G60" s="242"/>
+      <c r="H60" s="242"/>
+      <c r="I60" s="242"/>
+      <c r="J60" s="242"/>
+      <c r="K60" s="14"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="242"/>
+      <c r="C61" s="242"/>
+      <c r="D61" s="242"/>
+      <c r="E61" s="242"/>
+      <c r="F61" s="242"/>
+      <c r="G61" s="242"/>
+      <c r="H61" s="242"/>
+      <c r="I61" s="242"/>
+      <c r="J61" s="242"/>
+      <c r="K61" s="14"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="10"/>
+      <c r="B62" s="242"/>
+      <c r="C62" s="242"/>
+      <c r="D62" s="242"/>
+      <c r="E62" s="242"/>
+      <c r="F62" s="242"/>
+      <c r="G62" s="242"/>
+      <c r="H62" s="242"/>
+      <c r="I62" s="242"/>
+      <c r="J62" s="242"/>
+      <c r="K62" s="14"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="10"/>
+      <c r="B63" s="242"/>
+      <c r="C63" s="242"/>
+      <c r="D63" s="242"/>
+      <c r="E63" s="242"/>
+      <c r="F63" s="242"/>
+      <c r="G63" s="242"/>
+      <c r="H63" s="242"/>
+      <c r="I63" s="242"/>
+      <c r="J63" s="242"/>
+      <c r="K63" s="14"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="10"/>
+      <c r="B64" s="242"/>
+      <c r="C64" s="242"/>
+      <c r="D64" s="242"/>
+      <c r="E64" s="242"/>
+      <c r="F64" s="242"/>
+      <c r="G64" s="242"/>
+      <c r="H64" s="242"/>
+      <c r="I64" s="242"/>
+      <c r="J64" s="242"/>
+      <c r="K64" s="14"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="10"/>
+      <c r="B65" s="242"/>
+      <c r="C65" s="242"/>
+      <c r="D65" s="242"/>
+      <c r="E65" s="242"/>
+      <c r="F65" s="242"/>
+      <c r="G65" s="242"/>
+      <c r="H65" s="242"/>
+      <c r="I65" s="242"/>
+      <c r="J65" s="242"/>
+      <c r="K65" s="14"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="10"/>
+      <c r="B66" s="242"/>
+      <c r="C66" s="242"/>
+      <c r="D66" s="242"/>
+      <c r="E66" s="242"/>
+      <c r="F66" s="242"/>
+      <c r="G66" s="242"/>
+      <c r="H66" s="242"/>
+      <c r="I66" s="242"/>
+      <c r="J66" s="242"/>
+      <c r="K66" s="14"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="10"/>
+      <c r="B67" s="242"/>
+      <c r="C67" s="242"/>
+      <c r="D67" s="242"/>
+      <c r="E67" s="242"/>
+      <c r="F67" s="242"/>
+      <c r="G67" s="242"/>
+      <c r="H67" s="242"/>
+      <c r="I67" s="242"/>
+      <c r="J67" s="242"/>
+      <c r="K67" s="14"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="10"/>
+      <c r="B68" s="242"/>
+      <c r="C68" s="242"/>
+      <c r="D68" s="242"/>
+      <c r="E68" s="242"/>
+      <c r="F68" s="242"/>
+      <c r="G68" s="242"/>
+      <c r="H68" s="242"/>
+      <c r="I68" s="242"/>
+      <c r="J68" s="242"/>
+      <c r="K68" s="14"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="10"/>
+      <c r="B69" s="242"/>
+      <c r="C69" s="242"/>
+      <c r="D69" s="242"/>
+      <c r="E69" s="242"/>
+      <c r="F69" s="242"/>
+      <c r="G69" s="242"/>
+      <c r="H69" s="242"/>
+      <c r="I69" s="242"/>
+      <c r="J69" s="242"/>
+      <c r="K69" s="14"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70" s="10"/>
+      <c r="B70" s="242"/>
+      <c r="C70" s="242"/>
+      <c r="D70" s="242"/>
+      <c r="E70" s="242"/>
+      <c r="F70" s="242"/>
+      <c r="G70" s="242"/>
+      <c r="H70" s="242"/>
+      <c r="I70" s="242"/>
+      <c r="J70" s="242"/>
+      <c r="K70" s="14"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="242"/>
+      <c r="C71" s="242"/>
+      <c r="D71" s="242"/>
+      <c r="E71" s="242"/>
+      <c r="F71" s="242"/>
+      <c r="G71" s="242"/>
+      <c r="H71" s="242"/>
+      <c r="I71" s="242"/>
+      <c r="J71" s="242"/>
+      <c r="K71" s="14"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="242"/>
+      <c r="C72" s="242"/>
+      <c r="D72" s="242"/>
+      <c r="E72" s="242"/>
+      <c r="F72" s="242"/>
+      <c r="G72" s="242"/>
+      <c r="H72" s="242"/>
+      <c r="I72" s="242"/>
+      <c r="J72" s="242"/>
+      <c r="K72" s="14"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
+      <c r="B73" s="242"/>
+      <c r="C73" s="242"/>
+      <c r="D73" s="242"/>
+      <c r="E73" s="242"/>
+      <c r="F73" s="242"/>
+      <c r="G73" s="242"/>
+      <c r="H73" s="242"/>
+      <c r="I73" s="242"/>
+      <c r="J73" s="242"/>
+      <c r="K73" s="14"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74" s="10"/>
+      <c r="B74" s="242"/>
+      <c r="C74" s="242"/>
+      <c r="D74" s="242"/>
+      <c r="E74" s="242"/>
+      <c r="F74" s="242"/>
+      <c r="G74" s="242"/>
+      <c r="H74" s="242"/>
+      <c r="I74" s="242"/>
+      <c r="J74" s="242"/>
+      <c r="K74" s="14"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="242"/>
+      <c r="C75" s="242"/>
+      <c r="D75" s="242"/>
+      <c r="E75" s="242"/>
+      <c r="F75" s="242"/>
+      <c r="G75" s="242"/>
+      <c r="H75" s="242"/>
+      <c r="I75" s="242"/>
+      <c r="J75" s="242"/>
+      <c r="K75" s="14"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="242"/>
+      <c r="C76" s="242"/>
+      <c r="D76" s="242"/>
+      <c r="E76" s="242"/>
+      <c r="F76" s="242"/>
+      <c r="G76" s="242"/>
+      <c r="H76" s="242"/>
+      <c r="I76" s="242"/>
+      <c r="J76" s="242"/>
+      <c r="K76" s="14"/>
+    </row>
+    <row r="77" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="28"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
+      <c r="K77" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B31:E31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13900,15 +17707,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="184" t="s">
+      <c r="A1" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="185"/>
-      <c r="C1" s="185"/>
-      <c r="D1" s="185"/>
-      <c r="E1" s="185"/>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
+      <c r="B1" s="193"/>
+      <c r="C1" s="193"/>
+      <c r="D1" s="193"/>
+      <c r="E1" s="193"/>
+      <c r="F1" s="193"/>
+      <c r="G1" s="193"/>
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -14425,15 +18232,15 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="186" t="s">
+      <c r="A17" s="194" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="187"/>
-      <c r="C17" s="187"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
+      <c r="B17" s="195"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -15155,11 +18962,11 @@
     <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89"/>
       <c r="B1" s="88"/>
-      <c r="C1" s="189" t="s">
+      <c r="C1" s="197" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="189"/>
-      <c r="E1" s="189"/>
+      <c r="D1" s="197"/>
+      <c r="E1" s="197"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -15243,7 +19050,7 @@
       <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="188" t="s">
+      <c r="A7" s="196" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3">
@@ -15265,7 +19072,7 @@
       <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
+      <c r="A8" s="196"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -15285,7 +19092,7 @@
       <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="188"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -15305,7 +19112,7 @@
       <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="188"/>
+      <c r="A10" s="196"/>
       <c r="B10" s="3">
         <v>4</v>
       </c>
@@ -15325,7 +19132,7 @@
       <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="188"/>
+      <c r="A11" s="196"/>
       <c r="B11" s="3">
         <v>5</v>
       </c>
@@ -15345,7 +19152,7 @@
       <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="188"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="3">
         <v>6</v>
       </c>
@@ -15365,7 +19172,7 @@
       <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="188"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -15854,7 +19661,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD44BF3-EFA1-4C24-A0D4-A210B119E82E}">
   <dimension ref="A1:L28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -15884,22 +19693,22 @@
       <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="200" t="s">
+      <c r="A2" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="201"/>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
+      <c r="B2" s="200"/>
+      <c r="C2" s="200"/>
+      <c r="D2" s="200"/>
       <c r="E2" s="93" t="s">
         <v>90</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="G2" s="196" t="s">
+      <c r="G2" s="203" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
+      <c r="H2" s="204"/>
+      <c r="I2" s="204"/>
+      <c r="J2" s="204"/>
       <c r="K2" s="94">
         <f>TRUNC(E2)+MID(E2,5,2)/60+MID(E2,7,2)/3600</f>
         <v>267.41666666666669</v>
@@ -15909,12 +19718,12 @@
     <row r="3" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="86"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="198" t="s">
+      <c r="G3" s="205" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="199"/>
-      <c r="I3" s="199"/>
-      <c r="J3" s="199"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
       <c r="K3" s="90">
         <f>1/3000</f>
         <v>3.3333333333333332E-4</v>
@@ -15936,21 +19745,21 @@
       <c r="L4" s="85"/>
     </row>
     <row r="5" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="192" t="s">
+      <c r="A5" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="190" t="s">
+      <c r="B5" s="208" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="190" t="s">
+      <c r="C5" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="194"/>
+      <c r="D5" s="210"/>
       <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="188"/>
-      <c r="B6" s="193"/>
+      <c r="A6" s="196"/>
+      <c r="B6" s="209"/>
       <c r="C6" s="91" t="s">
         <v>82</v>
       </c>
@@ -15960,7 +19769,7 @@
       <c r="L6" s="85"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="188">
+      <c r="A7" s="196">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -15972,13 +19781,13 @@
       <c r="D7" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="202" t="s">
+      <c r="F7" s="201" t="s">
         <v>109</v>
       </c>
       <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="188"/>
+      <c r="A8" s="196"/>
       <c r="B8" s="3" t="s">
         <v>85</v>
       </c>
@@ -15988,11 +19797,11 @@
       <c r="D8" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="203"/>
+      <c r="F8" s="202"/>
       <c r="L8" s="85"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="188"/>
+      <c r="A9" s="196"/>
       <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
@@ -16002,11 +19811,11 @@
       <c r="D9" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="203"/>
+      <c r="F9" s="202"/>
       <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="188">
+      <c r="A10" s="196">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -16018,11 +19827,11 @@
       <c r="D10" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="203"/>
+      <c r="F10" s="202"/>
       <c r="L10" s="85"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="188"/>
+      <c r="A11" s="196"/>
       <c r="B11" s="3" t="s">
         <v>85</v>
       </c>
@@ -16032,11 +19841,11 @@
       <c r="D11" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="203"/>
+      <c r="F11" s="202"/>
       <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="188"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
@@ -16046,11 +19855,11 @@
       <c r="D12" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="203"/>
+      <c r="F12" s="202"/>
       <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="188">
+      <c r="A13" s="196">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -16062,11 +19871,11 @@
       <c r="D13" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="203"/>
+      <c r="F13" s="202"/>
       <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="188"/>
+      <c r="A14" s="196"/>
       <c r="B14" s="3" t="s">
         <v>85</v>
       </c>
@@ -16076,11 +19885,11 @@
       <c r="D14" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="203"/>
+      <c r="F14" s="202"/>
       <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="191"/>
+      <c r="A15" s="198"/>
       <c r="B15" s="4" t="s">
         <v>86</v>
       </c>
@@ -16097,40 +19906,40 @@
       <c r="L16" s="85"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="192" t="s">
+      <c r="A17" s="207" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="208" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="190" t="s">
+      <c r="C17" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="190"/>
-      <c r="E17" s="190" t="s">
+      <c r="D17" s="208"/>
+      <c r="E17" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190" t="s">
+      <c r="F17" s="208"/>
+      <c r="G17" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="190" t="s">
+      <c r="H17" s="208" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="190" t="s">
+      <c r="I17" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="190" t="s">
+      <c r="J17" s="208" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="194" t="s">
+      <c r="K17" s="210" t="s">
         <v>2</v>
       </c>
       <c r="L17" s="85"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="188"/>
-      <c r="B18" s="193"/>
+      <c r="A18" s="196"/>
+      <c r="B18" s="209"/>
       <c r="C18" s="91" t="s">
         <v>82</v>
       </c>
@@ -16143,15 +19952,15 @@
       <c r="F18" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="195"/>
+      <c r="G18" s="209"/>
+      <c r="H18" s="209"/>
+      <c r="I18" s="209"/>
+      <c r="J18" s="209"/>
+      <c r="K18" s="211"/>
       <c r="L18" s="85"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="188">
+      <c r="A19" s="196">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -16196,7 +20005,7 @@
       <c r="L19" s="85"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="188"/>
+      <c r="A20" s="196"/>
       <c r="B20" s="3" t="s">
         <v>85</v>
       </c>
@@ -16239,7 +20048,7 @@
       <c r="L20" s="85"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="188"/>
+      <c r="A21" s="196"/>
       <c r="B21" s="3" t="s">
         <v>86</v>
       </c>
@@ -16282,7 +20091,7 @@
       <c r="L21" s="85"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="188">
+      <c r="A22" s="196">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -16327,7 +20136,7 @@
       <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="188"/>
+      <c r="A23" s="196"/>
       <c r="B23" s="3" t="s">
         <v>85</v>
       </c>
@@ -16370,7 +20179,7 @@
       <c r="L23" s="85"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="188"/>
+      <c r="A24" s="196"/>
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
@@ -16413,7 +20222,7 @@
       <c r="L24" s="85"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="188">
+      <c r="A25" s="196">
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -16458,7 +20267,7 @@
       <c r="L25" s="85"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="188"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="3" t="s">
         <v>85</v>
       </c>
@@ -16501,7 +20310,7 @@
       <c r="L26" s="85"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="191"/>
+      <c r="A27" s="198"/>
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
@@ -16559,28 +20368,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F7:F14"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="K17:K18"/>
     <mergeCell ref="H17:H18"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="J17:J18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F7:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16889,10 +20698,10 @@
       <c r="D2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="204" t="s">
+      <c r="E2" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="205"/>
+      <c r="F2" s="213"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -16909,7 +20718,7 @@
         <f>B3-C3</f>
         <v>10.413</v>
       </c>
-      <c r="E3" s="206">
+      <c r="E3" s="214">
         <f>D3-D4</f>
         <v>1.0130000000000017</v>
       </c>
@@ -16930,8 +20739,8 @@
         <f t="shared" ref="D4:D8" si="0">B4-C4</f>
         <v>9.3999999999999986</v>
       </c>
-      <c r="E4" s="206"/>
-      <c r="F4" s="207">
+      <c r="E4" s="214"/>
+      <c r="F4" s="215">
         <f>D4-D5</f>
         <v>0.74200000000000088</v>
       </c>
@@ -16951,11 +20760,11 @@
         <f t="shared" si="0"/>
         <v>8.6579999999999977</v>
       </c>
-      <c r="E5" s="206">
+      <c r="E5" s="214">
         <f t="shared" ref="E5:E7" si="1">D5-D6</f>
         <v>1.0999999999999979</v>
       </c>
-      <c r="F5" s="207"/>
+      <c r="F5" s="215"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -16972,8 +20781,8 @@
         <f t="shared" si="0"/>
         <v>7.5579999999999998</v>
       </c>
-      <c r="E6" s="206"/>
-      <c r="F6" s="207">
+      <c r="E6" s="214"/>
+      <c r="F6" s="215">
         <f>D6-D7</f>
         <v>1.3090000000000011</v>
       </c>
@@ -16993,11 +20802,11 @@
         <f t="shared" si="0"/>
         <v>6.2489999999999988</v>
       </c>
-      <c r="E7" s="206">
+      <c r="E7" s="214">
         <f t="shared" si="1"/>
         <v>1.4309999999999974</v>
       </c>
-      <c r="F7" s="207"/>
+      <c r="F7" s="215"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -17014,7 +20823,7 @@
         <f t="shared" si="0"/>
         <v>4.8180000000000014</v>
       </c>
-      <c r="E8" s="208"/>
+      <c r="E8" s="216"/>
       <c r="F8" s="51"/>
       <c r="G8" s="14"/>
     </row>
@@ -17220,7 +21029,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -17312,30 +21121,30 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86"/>
-      <c r="B6" s="209" t="s">
+      <c r="B6" s="217" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="190"/>
-      <c r="E6" s="190" t="s">
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
+      <c r="E6" s="208" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="190"/>
-      <c r="G6" s="194"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="210"/>
       <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86"/>
-      <c r="B7" s="210" t="s">
+      <c r="B7" s="218" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211" t="s">
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="211"/>
-      <c r="G7" s="212"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="220"/>
       <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -17520,76 +21329,76 @@
     </row>
     <row r="17" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
-      <c r="B17" s="213" t="s">
+      <c r="B17" s="221" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="213"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="213"/>
-      <c r="F17" s="213"/>
-      <c r="G17" s="213"/>
-      <c r="H17" s="213"/>
-      <c r="I17" s="213"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
       <c r="J17" s="85"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
-      <c r="B18" s="213"/>
-      <c r="C18" s="213"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="213"/>
-      <c r="F18" s="213"/>
-      <c r="G18" s="213"/>
-      <c r="H18" s="213"/>
-      <c r="I18" s="213"/>
+      <c r="B18" s="221"/>
+      <c r="C18" s="221"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="221"/>
+      <c r="H18" s="221"/>
+      <c r="I18" s="221"/>
       <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
-      <c r="B19" s="213"/>
-      <c r="C19" s="213"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="213"/>
-      <c r="F19" s="213"/>
-      <c r="G19" s="213"/>
-      <c r="H19" s="213"/>
-      <c r="I19" s="213"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="221"/>
+      <c r="D19" s="221"/>
+      <c r="E19" s="221"/>
+      <c r="F19" s="221"/>
+      <c r="G19" s="221"/>
+      <c r="H19" s="221"/>
+      <c r="I19" s="221"/>
       <c r="J19" s="85"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
-      <c r="B20" s="213"/>
-      <c r="C20" s="213"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="213"/>
-      <c r="F20" s="213"/>
-      <c r="G20" s="213"/>
-      <c r="H20" s="213"/>
-      <c r="I20" s="213"/>
+      <c r="B20" s="221"/>
+      <c r="C20" s="221"/>
+      <c r="D20" s="221"/>
+      <c r="E20" s="221"/>
+      <c r="F20" s="221"/>
+      <c r="G20" s="221"/>
+      <c r="H20" s="221"/>
+      <c r="I20" s="221"/>
       <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
-      <c r="B21" s="213"/>
-      <c r="C21" s="213"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
-      <c r="H21" s="213"/>
-      <c r="I21" s="213"/>
+      <c r="B21" s="221"/>
+      <c r="C21" s="221"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="221"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="221"/>
       <c r="J21" s="85"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
-      <c r="B22" s="213"/>
-      <c r="C22" s="213"/>
-      <c r="D22" s="213"/>
-      <c r="E22" s="213"/>
-      <c r="F22" s="213"/>
-      <c r="G22" s="213"/>
-      <c r="H22" s="213"/>
-      <c r="I22" s="213"/>
+      <c r="B22" s="221"/>
+      <c r="C22" s="221"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="221"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="221"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="221"/>
       <c r="J22" s="85"/>
     </row>
     <row r="23" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -18415,18 +22224,18 @@
     </row>
     <row r="19" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="86"/>
-      <c r="B19" s="214" t="s">
+      <c r="B19" s="222" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="216">
+      <c r="C19" s="223"/>
+      <c r="D19" s="223"/>
+      <c r="E19" s="223"/>
+      <c r="F19" s="224">
         <f>MAX(S3:AF5)</f>
         <v>0.39032</v>
       </c>
-      <c r="G19" s="216"/>
-      <c r="H19" s="217"/>
+      <c r="G19" s="224"/>
+      <c r="H19" s="225"/>
       <c r="Q19" s="85"/>
     </row>
     <row r="20" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -18435,18 +22244,18 @@
     </row>
     <row r="21" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="86"/>
-      <c r="B21" s="214" t="s">
+      <c r="B21" s="222" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="215"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="218">
+      <c r="C21" s="223"/>
+      <c r="D21" s="223"/>
+      <c r="E21" s="223"/>
+      <c r="F21" s="226">
         <f>F19/C3</f>
         <v>0.17440571939231456</v>
       </c>
-      <c r="G21" s="218"/>
-      <c r="H21" s="219"/>
+      <c r="G21" s="226"/>
+      <c r="H21" s="227"/>
       <c r="Q21" s="85"/>
     </row>
     <row r="22" spans="1:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">

--- a/物理实验/物理实验.xlsx
+++ b/物理实验/物理实验.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zhang\Documents\SHMTU-Automation-Resources\物理实验\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0971D1F9-2DBB-4795-BA32-A1CBB3860698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39A0657-86E3-4193-8177-EDDA2B9794BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{289B0313-6EC0-446F-8799-597BA1CF6533}"/>
   </bookViews>
@@ -26,6 +26,7 @@
     <sheet name="空气比热容比测定" sheetId="11" r:id="rId11"/>
     <sheet name="霍尔效应及其应用" sheetId="12" r:id="rId12"/>
     <sheet name="波尔共振实验" sheetId="13" r:id="rId13"/>
+    <sheet name="密里根油滴实验" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -70,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="263">
   <si>
     <t>l</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2992,12 +2993,44 @@
     <t>波尔共振实验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n取整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密里根油滴实验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="25">
+  <numFmts count="26">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
     <numFmt numFmtId="178" formatCode="0.0_ "/>
@@ -3023,6 +3056,7 @@
     <numFmt numFmtId="198" formatCode="0.00_ &quot;mv/mA*T&quot;"/>
     <numFmt numFmtId="199" formatCode="0_ &quot;mA&quot;"/>
     <numFmt numFmtId="200" formatCode="0.00000_ "/>
+    <numFmt numFmtId="201" formatCode="0.000_);[Red]\(0.000\)"/>
   </numFmts>
   <fonts count="22" x14ac:knownFonts="1">
     <font>
@@ -3755,7 +3789,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="258">
+  <cellXfs count="270">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4323,6 +4357,48 @@
     <xf numFmtId="199" fontId="0" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="200" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4350,9 +4426,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4365,33 +4468,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4440,6 +4516,12 @@
     <xf numFmtId="189" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4449,21 +4531,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="198" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4476,59 +4558,47 @@
     <xf numFmtId="198" fontId="0" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="200" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="201" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="201" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="201" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="201" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13593,10 +13663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B123489D-5DE1-4D8D-BE68-F86D0C1B8DF9}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" x14ac:dyDescent="0.25"/>
@@ -13611,7 +13681,7 @@
       <c r="A1" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="189" t="s">
+      <c r="C1" s="203" t="s">
         <v>110</v>
       </c>
       <c r="D1" s="110"/>
@@ -13623,7 +13693,7 @@
       <c r="A2" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="190"/>
+      <c r="C2" s="204"/>
       <c r="D2" s="112"/>
       <c r="E2" s="113" t="s">
         <v>119</v>
@@ -13633,7 +13703,7 @@
       <c r="A3" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="190"/>
+      <c r="C3" s="204"/>
       <c r="D3" s="114" t="s">
         <v>120</v>
       </c>
@@ -13645,7 +13715,7 @@
       <c r="A4" s="130" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="191"/>
+      <c r="C4" s="205"/>
       <c r="D4" s="115"/>
       <c r="E4" s="116" t="s">
         <v>121</v>
@@ -13700,6 +13770,11 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="130" t="s">
         <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="130" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -13721,6 +13796,7 @@
     <hyperlink ref="A11" location="空气比热容比测定!A1" display="空气比热容比测定" xr:uid="{8BC5EB63-2C8B-41A4-AFCC-9C4EB1767B1A}"/>
     <hyperlink ref="A12" location="霍尔效应及其应用!A1" display="霍尔效应及其应用" xr:uid="{99810F2B-10EC-4C42-8F73-9665E4437989}"/>
     <hyperlink ref="A13" location="波尔共振实验!A1" display="波尔共振实验" xr:uid="{AB43FCFB-CBFB-499D-89A8-D778F15DF15D}"/>
+    <hyperlink ref="A14" location="密里根油滴实验!A1" display="密里根油滴实验" xr:uid="{CDB30084-6F58-470B-94B6-1D7B64806978}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -13760,7 +13836,7 @@
     </row>
     <row r="2" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="86"/>
-      <c r="B2" s="233" t="s">
+      <c r="B2" s="242" t="s">
         <v>185</v>
       </c>
       <c r="C2" s="152">
@@ -13779,7 +13855,7 @@
     </row>
     <row r="3" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A3" s="86"/>
-      <c r="B3" s="231"/>
+      <c r="B3" s="243"/>
       <c r="C3" s="156" t="s">
         <v>183</v>
       </c>
@@ -13796,7 +13872,7 @@
     </row>
     <row r="4" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A4" s="86"/>
-      <c r="B4" s="231"/>
+      <c r="B4" s="243"/>
       <c r="C4" s="91" t="s">
         <v>182</v>
       </c>
@@ -14657,60 +14733,60 @@
     </row>
     <row r="46" spans="1:13" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A46" s="86"/>
-      <c r="B46" s="229" t="s">
+      <c r="B46" s="245" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="230"/>
-      <c r="D46" s="208" t="s">
+      <c r="C46" s="246"/>
+      <c r="D46" s="212" t="s">
         <v>179</v>
       </c>
-      <c r="E46" s="208"/>
-      <c r="F46" s="208"/>
-      <c r="G46" s="208"/>
-      <c r="H46" s="208" t="s">
+      <c r="E46" s="212"/>
+      <c r="F46" s="212"/>
+      <c r="G46" s="212"/>
+      <c r="H46" s="212" t="s">
         <v>177</v>
       </c>
-      <c r="I46" s="208"/>
-      <c r="J46" s="208"/>
-      <c r="K46" s="208" t="s">
+      <c r="I46" s="212"/>
+      <c r="J46" s="212"/>
+      <c r="K46" s="212" t="s">
         <v>178</v>
       </c>
-      <c r="L46" s="210"/>
+      <c r="L46" s="216"/>
       <c r="M46" s="85"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="86"/>
-      <c r="B47" s="231"/>
-      <c r="C47" s="232"/>
-      <c r="D47" s="209" t="s">
+      <c r="B47" s="243"/>
+      <c r="C47" s="247"/>
+      <c r="D47" s="215" t="s">
         <v>176</v>
       </c>
-      <c r="E47" s="209"/>
-      <c r="F47" s="209"/>
-      <c r="G47" s="209" t="s">
+      <c r="E47" s="215"/>
+      <c r="F47" s="215"/>
+      <c r="G47" s="215" t="s">
         <v>181</v>
       </c>
-      <c r="H47" s="209" t="s">
+      <c r="H47" s="215" t="s">
         <v>187</v>
       </c>
-      <c r="I47" s="209" t="s">
+      <c r="I47" s="215" t="s">
         <v>193</v>
       </c>
-      <c r="J47" s="209" t="s">
+      <c r="J47" s="215" t="s">
         <v>190</v>
       </c>
-      <c r="K47" s="209" t="s">
+      <c r="K47" s="215" t="s">
         <v>192</v>
       </c>
-      <c r="L47" s="211" t="s">
+      <c r="L47" s="217" t="s">
         <v>191</v>
       </c>
       <c r="M47" s="85"/>
     </row>
     <row r="48" spans="1:13" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A48" s="86"/>
-      <c r="B48" s="231"/>
-      <c r="C48" s="232"/>
+      <c r="B48" s="243"/>
+      <c r="C48" s="247"/>
       <c r="D48" s="91" t="s">
         <v>188</v>
       </c>
@@ -14720,17 +14796,17 @@
       <c r="F48" s="91" t="s">
         <v>180</v>
       </c>
-      <c r="G48" s="209"/>
-      <c r="H48" s="209"/>
-      <c r="I48" s="209"/>
-      <c r="J48" s="209"/>
-      <c r="K48" s="209"/>
-      <c r="L48" s="211"/>
+      <c r="G48" s="215"/>
+      <c r="H48" s="215"/>
+      <c r="I48" s="215"/>
+      <c r="J48" s="215"/>
+      <c r="K48" s="215"/>
+      <c r="L48" s="217"/>
       <c r="M48" s="85"/>
     </row>
     <row r="49" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="86"/>
-      <c r="B49" s="228" t="s">
+      <c r="B49" s="244" t="s">
         <v>186</v>
       </c>
       <c r="C49" s="148">
@@ -14777,7 +14853,7 @@
     </row>
     <row r="50" spans="1:13" ht="32.549999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="86"/>
-      <c r="B50" s="205"/>
+      <c r="B50" s="220"/>
       <c r="C50" s="150">
         <f>D2+F3</f>
         <v>312.60000000000002</v>
@@ -14837,11 +14913,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="D46:G46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H46:J46"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="B46:C48"/>
@@ -14850,6 +14921,11 @@
     <mergeCell ref="J47:J48"/>
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="L47:L48"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H46:J46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14935,7 +15011,7 @@
       <c r="B5" s="166">
         <v>1</v>
       </c>
-      <c r="C5" s="234">
+      <c r="C5" s="248">
         <v>1.0285</v>
       </c>
       <c r="D5" s="170">
@@ -14969,7 +15045,7 @@
       <c r="B6" s="166">
         <v>2</v>
       </c>
-      <c r="C6" s="234"/>
+      <c r="C6" s="248"/>
       <c r="D6" s="170">
         <v>120.7</v>
       </c>
@@ -15001,7 +15077,7 @@
       <c r="B7" s="166">
         <v>3</v>
       </c>
-      <c r="C7" s="234"/>
+      <c r="C7" s="248"/>
       <c r="D7" s="170">
         <v>123.3</v>
       </c>
@@ -15033,7 +15109,7 @@
       <c r="B8" s="166">
         <v>4</v>
       </c>
-      <c r="C8" s="234"/>
+      <c r="C8" s="248"/>
       <c r="D8" s="170">
         <v>112.2</v>
       </c>
@@ -15065,7 +15141,7 @@
       <c r="B9" s="166">
         <v>5</v>
       </c>
-      <c r="C9" s="234"/>
+      <c r="C9" s="248"/>
       <c r="D9" s="170">
         <v>123.4</v>
       </c>
@@ -15097,7 +15173,7 @@
       <c r="B10" s="168">
         <v>6</v>
       </c>
-      <c r="C10" s="235"/>
+      <c r="C10" s="249"/>
       <c r="D10" s="171">
         <v>108.4</v>
       </c>
@@ -15280,12 +15356,12 @@
     </row>
     <row r="5" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
-      <c r="B5" s="195" t="s">
+      <c r="B5" s="209" t="s">
         <v>231</v>
       </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
+      <c r="C5" s="209"/>
+      <c r="D5" s="209"/>
+      <c r="E5" s="209"/>
       <c r="F5" s="127" t="s">
         <v>229</v>
       </c>
@@ -15302,7 +15378,7 @@
     </row>
     <row r="6" spans="1:14" ht="16.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="240" t="s">
+      <c r="B6" s="250" t="s">
         <v>224</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -15317,7 +15393,7 @@
       <c r="F6" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="210" t="s">
+      <c r="G6" s="216" t="s">
         <v>225</v>
       </c>
       <c r="H6" s="11"/>
@@ -15330,7 +15406,7 @@
     </row>
     <row r="7" spans="1:14" ht="22.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="241"/>
+      <c r="B7" s="251"/>
       <c r="C7" s="184" t="s">
         <v>216</v>
       </c>
@@ -15343,7 +15419,7 @@
       <c r="F7" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="G7" s="211"/>
+      <c r="G7" s="217"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
@@ -15631,12 +15707,12 @@
     </row>
     <row r="18" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
-      <c r="B18" s="195" t="s">
+      <c r="B18" s="209" t="s">
         <v>232</v>
       </c>
-      <c r="C18" s="195"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="195"/>
+      <c r="C18" s="209"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
       <c r="F18" s="127" t="s">
         <v>230</v>
       </c>
@@ -15653,7 +15729,7 @@
     </row>
     <row r="19" spans="1:14" ht="16.8" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="240" t="s">
+      <c r="B19" s="250" t="s">
         <v>226</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -15668,7 +15744,7 @@
       <c r="F19" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="G19" s="210" t="s">
+      <c r="G19" s="216" t="s">
         <v>225</v>
       </c>
       <c r="H19" s="11"/>
@@ -15681,7 +15757,7 @@
     </row>
     <row r="20" spans="1:14" ht="16.2" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="241"/>
+      <c r="B20" s="251"/>
       <c r="C20" s="184" t="s">
         <v>216</v>
       </c>
@@ -15694,7 +15770,7 @@
       <c r="F20" s="184" t="s">
         <v>219</v>
       </c>
-      <c r="G20" s="211"/>
+      <c r="G20" s="217"/>
       <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
@@ -15985,10 +16061,10 @@
       <c r="B31" s="127" t="s">
         <v>227</v>
       </c>
-      <c r="C31" s="236">
+      <c r="C31" s="252">
         <v>170</v>
       </c>
-      <c r="D31" s="237"/>
+      <c r="D31" s="253"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -16026,11 +16102,11 @@
       <c r="C33" s="180" t="s">
         <v>234</v>
       </c>
-      <c r="D33" s="238">
+      <c r="D33" s="254">
         <f>SLOPE(G8:G16,B8:B16)*1000/2.25</f>
         <v>171.00000000000003</v>
       </c>
-      <c r="E33" s="239"/>
+      <c r="E33" s="255"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -16156,10 +16232,10 @@
     </row>
     <row r="40" spans="1:14" ht="17.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10"/>
-      <c r="B40" s="222" t="s">
+      <c r="B40" s="236" t="s">
         <v>236</v>
       </c>
-      <c r="C40" s="223"/>
+      <c r="C40" s="237"/>
       <c r="D40" s="126">
         <f>C38*1.5/(D38*1.5*0.2*0.001)</f>
         <v>6.6225165562913908</v>
@@ -16193,15 +16269,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="B6:B7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16247,455 +16323,455 @@
       <c r="C2" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="D2" s="242"/>
-      <c r="E2" s="242"/>
-      <c r="F2" s="242"/>
-      <c r="G2" s="242"/>
-      <c r="H2" s="242"/>
-      <c r="I2" s="242"/>
-      <c r="J2" s="242"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
       <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="243">
+      <c r="B3" s="189">
         <v>160</v>
       </c>
-      <c r="C3" s="244">
+      <c r="C3" s="190">
         <v>1.5619000000000001</v>
       </c>
-      <c r="D3" s="242"/>
-      <c r="E3" s="242"/>
-      <c r="F3" s="242"/>
-      <c r="G3" s="242"/>
-      <c r="H3" s="242"/>
-      <c r="I3" s="242"/>
-      <c r="J3" s="242"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
       <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="243">
+      <c r="B4" s="189">
         <v>159</v>
       </c>
-      <c r="C4" s="244">
+      <c r="C4" s="190">
         <v>1.5620000000000001</v>
       </c>
-      <c r="D4" s="242"/>
-      <c r="E4" s="242"/>
-      <c r="F4" s="242"/>
-      <c r="G4" s="242"/>
-      <c r="H4" s="242"/>
-      <c r="I4" s="242"/>
-      <c r="J4" s="242"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
       <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="243">
+      <c r="B5" s="189">
         <v>157</v>
       </c>
-      <c r="C5" s="244">
+      <c r="C5" s="190">
         <v>1.5621</v>
       </c>
-      <c r="D5" s="242"/>
-      <c r="E5" s="242"/>
-      <c r="F5" s="242"/>
-      <c r="G5" s="242"/>
-      <c r="H5" s="242"/>
-      <c r="I5" s="242"/>
-      <c r="J5" s="242"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="243">
+      <c r="B6" s="189">
         <v>156</v>
       </c>
-      <c r="C6" s="244">
+      <c r="C6" s="190">
         <v>1.5622</v>
       </c>
-      <c r="D6" s="242"/>
-      <c r="E6" s="242"/>
-      <c r="F6" s="242"/>
-      <c r="G6" s="242"/>
-      <c r="H6" s="242"/>
-      <c r="I6" s="242"/>
-      <c r="J6" s="242"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="243">
+      <c r="B7" s="189">
         <v>154</v>
       </c>
-      <c r="C7" s="244">
+      <c r="C7" s="190">
         <v>1.5623</v>
       </c>
-      <c r="D7" s="242"/>
-      <c r="E7" s="242"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="243">
+      <c r="B8" s="189">
         <v>153</v>
       </c>
-      <c r="C8" s="244">
+      <c r="C8" s="190">
         <v>1.5624</v>
       </c>
-      <c r="D8" s="242"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="242"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
       <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="243">
+      <c r="B9" s="189">
         <v>152</v>
       </c>
-      <c r="C9" s="244">
+      <c r="C9" s="190">
         <v>1.5625</v>
       </c>
-      <c r="D9" s="242"/>
-      <c r="E9" s="242"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="242"/>
-      <c r="H9" s="242"/>
-      <c r="I9" s="242"/>
-      <c r="J9" s="242"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
       <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="243">
+      <c r="B10" s="189">
         <v>150</v>
       </c>
-      <c r="C10" s="244">
+      <c r="C10" s="190">
         <v>1.5627</v>
       </c>
-      <c r="D10" s="242"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="242"/>
-      <c r="H10" s="242"/>
-      <c r="I10" s="242"/>
-      <c r="J10" s="242"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
       <c r="K10" s="14"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="243">
+      <c r="B11" s="189">
         <v>149</v>
       </c>
-      <c r="C11" s="244">
+      <c r="C11" s="190">
         <v>1.5628</v>
       </c>
-      <c r="D11" s="242"/>
-      <c r="E11" s="242"/>
-      <c r="F11" s="242"/>
-      <c r="G11" s="242"/>
-      <c r="H11" s="242"/>
-      <c r="I11" s="242"/>
-      <c r="J11" s="242"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
       <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
-      <c r="B12" s="243">
+      <c r="B12" s="189">
         <v>147</v>
       </c>
-      <c r="C12" s="244">
+      <c r="C12" s="190">
         <v>1.5629</v>
       </c>
-      <c r="D12" s="242"/>
-      <c r="E12" s="242"/>
-      <c r="F12" s="242"/>
-      <c r="G12" s="242"/>
-      <c r="H12" s="242"/>
-      <c r="I12" s="242"/>
-      <c r="J12" s="242"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
-      <c r="B13" s="243">
+      <c r="B13" s="189">
         <v>146</v>
       </c>
-      <c r="C13" s="244">
+      <c r="C13" s="190">
         <v>1.5629999999999999</v>
       </c>
-      <c r="D13" s="242"/>
-      <c r="E13" s="242"/>
-      <c r="F13" s="242"/>
-      <c r="G13" s="242"/>
-      <c r="H13" s="242"/>
-      <c r="I13" s="242"/>
-      <c r="J13" s="242"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="243">
+      <c r="B14" s="189">
         <v>145</v>
       </c>
-      <c r="C14" s="244">
+      <c r="C14" s="190">
         <v>1.5631999999999999</v>
       </c>
-      <c r="D14" s="242"/>
-      <c r="E14" s="242"/>
-      <c r="F14" s="242"/>
-      <c r="G14" s="242"/>
-      <c r="H14" s="242"/>
-      <c r="I14" s="242"/>
-      <c r="J14" s="242"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
       <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="243">
+      <c r="B15" s="189">
         <v>143</v>
       </c>
-      <c r="C15" s="244">
+      <c r="C15" s="190">
         <v>1.5632999999999999</v>
       </c>
-      <c r="D15" s="242"/>
-      <c r="E15" s="242"/>
-      <c r="F15" s="242"/>
-      <c r="G15" s="242"/>
-      <c r="H15" s="242"/>
-      <c r="I15" s="242"/>
-      <c r="J15" s="242"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="243">
+      <c r="B16" s="189">
         <v>142</v>
       </c>
-      <c r="C16" s="244">
+      <c r="C16" s="190">
         <v>1.5633999999999999</v>
       </c>
-      <c r="D16" s="242"/>
-      <c r="E16" s="242"/>
-      <c r="F16" s="242"/>
-      <c r="G16" s="242"/>
-      <c r="H16" s="242"/>
-      <c r="I16" s="242"/>
-      <c r="J16" s="242"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
       <c r="K16" s="14"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="243">
+      <c r="B17" s="189">
         <v>141</v>
       </c>
-      <c r="C17" s="244">
+      <c r="C17" s="190">
         <v>1.5634999999999999</v>
       </c>
-      <c r="D17" s="242"/>
-      <c r="E17" s="242"/>
-      <c r="F17" s="242"/>
-      <c r="G17" s="242"/>
-      <c r="H17" s="242"/>
-      <c r="I17" s="242"/>
-      <c r="J17" s="242"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
       <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="243">
+      <c r="B18" s="189">
         <v>139</v>
       </c>
-      <c r="C18" s="244">
+      <c r="C18" s="190">
         <v>1.5636000000000001</v>
       </c>
-      <c r="D18" s="242"/>
-      <c r="E18" s="242"/>
-      <c r="F18" s="242"/>
-      <c r="G18" s="242"/>
-      <c r="H18" s="242"/>
-      <c r="I18" s="242"/>
-      <c r="J18" s="242"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
       <c r="K18" s="14"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="243">
+      <c r="B19" s="189">
         <v>138</v>
       </c>
-      <c r="C19" s="244">
+      <c r="C19" s="190">
         <v>1.5638000000000001</v>
       </c>
-      <c r="D19" s="242"/>
-      <c r="E19" s="242"/>
-      <c r="F19" s="242"/>
-      <c r="G19" s="242"/>
-      <c r="H19" s="242"/>
-      <c r="I19" s="242"/>
-      <c r="J19" s="242"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
       <c r="K19" s="14"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="243">
+      <c r="B20" s="189">
         <v>137</v>
       </c>
-      <c r="C20" s="244">
+      <c r="C20" s="190">
         <v>1.5639000000000001</v>
       </c>
-      <c r="D20" s="242"/>
-      <c r="E20" s="242"/>
-      <c r="F20" s="242"/>
-      <c r="G20" s="242"/>
-      <c r="H20" s="242"/>
-      <c r="I20" s="242"/>
-      <c r="J20" s="242"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
       <c r="K20" s="14"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
-      <c r="B21" s="243">
+      <c r="B21" s="189">
         <v>135</v>
       </c>
-      <c r="C21" s="244">
+      <c r="C21" s="190">
         <v>1.5640000000000001</v>
       </c>
-      <c r="D21" s="242"/>
-      <c r="E21" s="242"/>
-      <c r="F21" s="242"/>
-      <c r="G21" s="242"/>
-      <c r="H21" s="242"/>
-      <c r="I21" s="242"/>
-      <c r="J21" s="242"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
       <c r="K21" s="14"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
-      <c r="B22" s="243">
+      <c r="B22" s="189">
         <v>134</v>
       </c>
-      <c r="C22" s="244">
+      <c r="C22" s="190">
         <v>1.5642</v>
       </c>
-      <c r="D22" s="242"/>
-      <c r="E22" s="242"/>
-      <c r="F22" s="242"/>
-      <c r="G22" s="242"/>
-      <c r="H22" s="242"/>
-      <c r="I22" s="242"/>
-      <c r="J22" s="242"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
       <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="243">
+      <c r="B23" s="189">
         <v>131</v>
       </c>
-      <c r="C23" s="244">
+      <c r="C23" s="190">
         <v>1.5644</v>
       </c>
-      <c r="D23" s="242"/>
-      <c r="E23" s="242"/>
-      <c r="F23" s="242"/>
-      <c r="G23" s="242"/>
-      <c r="H23" s="242"/>
-      <c r="I23" s="242"/>
-      <c r="J23" s="242"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
       <c r="K23" s="14"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="243">
+      <c r="B24" s="189">
         <v>130</v>
       </c>
-      <c r="C24" s="244">
+      <c r="C24" s="190">
         <v>1.5646</v>
       </c>
-      <c r="D24" s="242"/>
-      <c r="E24" s="242"/>
-      <c r="F24" s="242"/>
-      <c r="G24" s="242"/>
-      <c r="H24" s="242"/>
-      <c r="I24" s="242"/>
-      <c r="J24" s="242"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
       <c r="K24" s="14"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="B25" s="243">
+      <c r="B25" s="189">
         <v>129</v>
       </c>
-      <c r="C25" s="244">
+      <c r="C25" s="190">
         <v>1.5646</v>
       </c>
-      <c r="D25" s="242"/>
-      <c r="E25" s="242"/>
-      <c r="F25" s="242"/>
-      <c r="G25" s="242"/>
-      <c r="H25" s="242"/>
-      <c r="I25" s="242"/>
-      <c r="J25" s="242"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="14"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="243">
+      <c r="B26" s="189">
         <v>128</v>
       </c>
-      <c r="C26" s="244">
+      <c r="C26" s="190">
         <v>1.5646</v>
       </c>
-      <c r="D26" s="242"/>
-      <c r="E26" s="242"/>
-      <c r="F26" s="242"/>
-      <c r="G26" s="242"/>
-      <c r="H26" s="242"/>
-      <c r="I26" s="242"/>
-      <c r="J26" s="242"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
       <c r="K26" s="14"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
-      <c r="B27" s="243">
+      <c r="B27" s="189">
         <v>126</v>
       </c>
-      <c r="C27" s="244">
+      <c r="C27" s="190">
         <v>1.5649</v>
       </c>
-      <c r="D27" s="242"/>
-      <c r="E27" s="242"/>
-      <c r="F27" s="242"/>
-      <c r="G27" s="242"/>
-      <c r="H27" s="242"/>
-      <c r="I27" s="242"/>
-      <c r="J27" s="242"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="14"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="243">
+      <c r="B28" s="189">
         <v>125</v>
       </c>
-      <c r="C28" s="244">
+      <c r="C28" s="190">
         <v>1.5649999999999999</v>
       </c>
-      <c r="D28" s="242"/>
-      <c r="E28" s="242"/>
-      <c r="F28" s="242"/>
-      <c r="G28" s="242"/>
-      <c r="H28" s="242"/>
-      <c r="I28" s="242"/>
-      <c r="J28" s="242"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
       <c r="K28" s="14"/>
     </row>
     <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -16703,46 +16779,46 @@
       <c r="B29" s="181">
         <v>124</v>
       </c>
-      <c r="C29" s="245">
+      <c r="C29" s="191">
         <v>1.5650999999999999</v>
       </c>
-      <c r="D29" s="242"/>
-      <c r="E29" s="242"/>
-      <c r="F29" s="242"/>
-      <c r="G29" s="242"/>
-      <c r="H29" s="242"/>
-      <c r="I29" s="242"/>
-      <c r="J29" s="242"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
       <c r="K29" s="14"/>
     </row>
     <row r="30" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
-      <c r="B30" s="242"/>
-      <c r="C30" s="242"/>
-      <c r="D30" s="242"/>
-      <c r="E30" s="242"/>
-      <c r="F30" s="242"/>
-      <c r="G30" s="242"/>
-      <c r="H30" s="242"/>
-      <c r="I30" s="242"/>
-      <c r="J30" s="242"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
       <c r="K30" s="14"/>
     </row>
     <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="10"/>
-      <c r="B31" s="246" t="s">
+      <c r="B31" s="209" t="s">
         <v>243</v>
       </c>
-      <c r="C31" s="246"/>
-      <c r="D31" s="246"/>
-      <c r="E31" s="246"/>
-      <c r="F31" s="242" t="s">
+      <c r="C31" s="209"/>
+      <c r="D31" s="209"/>
+      <c r="E31" s="209"/>
+      <c r="F31" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="G31" s="242"/>
-      <c r="H31" s="242"/>
-      <c r="I31" s="242"/>
-      <c r="J31" s="242"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
       <c r="K31" s="14"/>
     </row>
     <row r="32" spans="1:11" ht="16.8" thickTop="1" x14ac:dyDescent="0.25">
@@ -16762,10 +16838,10 @@
       <c r="F32" s="44" t="s">
         <v>241</v>
       </c>
-      <c r="G32" s="242"/>
-      <c r="H32" s="242"/>
-      <c r="I32" s="242"/>
-      <c r="J32" s="242"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
       <c r="K32" s="14"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -16782,14 +16858,14 @@
       <c r="E33" s="135">
         <v>72</v>
       </c>
-      <c r="F33" s="247">
+      <c r="F33" s="192">
         <f>LN((C33/E33))</f>
         <v>0.54361544658898164</v>
       </c>
-      <c r="G33" s="242"/>
-      <c r="H33" s="242"/>
-      <c r="I33" s="242"/>
-      <c r="J33" s="242"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
       <c r="K33" s="14"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -16806,14 +16882,14 @@
       <c r="E34" s="135">
         <v>64</v>
       </c>
-      <c r="F34" s="247">
+      <c r="F34" s="192">
         <f t="shared" ref="F34:F37" si="0">LN((C34/E34))</f>
         <v>0.5506471179526623</v>
       </c>
-      <c r="G34" s="242"/>
-      <c r="H34" s="242"/>
-      <c r="I34" s="242"/>
-      <c r="J34" s="242"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
       <c r="K34" s="14"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -16830,14 +16906,14 @@
       <c r="E35" s="135">
         <v>58</v>
       </c>
-      <c r="F35" s="247">
+      <c r="F35" s="192">
         <f t="shared" si="0"/>
         <v>0.54472717544167193</v>
       </c>
-      <c r="G35" s="242"/>
-      <c r="H35" s="242"/>
-      <c r="I35" s="242"/>
-      <c r="J35" s="242"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
       <c r="K35" s="14"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -16854,14 +16930,14 @@
       <c r="E36" s="135">
         <v>51</v>
       </c>
-      <c r="F36" s="247">
+      <c r="F36" s="192">
         <f t="shared" si="0"/>
         <v>0.5679840376059393</v>
       </c>
-      <c r="G36" s="242"/>
-      <c r="H36" s="242"/>
-      <c r="I36" s="242"/>
-      <c r="J36" s="242"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
       <c r="K36" s="14"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -16878,85 +16954,85 @@
       <c r="E37" s="135">
         <v>46</v>
       </c>
-      <c r="F37" s="247">
+      <c r="F37" s="192">
         <f t="shared" si="0"/>
         <v>0.56580775818334383</v>
       </c>
-      <c r="G37" s="242"/>
-      <c r="H37" s="242"/>
-      <c r="I37" s="242"/>
-      <c r="J37" s="242"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
       <c r="K37" s="14"/>
     </row>
     <row r="38" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="10"/>
-      <c r="B38" s="205" t="s">
+      <c r="B38" s="220" t="s">
         <v>242</v>
       </c>
-      <c r="C38" s="206"/>
-      <c r="D38" s="206"/>
-      <c r="E38" s="206"/>
-      <c r="F38" s="248">
+      <c r="C38" s="221"/>
+      <c r="D38" s="221"/>
+      <c r="E38" s="221"/>
+      <c r="F38" s="193">
         <f>AVERAGE(F33:F37)</f>
         <v>0.55455630715451976</v>
       </c>
-      <c r="G38" s="242"/>
-      <c r="H38" s="242"/>
-      <c r="I38" s="242"/>
-      <c r="J38" s="242"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
       <c r="K38" s="14"/>
     </row>
     <row r="39" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
-      <c r="B39" s="242" t="s">
+      <c r="B39" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="C39" s="249">
+      <c r="C39" s="194">
         <v>15.689399999999999</v>
       </c>
-      <c r="D39" s="242" t="s">
+      <c r="D39" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E39" s="250">
+      <c r="E39" s="195">
         <f>C39/10</f>
         <v>1.56894</v>
       </c>
-      <c r="F39" s="242"/>
-      <c r="G39" s="242"/>
-      <c r="H39" s="242"/>
-      <c r="I39" s="242"/>
-      <c r="J39" s="242"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
       <c r="K39" s="14"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
-      <c r="B40" s="251" t="s">
+      <c r="B40" s="196" t="s">
         <v>245</v>
       </c>
-      <c r="C40" s="252">
+      <c r="C40" s="197">
         <f>F38/(5*E39)</f>
         <v>7.0691843812321672E-2</v>
       </c>
-      <c r="D40" s="242"/>
-      <c r="E40" s="242"/>
-      <c r="F40" s="242"/>
-      <c r="G40" s="242"/>
-      <c r="H40" s="242"/>
-      <c r="I40" s="242"/>
-      <c r="J40" s="242"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
       <c r="K40" s="14"/>
     </row>
     <row r="41" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="10"/>
-      <c r="B41" s="242"/>
-      <c r="C41" s="242"/>
-      <c r="D41" s="242"/>
-      <c r="E41" s="242"/>
-      <c r="F41" s="242"/>
-      <c r="G41" s="242"/>
-      <c r="H41" s="242"/>
-      <c r="I41" s="242"/>
-      <c r="J41" s="242"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
       <c r="K41" s="14"/>
     </row>
     <row r="42" spans="1:11" ht="31.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -16976,12 +17052,12 @@
       <c r="F42" s="43" t="s">
         <v>252</v>
       </c>
-      <c r="G42" s="253" t="s">
+      <c r="G42" s="198" t="s">
         <v>253</v>
       </c>
-      <c r="H42" s="242"/>
-      <c r="I42" s="242"/>
-      <c r="J42" s="242"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
       <c r="K42" s="14"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -16989,7 +17065,7 @@
       <c r="B43" s="132">
         <v>300</v>
       </c>
-      <c r="C43" s="254">
+      <c r="C43" s="199">
         <v>1.6536999999999999</v>
       </c>
       <c r="D43" s="135">
@@ -16998,17 +17074,17 @@
       <c r="E43" s="135">
         <v>48</v>
       </c>
-      <c r="F43" s="255">
+      <c r="F43" s="200">
         <f>SLOPE($C$3:$C$29,$B$3:$B$29)*E43+INTERCEPT($C$3:$C$29,$B$3:$B$29)</f>
         <v>1.5718714144638632</v>
       </c>
-      <c r="G43" s="247">
+      <c r="G43" s="192">
         <f>F43/C43</f>
         <v>0.95051787776734797</v>
       </c>
-      <c r="H43" s="242"/>
-      <c r="I43" s="242"/>
-      <c r="J43" s="242"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
       <c r="K43" s="14"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
@@ -17016,7 +17092,7 @@
       <c r="B44" s="132">
         <v>240</v>
       </c>
-      <c r="C44" s="254">
+      <c r="C44" s="199">
         <v>1.6427</v>
       </c>
       <c r="D44" s="135">
@@ -17025,17 +17101,17 @@
       <c r="E44" s="135">
         <v>49</v>
       </c>
-      <c r="F44" s="255">
+      <c r="F44" s="200">
         <f t="shared" ref="F44:F59" si="1">SLOPE($C$3:$C$29,$B$3:$B$29)*E44+INTERCEPT($C$3:$C$29,$B$3:$B$29)</f>
         <v>1.5717815848701282</v>
       </c>
-      <c r="G44" s="247">
+      <c r="G44" s="192">
         <f t="shared" ref="G44:G59" si="2">F44/C44</f>
         <v>0.9568281395690803</v>
       </c>
-      <c r="H44" s="242"/>
-      <c r="I44" s="242"/>
-      <c r="J44" s="242"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
       <c r="K44" s="14"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
@@ -17043,7 +17119,7 @@
       <c r="B45" s="132">
         <v>180</v>
       </c>
-      <c r="C45" s="254">
+      <c r="C45" s="199">
         <v>1.619</v>
       </c>
       <c r="D45" s="135">
@@ -17052,17 +17128,17 @@
       <c r="E45" s="135">
         <v>67</v>
       </c>
-      <c r="F45" s="255">
+      <c r="F45" s="200">
         <f t="shared" si="1"/>
         <v>1.5701646521828996</v>
       </c>
-      <c r="G45" s="247">
+      <c r="G45" s="192">
         <f t="shared" si="2"/>
         <v>0.96983610388072861</v>
       </c>
-      <c r="H45" s="242"/>
-      <c r="I45" s="242"/>
-      <c r="J45" s="242"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
       <c r="K45" s="14"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -17070,7 +17146,7 @@
       <c r="B46" s="132">
         <v>120</v>
       </c>
-      <c r="C46" s="254">
+      <c r="C46" s="199">
         <v>1.601</v>
       </c>
       <c r="D46" s="135">
@@ -17079,17 +17155,17 @@
       <c r="E46" s="135">
         <v>82</v>
       </c>
-      <c r="F46" s="255">
+      <c r="F46" s="200">
         <f t="shared" si="1"/>
         <v>1.5688172082768757</v>
       </c>
-      <c r="G46" s="247">
+      <c r="G46" s="192">
         <f t="shared" si="2"/>
         <v>0.97989831872384492</v>
       </c>
-      <c r="H46" s="242"/>
-      <c r="I46" s="242"/>
-      <c r="J46" s="242"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
       <c r="K46" s="14"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
@@ -17097,7 +17173,7 @@
       <c r="B47" s="132">
         <v>60</v>
       </c>
-      <c r="C47" s="254">
+      <c r="C47" s="199">
         <v>1.5842000000000001</v>
       </c>
       <c r="D47" s="135">
@@ -17106,17 +17182,17 @@
       <c r="E47" s="135">
         <v>102</v>
       </c>
-      <c r="F47" s="255">
+      <c r="F47" s="200">
         <f t="shared" si="1"/>
         <v>1.5670206164021772</v>
       </c>
-      <c r="G47" s="247">
+      <c r="G47" s="192">
         <f t="shared" si="2"/>
         <v>0.98915579876415671</v>
       </c>
-      <c r="H47" s="242"/>
-      <c r="I47" s="242"/>
-      <c r="J47" s="242"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
       <c r="K47" s="14"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -17124,7 +17200,7 @@
       <c r="B48" s="132">
         <v>30</v>
       </c>
-      <c r="C48" s="254">
+      <c r="C48" s="199">
         <v>1.5755999999999999</v>
       </c>
       <c r="D48" s="135">
@@ -17133,17 +17209,17 @@
       <c r="E48" s="135">
         <v>121</v>
       </c>
-      <c r="F48" s="255">
+      <c r="F48" s="200">
         <f t="shared" si="1"/>
         <v>1.5653138541212135</v>
       </c>
-      <c r="G48" s="247">
+      <c r="G48" s="192">
         <f t="shared" si="2"/>
         <v>0.9934716007369977</v>
       </c>
-      <c r="H48" s="242"/>
-      <c r="I48" s="242"/>
-      <c r="J48" s="242"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
       <c r="K48" s="14"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -17151,7 +17227,7 @@
       <c r="B49" s="132">
         <v>20</v>
       </c>
-      <c r="C49" s="254">
+      <c r="C49" s="199">
         <v>1.5727</v>
       </c>
       <c r="D49" s="135">
@@ -17160,17 +17236,17 @@
       <c r="E49" s="135">
         <v>127</v>
       </c>
-      <c r="F49" s="255">
+      <c r="F49" s="200">
         <f t="shared" si="1"/>
         <v>1.5647748765588039</v>
       </c>
-      <c r="G49" s="247">
+      <c r="G49" s="192">
         <f t="shared" si="2"/>
         <v>0.99496081678565773</v>
       </c>
-      <c r="H49" s="242"/>
-      <c r="I49" s="242"/>
-      <c r="J49" s="242"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
       <c r="K49" s="14"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -17178,7 +17254,7 @@
       <c r="B50" s="132">
         <v>10</v>
       </c>
-      <c r="C50" s="254">
+      <c r="C50" s="199">
         <v>1.5698000000000001</v>
       </c>
       <c r="D50" s="135">
@@ -17187,17 +17263,17 @@
       <c r="E50" s="135">
         <v>130</v>
       </c>
-      <c r="F50" s="255">
+      <c r="F50" s="200">
         <f t="shared" si="1"/>
         <v>1.5645053877775992</v>
       </c>
-      <c r="G50" s="247">
+      <c r="G50" s="192">
         <f t="shared" si="2"/>
         <v>0.99662720587183018</v>
       </c>
-      <c r="H50" s="242"/>
-      <c r="I50" s="242"/>
-      <c r="J50" s="242"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
       <c r="K50" s="14"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -17205,7 +17281,7 @@
       <c r="B51" s="132">
         <v>5</v>
       </c>
-      <c r="C51" s="254">
+      <c r="C51" s="199">
         <v>1.5680000000000001</v>
       </c>
       <c r="D51" s="135">
@@ -17214,17 +17290,17 @@
       <c r="E51" s="135">
         <v>132</v>
       </c>
-      <c r="F51" s="255">
+      <c r="F51" s="200">
         <f t="shared" si="1"/>
         <v>1.5643257285901293</v>
       </c>
-      <c r="G51" s="247">
+      <c r="G51" s="192">
         <f t="shared" si="2"/>
         <v>0.99765671466207217</v>
       </c>
-      <c r="H51" s="242"/>
-      <c r="I51" s="242"/>
-      <c r="J51" s="242"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
       <c r="K51" s="14"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -17232,7 +17308,7 @@
       <c r="B52" s="132">
         <v>0</v>
       </c>
-      <c r="C52" s="254">
+      <c r="C52" s="199">
         <v>1.5669</v>
       </c>
       <c r="D52" s="135">
@@ -17241,17 +17317,17 @@
       <c r="E52" s="135">
         <v>133</v>
       </c>
-      <c r="F52" s="255">
+      <c r="F52" s="200">
         <f t="shared" si="1"/>
         <v>1.5642358989963943</v>
       </c>
-      <c r="G52" s="247">
+      <c r="G52" s="192">
         <f t="shared" si="2"/>
         <v>0.99829976322445224</v>
       </c>
-      <c r="H52" s="242"/>
-      <c r="I52" s="242"/>
-      <c r="J52" s="242"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
       <c r="K52" s="14"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
@@ -17259,7 +17335,7 @@
       <c r="B53" s="132">
         <v>-5</v>
       </c>
-      <c r="C53" s="254">
+      <c r="C53" s="199">
         <v>1.5651999999999999</v>
       </c>
       <c r="D53" s="135">
@@ -17268,17 +17344,17 @@
       <c r="E53" s="135">
         <v>134</v>
       </c>
-      <c r="F53" s="255">
+      <c r="F53" s="200">
         <f t="shared" si="1"/>
         <v>1.5641460694026594</v>
       </c>
-      <c r="G53" s="247">
+      <c r="G53" s="192">
         <f t="shared" si="2"/>
         <v>0.99932664797000992</v>
       </c>
-      <c r="H53" s="242"/>
-      <c r="I53" s="242"/>
-      <c r="J53" s="242"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
       <c r="K53" s="14"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
@@ -17286,7 +17362,7 @@
       <c r="B54" s="132">
         <v>-10</v>
       </c>
-      <c r="C54" s="254">
+      <c r="C54" s="199">
         <v>1.5640000000000001</v>
       </c>
       <c r="D54" s="135">
@@ -17295,17 +17371,17 @@
       <c r="E54" s="135">
         <v>134</v>
       </c>
-      <c r="F54" s="255">
+      <c r="F54" s="200">
         <f t="shared" si="1"/>
         <v>1.5641460694026594</v>
       </c>
-      <c r="G54" s="247">
+      <c r="G54" s="192">
         <f t="shared" si="2"/>
         <v>1.0000933947587336</v>
       </c>
-      <c r="H54" s="242"/>
-      <c r="I54" s="242"/>
-      <c r="J54" s="242"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
       <c r="K54" s="14"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -17313,7 +17389,7 @@
       <c r="B55" s="132">
         <v>-20</v>
       </c>
-      <c r="C55" s="254">
+      <c r="C55" s="199">
         <v>1.5610999999999999</v>
       </c>
       <c r="D55" s="135">
@@ -17322,17 +17398,17 @@
       <c r="E55" s="135">
         <v>132</v>
       </c>
-      <c r="F55" s="255">
+      <c r="F55" s="200">
         <f t="shared" si="1"/>
         <v>1.5643257285901293</v>
       </c>
-      <c r="G55" s="247">
+      <c r="G55" s="192">
         <f t="shared" si="2"/>
         <v>1.0020663177183584</v>
       </c>
-      <c r="H55" s="242"/>
-      <c r="I55" s="242"/>
-      <c r="J55" s="242"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
       <c r="K55" s="14"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -17340,7 +17416,7 @@
       <c r="B56" s="132">
         <v>-30</v>
       </c>
-      <c r="C56" s="254">
+      <c r="C56" s="199">
         <v>1.5582</v>
       </c>
       <c r="D56" s="135">
@@ -17349,17 +17425,17 @@
       <c r="E56" s="135">
         <v>123</v>
       </c>
-      <c r="F56" s="255">
+      <c r="F56" s="200">
         <f t="shared" si="1"/>
         <v>1.5651341949337436</v>
       </c>
-      <c r="G56" s="247">
+      <c r="G56" s="192">
         <f t="shared" si="2"/>
         <v>1.0044501315195378</v>
       </c>
-      <c r="H56" s="242"/>
-      <c r="I56" s="242"/>
-      <c r="J56" s="242"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
       <c r="K56" s="14"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -17367,7 +17443,7 @@
       <c r="B57" s="132">
         <v>-60</v>
       </c>
-      <c r="C57" s="254">
+      <c r="C57" s="199">
         <v>1.5501</v>
       </c>
       <c r="D57" s="135">
@@ -17376,17 +17452,17 @@
       <c r="E57" s="135">
         <v>121</v>
       </c>
-      <c r="F57" s="255">
+      <c r="F57" s="200">
         <f t="shared" si="1"/>
         <v>1.5653138541212135</v>
       </c>
-      <c r="G57" s="247">
+      <c r="G57" s="192">
         <f t="shared" si="2"/>
         <v>1.0098147565455218</v>
       </c>
-      <c r="H57" s="242"/>
-      <c r="I57" s="242"/>
-      <c r="J57" s="242"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
       <c r="K57" s="14"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -17394,7 +17470,7 @@
       <c r="B58" s="132">
         <v>-120</v>
       </c>
-      <c r="C58" s="254">
+      <c r="C58" s="199">
         <v>1.5322</v>
       </c>
       <c r="D58" s="135">
@@ -17403,17 +17479,17 @@
       <c r="E58" s="135">
         <v>90</v>
       </c>
-      <c r="F58" s="255">
+      <c r="F58" s="200">
         <f t="shared" si="1"/>
         <v>1.5680985715269962</v>
       </c>
-      <c r="G58" s="247">
+      <c r="G58" s="192">
         <f t="shared" si="2"/>
         <v>1.0234294292696751</v>
       </c>
-      <c r="H58" s="242"/>
-      <c r="I58" s="242"/>
-      <c r="J58" s="242"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
       <c r="K58" s="14"/>
     </row>
     <row r="59" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -17421,7 +17497,7 @@
       <c r="B59" s="117">
         <v>-180</v>
       </c>
-      <c r="C59" s="256">
+      <c r="C59" s="201">
         <v>1.5147999999999999</v>
       </c>
       <c r="D59" s="137">
@@ -17430,238 +17506,238 @@
       <c r="E59" s="137">
         <v>53</v>
       </c>
-      <c r="F59" s="257">
+      <c r="F59" s="202">
         <f t="shared" si="1"/>
         <v>1.5714222664951885</v>
       </c>
-      <c r="G59" s="248">
+      <c r="G59" s="193">
         <f t="shared" si="2"/>
         <v>1.0373793679001773</v>
       </c>
-      <c r="H59" s="242"/>
-      <c r="I59" s="242"/>
-      <c r="J59" s="242"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
       <c r="K59" s="14"/>
     </row>
     <row r="60" spans="1:11" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
-      <c r="B60" s="242"/>
-      <c r="C60" s="242"/>
-      <c r="D60" s="242"/>
-      <c r="E60" s="242"/>
-      <c r="F60" s="242"/>
-      <c r="G60" s="242"/>
-      <c r="H60" s="242"/>
-      <c r="I60" s="242"/>
-      <c r="J60" s="242"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
       <c r="K60" s="14"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
-      <c r="B61" s="242"/>
-      <c r="C61" s="242"/>
-      <c r="D61" s="242"/>
-      <c r="E61" s="242"/>
-      <c r="F61" s="242"/>
-      <c r="G61" s="242"/>
-      <c r="H61" s="242"/>
-      <c r="I61" s="242"/>
-      <c r="J61" s="242"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="11"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="11"/>
       <c r="K61" s="14"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
-      <c r="B62" s="242"/>
-      <c r="C62" s="242"/>
-      <c r="D62" s="242"/>
-      <c r="E62" s="242"/>
-      <c r="F62" s="242"/>
-      <c r="G62" s="242"/>
-      <c r="H62" s="242"/>
-      <c r="I62" s="242"/>
-      <c r="J62" s="242"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
       <c r="K62" s="14"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
-      <c r="B63" s="242"/>
-      <c r="C63" s="242"/>
-      <c r="D63" s="242"/>
-      <c r="E63" s="242"/>
-      <c r="F63" s="242"/>
-      <c r="G63" s="242"/>
-      <c r="H63" s="242"/>
-      <c r="I63" s="242"/>
-      <c r="J63" s="242"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
       <c r="K63" s="14"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
-      <c r="B64" s="242"/>
-      <c r="C64" s="242"/>
-      <c r="D64" s="242"/>
-      <c r="E64" s="242"/>
-      <c r="F64" s="242"/>
-      <c r="G64" s="242"/>
-      <c r="H64" s="242"/>
-      <c r="I64" s="242"/>
-      <c r="J64" s="242"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
       <c r="K64" s="14"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
-      <c r="B65" s="242"/>
-      <c r="C65" s="242"/>
-      <c r="D65" s="242"/>
-      <c r="E65" s="242"/>
-      <c r="F65" s="242"/>
-      <c r="G65" s="242"/>
-      <c r="H65" s="242"/>
-      <c r="I65" s="242"/>
-      <c r="J65" s="242"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
       <c r="K65" s="14"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
-      <c r="B66" s="242"/>
-      <c r="C66" s="242"/>
-      <c r="D66" s="242"/>
-      <c r="E66" s="242"/>
-      <c r="F66" s="242"/>
-      <c r="G66" s="242"/>
-      <c r="H66" s="242"/>
-      <c r="I66" s="242"/>
-      <c r="J66" s="242"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
       <c r="K66" s="14"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="10"/>
-      <c r="B67" s="242"/>
-      <c r="C67" s="242"/>
-      <c r="D67" s="242"/>
-      <c r="E67" s="242"/>
-      <c r="F67" s="242"/>
-      <c r="G67" s="242"/>
-      <c r="H67" s="242"/>
-      <c r="I67" s="242"/>
-      <c r="J67" s="242"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
       <c r="K67" s="14"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="10"/>
-      <c r="B68" s="242"/>
-      <c r="C68" s="242"/>
-      <c r="D68" s="242"/>
-      <c r="E68" s="242"/>
-      <c r="F68" s="242"/>
-      <c r="G68" s="242"/>
-      <c r="H68" s="242"/>
-      <c r="I68" s="242"/>
-      <c r="J68" s="242"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
       <c r="K68" s="14"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
-      <c r="B69" s="242"/>
-      <c r="C69" s="242"/>
-      <c r="D69" s="242"/>
-      <c r="E69" s="242"/>
-      <c r="F69" s="242"/>
-      <c r="G69" s="242"/>
-      <c r="H69" s="242"/>
-      <c r="I69" s="242"/>
-      <c r="J69" s="242"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
       <c r="K69" s="14"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="10"/>
-      <c r="B70" s="242"/>
-      <c r="C70" s="242"/>
-      <c r="D70" s="242"/>
-      <c r="E70" s="242"/>
-      <c r="F70" s="242"/>
-      <c r="G70" s="242"/>
-      <c r="H70" s="242"/>
-      <c r="I70" s="242"/>
-      <c r="J70" s="242"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
       <c r="K70" s="14"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
-      <c r="B71" s="242"/>
-      <c r="C71" s="242"/>
-      <c r="D71" s="242"/>
-      <c r="E71" s="242"/>
-      <c r="F71" s="242"/>
-      <c r="G71" s="242"/>
-      <c r="H71" s="242"/>
-      <c r="I71" s="242"/>
-      <c r="J71" s="242"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
       <c r="K71" s="14"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
-      <c r="B72" s="242"/>
-      <c r="C72" s="242"/>
-      <c r="D72" s="242"/>
-      <c r="E72" s="242"/>
-      <c r="F72" s="242"/>
-      <c r="G72" s="242"/>
-      <c r="H72" s="242"/>
-      <c r="I72" s="242"/>
-      <c r="J72" s="242"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
       <c r="K72" s="14"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
-      <c r="B73" s="242"/>
-      <c r="C73" s="242"/>
-      <c r="D73" s="242"/>
-      <c r="E73" s="242"/>
-      <c r="F73" s="242"/>
-      <c r="G73" s="242"/>
-      <c r="H73" s="242"/>
-      <c r="I73" s="242"/>
-      <c r="J73" s="242"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
       <c r="K73" s="14"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
-      <c r="B74" s="242"/>
-      <c r="C74" s="242"/>
-      <c r="D74" s="242"/>
-      <c r="E74" s="242"/>
-      <c r="F74" s="242"/>
-      <c r="G74" s="242"/>
-      <c r="H74" s="242"/>
-      <c r="I74" s="242"/>
-      <c r="J74" s="242"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
       <c r="K74" s="14"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
-      <c r="B75" s="242"/>
-      <c r="C75" s="242"/>
-      <c r="D75" s="242"/>
-      <c r="E75" s="242"/>
-      <c r="F75" s="242"/>
-      <c r="G75" s="242"/>
-      <c r="H75" s="242"/>
-      <c r="I75" s="242"/>
-      <c r="J75" s="242"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
       <c r="K75" s="14"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="10"/>
-      <c r="B76" s="242"/>
-      <c r="C76" s="242"/>
-      <c r="D76" s="242"/>
-      <c r="E76" s="242"/>
-      <c r="F76" s="242"/>
-      <c r="G76" s="242"/>
-      <c r="H76" s="242"/>
-      <c r="I76" s="242"/>
-      <c r="J76" s="242"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
       <c r="K76" s="14"/>
     </row>
     <row r="77" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -17686,6 +17762,384 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FB2E68-E56D-49D2-A561-E55B6E533B6E}">
+  <dimension ref="A1:J19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="3.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="89"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="84"/>
+    </row>
+    <row r="2" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="86"/>
+      <c r="B2" s="42" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>260</v>
+      </c>
+      <c r="G2" s="43" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" s="43" t="s">
+        <v>258</v>
+      </c>
+      <c r="I2" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="85"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="86"/>
+      <c r="B3" s="244">
+        <v>1</v>
+      </c>
+      <c r="C3" s="256">
+        <v>131</v>
+      </c>
+      <c r="D3" s="259">
+        <v>23.1</v>
+      </c>
+      <c r="E3" s="261">
+        <v>6.008</v>
+      </c>
+      <c r="F3" s="262">
+        <f>1.02*10^5/(C3*POWER((AVERAGE(D3:D7)*(1+0.02*SQRT(AVERAGE(D3:D7)))),1.5))</f>
+        <v>6.0658301439105928</v>
+      </c>
+      <c r="G3" s="257">
+        <f>ROUND(E3/1.6,0)</f>
+        <v>4</v>
+      </c>
+      <c r="H3" s="265">
+        <f>E3/G3</f>
+        <v>1.502</v>
+      </c>
+      <c r="I3" s="267">
+        <f>ABS(1.6-H3)/1.6</f>
+        <v>6.1250000000000054E-2</v>
+      </c>
+      <c r="J3" s="85"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="86"/>
+      <c r="B4" s="244"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="259">
+        <v>23.01</v>
+      </c>
+      <c r="E4" s="261"/>
+      <c r="F4" s="262"/>
+      <c r="G4" s="257"/>
+      <c r="H4" s="265"/>
+      <c r="I4" s="267"/>
+      <c r="J4" s="85"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="86"/>
+      <c r="B5" s="244"/>
+      <c r="C5" s="256"/>
+      <c r="D5" s="259">
+        <v>23.4</v>
+      </c>
+      <c r="E5" s="261"/>
+      <c r="F5" s="262"/>
+      <c r="G5" s="257"/>
+      <c r="H5" s="265"/>
+      <c r="I5" s="267"/>
+      <c r="J5" s="85"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="86"/>
+      <c r="B6" s="244"/>
+      <c r="C6" s="256"/>
+      <c r="D6" s="259">
+        <v>23.57</v>
+      </c>
+      <c r="E6" s="261"/>
+      <c r="F6" s="262"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="265"/>
+      <c r="I6" s="267"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="86"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="256"/>
+      <c r="D7" s="259">
+        <v>22.97</v>
+      </c>
+      <c r="E7" s="261"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="257"/>
+      <c r="H7" s="265"/>
+      <c r="I7" s="267"/>
+      <c r="J7" s="85"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="86"/>
+      <c r="B8" s="244">
+        <v>2</v>
+      </c>
+      <c r="C8" s="256">
+        <v>128</v>
+      </c>
+      <c r="D8" s="259">
+        <v>12.88</v>
+      </c>
+      <c r="E8" s="261">
+        <v>16.109000000000002</v>
+      </c>
+      <c r="F8" s="262">
+        <f t="shared" ref="F8" si="0">1.02*10^5/(C8*POWER((AVERAGE(D8:D12)*(1+0.02*SQRT(AVERAGE(D8:D12)))),1.5))</f>
+        <v>16.218520293010904</v>
+      </c>
+      <c r="G8" s="257">
+        <f t="shared" ref="G8:G17" si="1">ROUND(E8/1.6,0)</f>
+        <v>10</v>
+      </c>
+      <c r="H8" s="265">
+        <f t="shared" ref="H8" si="2">E8/G8</f>
+        <v>1.6109000000000002</v>
+      </c>
+      <c r="I8" s="267">
+        <f t="shared" ref="I8" si="3">ABS(1.6-H8)/1.6</f>
+        <v>6.8125000000000824E-3</v>
+      </c>
+      <c r="J8" s="85"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="86"/>
+      <c r="B9" s="244"/>
+      <c r="C9" s="256"/>
+      <c r="D9" s="259">
+        <v>12.4</v>
+      </c>
+      <c r="E9" s="261"/>
+      <c r="F9" s="262"/>
+      <c r="G9" s="257"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="267"/>
+      <c r="J9" s="85"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="86"/>
+      <c r="B10" s="244"/>
+      <c r="C10" s="256"/>
+      <c r="D10" s="259">
+        <v>12.12</v>
+      </c>
+      <c r="E10" s="261"/>
+      <c r="F10" s="262"/>
+      <c r="G10" s="257"/>
+      <c r="H10" s="265"/>
+      <c r="I10" s="267"/>
+      <c r="J10" s="85"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="86"/>
+      <c r="B11" s="244"/>
+      <c r="C11" s="256"/>
+      <c r="D11" s="259">
+        <v>12.48</v>
+      </c>
+      <c r="E11" s="261"/>
+      <c r="F11" s="262"/>
+      <c r="G11" s="257"/>
+      <c r="H11" s="265"/>
+      <c r="I11" s="267"/>
+      <c r="J11" s="85"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="86"/>
+      <c r="B12" s="244"/>
+      <c r="C12" s="256"/>
+      <c r="D12" s="259">
+        <v>12.76</v>
+      </c>
+      <c r="E12" s="261"/>
+      <c r="F12" s="262"/>
+      <c r="G12" s="257"/>
+      <c r="H12" s="265"/>
+      <c r="I12" s="267"/>
+      <c r="J12" s="85"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="86"/>
+      <c r="B13" s="244">
+        <v>3</v>
+      </c>
+      <c r="C13" s="256">
+        <v>119</v>
+      </c>
+      <c r="D13" s="259">
+        <v>14.8</v>
+      </c>
+      <c r="E13" s="261">
+        <v>13.659000000000001</v>
+      </c>
+      <c r="F13" s="262">
+        <f t="shared" ref="F13" si="4">1.02*10^5/(C13*POWER((AVERAGE(D13:D17)*(1+0.02*SQRT(AVERAGE(D13:D17)))),1.5))</f>
+        <v>13.7432509926987</v>
+      </c>
+      <c r="G13" s="257">
+        <f t="shared" ref="G13:G17" si="5">ROUND(E13/1.6,0)</f>
+        <v>9</v>
+      </c>
+      <c r="H13" s="265">
+        <f t="shared" ref="H13" si="6">E13/G13</f>
+        <v>1.5176666666666667</v>
+      </c>
+      <c r="I13" s="267">
+        <f t="shared" ref="I13" si="7">ABS(1.6-H13)/1.6</f>
+        <v>5.1458333333333356E-2</v>
+      </c>
+      <c r="J13" s="85"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="86"/>
+      <c r="B14" s="244"/>
+      <c r="C14" s="256"/>
+      <c r="D14" s="259">
+        <v>14.74</v>
+      </c>
+      <c r="E14" s="261"/>
+      <c r="F14" s="262"/>
+      <c r="G14" s="257"/>
+      <c r="H14" s="265"/>
+      <c r="I14" s="267"/>
+      <c r="J14" s="85"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="86"/>
+      <c r="B15" s="244"/>
+      <c r="C15" s="256"/>
+      <c r="D15" s="259">
+        <v>14.37</v>
+      </c>
+      <c r="E15" s="261"/>
+      <c r="F15" s="262"/>
+      <c r="G15" s="257"/>
+      <c r="H15" s="265"/>
+      <c r="I15" s="267"/>
+      <c r="J15" s="85"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="86"/>
+      <c r="B16" s="244"/>
+      <c r="C16" s="256"/>
+      <c r="D16" s="259">
+        <v>14.65</v>
+      </c>
+      <c r="E16" s="261"/>
+      <c r="F16" s="262"/>
+      <c r="G16" s="257"/>
+      <c r="H16" s="265"/>
+      <c r="I16" s="267"/>
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="86"/>
+      <c r="B17" s="220"/>
+      <c r="C17" s="233"/>
+      <c r="D17" s="260">
+        <v>14.49</v>
+      </c>
+      <c r="E17" s="263"/>
+      <c r="F17" s="264"/>
+      <c r="G17" s="258"/>
+      <c r="H17" s="266"/>
+      <c r="I17" s="268"/>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="86"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="269"/>
+      <c r="I18" s="269"/>
+      <c r="J18" s="85"/>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="107"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="87"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="I3:I7"/>
+    <mergeCell ref="I8:I12"/>
+    <mergeCell ref="I13:I17"/>
+    <mergeCell ref="G3:G7"/>
+    <mergeCell ref="G8:G12"/>
+    <mergeCell ref="G13:G17"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H13:H17"/>
+    <mergeCell ref="E3:E7"/>
+    <mergeCell ref="E8:E12"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F3:F7"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="B8:B12"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="C8:C12"/>
+    <mergeCell ref="C13:C17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="F3:F17" formulaRange="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -17707,15 +18161,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="206" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="193"/>
-      <c r="C1" s="193"/>
-      <c r="D1" s="193"/>
-      <c r="E1" s="193"/>
-      <c r="F1" s="193"/>
-      <c r="G1" s="193"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
       <c r="H1" s="12"/>
     </row>
     <row r="2" spans="1:15" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -18232,15 +18686,15 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="194" t="s">
+      <c r="A17" s="208" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="195"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="195"/>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="209"/>
+      <c r="D17" s="209"/>
+      <c r="E17" s="209"/>
+      <c r="F17" s="209"/>
+      <c r="G17" s="209"/>
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
@@ -18962,11 +19416,11 @@
     <row r="1" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="89"/>
       <c r="B1" s="88"/>
-      <c r="C1" s="197" t="s">
+      <c r="C1" s="211" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
+      <c r="D1" s="211"/>
+      <c r="E1" s="211"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
@@ -19050,7 +19504,7 @@
       <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
+      <c r="A7" s="210" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="3">
@@ -19072,7 +19526,7 @@
       <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
+      <c r="A8" s="210"/>
       <c r="B8" s="3">
         <v>2</v>
       </c>
@@ -19092,7 +19546,7 @@
       <c r="J8" s="85"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
+      <c r="A9" s="210"/>
       <c r="B9" s="3">
         <v>3</v>
       </c>
@@ -19112,7 +19566,7 @@
       <c r="J9" s="85"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="196"/>
+      <c r="A10" s="210"/>
       <c r="B10" s="3">
         <v>4</v>
       </c>
@@ -19132,7 +19586,7 @@
       <c r="J10" s="85"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="196"/>
+      <c r="A11" s="210"/>
       <c r="B11" s="3">
         <v>5</v>
       </c>
@@ -19152,7 +19606,7 @@
       <c r="J11" s="85"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="196"/>
+      <c r="A12" s="210"/>
       <c r="B12" s="3">
         <v>6</v>
       </c>
@@ -19172,7 +19626,7 @@
       <c r="J12" s="85"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="196"/>
+      <c r="A13" s="210"/>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
@@ -19693,22 +20147,22 @@
       <c r="L1" s="84"/>
     </row>
     <row r="2" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="222" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="200"/>
-      <c r="C2" s="200"/>
-      <c r="D2" s="200"/>
+      <c r="B2" s="223"/>
+      <c r="C2" s="223"/>
+      <c r="D2" s="223"/>
       <c r="E2" s="93" t="s">
         <v>90</v>
       </c>
       <c r="F2" s="11"/>
-      <c r="G2" s="203" t="s">
+      <c r="G2" s="218" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="204"/>
-      <c r="I2" s="204"/>
-      <c r="J2" s="204"/>
+      <c r="H2" s="219"/>
+      <c r="I2" s="219"/>
+      <c r="J2" s="219"/>
       <c r="K2" s="94">
         <f>TRUNC(E2)+MID(E2,5,2)/60+MID(E2,7,2)/3600</f>
         <v>267.41666666666669</v>
@@ -19718,12 +20172,12 @@
     <row r="3" spans="1:12" ht="14.4" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="86"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="205" t="s">
+      <c r="G3" s="220" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
+      <c r="H3" s="221"/>
+      <c r="I3" s="221"/>
+      <c r="J3" s="221"/>
       <c r="K3" s="90">
         <f>1/3000</f>
         <v>3.3333333333333332E-4</v>
@@ -19745,21 +20199,21 @@
       <c r="L4" s="85"/>
     </row>
     <row r="5" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="207" t="s">
+      <c r="A5" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="208" t="s">
+      <c r="B5" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="208" t="s">
+      <c r="C5" s="212" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="210"/>
+      <c r="D5" s="216"/>
       <c r="L5" s="85"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="196"/>
-      <c r="B6" s="209"/>
+      <c r="A6" s="210"/>
+      <c r="B6" s="215"/>
       <c r="C6" s="91" t="s">
         <v>82</v>
       </c>
@@ -19769,7 +20223,7 @@
       <c r="L6" s="85"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="196">
+      <c r="A7" s="210">
         <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -19781,13 +20235,13 @@
       <c r="D7" s="103" t="s">
         <v>92</v>
       </c>
-      <c r="F7" s="201" t="s">
+      <c r="F7" s="224" t="s">
         <v>109</v>
       </c>
       <c r="L7" s="85"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
+      <c r="A8" s="210"/>
       <c r="B8" s="3" t="s">
         <v>85</v>
       </c>
@@ -19797,11 +20251,11 @@
       <c r="D8" s="103" t="s">
         <v>94</v>
       </c>
-      <c r="F8" s="202"/>
+      <c r="F8" s="225"/>
       <c r="L8" s="85"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
+      <c r="A9" s="210"/>
       <c r="B9" s="3" t="s">
         <v>86</v>
       </c>
@@ -19811,11 +20265,11 @@
       <c r="D9" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="202"/>
+      <c r="F9" s="225"/>
       <c r="L9" s="85"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="196">
+      <c r="A10" s="210">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -19827,11 +20281,11 @@
       <c r="D10" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="202"/>
+      <c r="F10" s="225"/>
       <c r="L10" s="85"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="196"/>
+      <c r="A11" s="210"/>
       <c r="B11" s="3" t="s">
         <v>85</v>
       </c>
@@ -19841,11 +20295,11 @@
       <c r="D11" s="103" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="202"/>
+      <c r="F11" s="225"/>
       <c r="L11" s="85"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="196"/>
+      <c r="A12" s="210"/>
       <c r="B12" s="3" t="s">
         <v>86</v>
       </c>
@@ -19855,11 +20309,11 @@
       <c r="D12" s="103" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="202"/>
+      <c r="F12" s="225"/>
       <c r="L12" s="85"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="196">
+      <c r="A13" s="210">
         <v>3</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -19871,11 +20325,11 @@
       <c r="D13" s="103" t="s">
         <v>107</v>
       </c>
-      <c r="F13" s="202"/>
+      <c r="F13" s="225"/>
       <c r="L13" s="85"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="196"/>
+      <c r="A14" s="210"/>
       <c r="B14" s="3" t="s">
         <v>85</v>
       </c>
@@ -19885,11 +20339,11 @@
       <c r="D14" s="103" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="202"/>
+      <c r="F14" s="225"/>
       <c r="L14" s="85"/>
     </row>
     <row r="15" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="198"/>
+      <c r="A15" s="213"/>
       <c r="B15" s="4" t="s">
         <v>86</v>
       </c>
@@ -19906,40 +20360,40 @@
       <c r="L16" s="85"/>
     </row>
     <row r="17" spans="1:12" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="207" t="s">
+      <c r="A17" s="214" t="s">
         <v>77</v>
       </c>
-      <c r="B17" s="208" t="s">
+      <c r="B17" s="212" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="208" t="s">
+      <c r="C17" s="212" t="s">
         <v>79</v>
       </c>
-      <c r="D17" s="208"/>
-      <c r="E17" s="208" t="s">
+      <c r="D17" s="212"/>
+      <c r="E17" s="212" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="208"/>
-      <c r="G17" s="208" t="s">
+      <c r="F17" s="212"/>
+      <c r="G17" s="212" t="s">
         <v>81</v>
       </c>
-      <c r="H17" s="208" t="s">
+      <c r="H17" s="212" t="s">
         <v>87</v>
       </c>
-      <c r="I17" s="208" t="s">
+      <c r="I17" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="208" t="s">
+      <c r="J17" s="212" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="210" t="s">
+      <c r="K17" s="216" t="s">
         <v>2</v>
       </c>
       <c r="L17" s="85"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="196"/>
-      <c r="B18" s="209"/>
+      <c r="A18" s="210"/>
+      <c r="B18" s="215"/>
       <c r="C18" s="91" t="s">
         <v>82</v>
       </c>
@@ -19952,15 +20406,15 @@
       <c r="F18" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="G18" s="209"/>
-      <c r="H18" s="209"/>
-      <c r="I18" s="209"/>
-      <c r="J18" s="209"/>
-      <c r="K18" s="211"/>
+      <c r="G18" s="215"/>
+      <c r="H18" s="215"/>
+      <c r="I18" s="215"/>
+      <c r="J18" s="215"/>
+      <c r="K18" s="217"/>
       <c r="L18" s="85"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="196">
+      <c r="A19" s="210">
         <v>1</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -20005,7 +20459,7 @@
       <c r="L19" s="85"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="196"/>
+      <c r="A20" s="210"/>
       <c r="B20" s="3" t="s">
         <v>85</v>
       </c>
@@ -20048,7 +20502,7 @@
       <c r="L20" s="85"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="196"/>
+      <c r="A21" s="210"/>
       <c r="B21" s="3" t="s">
         <v>86</v>
       </c>
@@ -20091,7 +20545,7 @@
       <c r="L21" s="85"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="196">
+      <c r="A22" s="210">
         <v>2</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -20136,7 +20590,7 @@
       <c r="L22" s="85"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="196"/>
+      <c r="A23" s="210"/>
       <c r="B23" s="3" t="s">
         <v>85</v>
       </c>
@@ -20179,7 +20633,7 @@
       <c r="L23" s="85"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="196"/>
+      <c r="A24" s="210"/>
       <c r="B24" s="3" t="s">
         <v>86</v>
       </c>
@@ -20222,7 +20676,7 @@
       <c r="L24" s="85"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="196">
+      <c r="A25" s="210">
         <v>3</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -20267,7 +20721,7 @@
       <c r="L25" s="85"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="196"/>
+      <c r="A26" s="210"/>
       <c r="B26" s="3" t="s">
         <v>85</v>
       </c>
@@ -20310,7 +20764,7 @@
       <c r="L26" s="85"/>
     </row>
     <row r="27" spans="1:12" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="198"/>
+      <c r="A27" s="213"/>
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
@@ -20368,28 +20822,28 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F7:F14"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F7:F14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20698,10 +21152,10 @@
       <c r="D2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E2" s="212" t="s">
+      <c r="E2" s="226" t="s">
         <v>133</v>
       </c>
-      <c r="F2" s="213"/>
+      <c r="F2" s="227"/>
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -20718,7 +21172,7 @@
         <f>B3-C3</f>
         <v>10.413</v>
       </c>
-      <c r="E3" s="214">
+      <c r="E3" s="228">
         <f>D3-D4</f>
         <v>1.0130000000000017</v>
       </c>
@@ -20739,8 +21193,8 @@
         <f t="shared" ref="D4:D8" si="0">B4-C4</f>
         <v>9.3999999999999986</v>
       </c>
-      <c r="E4" s="214"/>
-      <c r="F4" s="215">
+      <c r="E4" s="228"/>
+      <c r="F4" s="229">
         <f>D4-D5</f>
         <v>0.74200000000000088</v>
       </c>
@@ -20760,11 +21214,11 @@
         <f t="shared" si="0"/>
         <v>8.6579999999999977</v>
       </c>
-      <c r="E5" s="214">
+      <c r="E5" s="228">
         <f t="shared" ref="E5:E7" si="1">D5-D6</f>
         <v>1.0999999999999979</v>
       </c>
-      <c r="F5" s="215"/>
+      <c r="F5" s="229"/>
       <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -20781,8 +21235,8 @@
         <f t="shared" si="0"/>
         <v>7.5579999999999998</v>
       </c>
-      <c r="E6" s="214"/>
-      <c r="F6" s="215">
+      <c r="E6" s="228"/>
+      <c r="F6" s="229">
         <f>D6-D7</f>
         <v>1.3090000000000011</v>
       </c>
@@ -20802,11 +21256,11 @@
         <f t="shared" si="0"/>
         <v>6.2489999999999988</v>
       </c>
-      <c r="E7" s="214">
+      <c r="E7" s="228">
         <f t="shared" si="1"/>
         <v>1.4309999999999974</v>
       </c>
-      <c r="F7" s="215"/>
+      <c r="F7" s="229"/>
       <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -20823,7 +21277,7 @@
         <f t="shared" si="0"/>
         <v>4.8180000000000014</v>
       </c>
-      <c r="E8" s="216"/>
+      <c r="E8" s="230"/>
       <c r="F8" s="51"/>
       <c r="G8" s="14"/>
     </row>
@@ -21121,30 +21575,30 @@
     </row>
     <row r="6" spans="1:10" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="86"/>
-      <c r="B6" s="217" t="s">
+      <c r="B6" s="231" t="s">
         <v>150</v>
       </c>
-      <c r="C6" s="208"/>
-      <c r="D6" s="208"/>
-      <c r="E6" s="208" t="s">
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212" t="s">
         <v>151</v>
       </c>
-      <c r="F6" s="208"/>
-      <c r="G6" s="210"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="216"/>
       <c r="J6" s="85"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="86"/>
-      <c r="B7" s="218" t="s">
+      <c r="B7" s="232" t="s">
         <v>152</v>
       </c>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219" t="s">
+      <c r="C7" s="233"/>
+      <c r="D7" s="233"/>
+      <c r="E7" s="233" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="219"/>
-      <c r="G7" s="220"/>
+      <c r="F7" s="233"/>
+      <c r="G7" s="234"/>
       <c r="J7" s="85"/>
     </row>
     <row r="8" spans="1:10" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -21329,76 +21783,76 @@
     </row>
     <row r="17" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="86"/>
-      <c r="B17" s="221" t="s">
+      <c r="B17" s="235" t="s">
         <v>199</v>
       </c>
-      <c r="C17" s="221"/>
-      <c r="D17" s="221"/>
-      <c r="E17" s="221"/>
-      <c r="F17" s="221"/>
-      <c r="G17" s="221"/>
-      <c r="H17" s="221"/>
-      <c r="I17" s="221"/>
+      <c r="C17" s="235"/>
+      <c r="D17" s="235"/>
+      <c r="E17" s="235"/>
+      <c r="F17" s="235"/>
+      <c r="G17" s="235"/>
+      <c r="H17" s="235"/>
+      <c r="I17" s="235"/>
       <c r="J17" s="85"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="86"/>
-      <c r="B18" s="221"/>
-      <c r="C18" s="221"/>
-      <c r="D18" s="221"/>
-      <c r="E18" s="221"/>
-      <c r="F18" s="221"/>
-      <c r="G18" s="221"/>
-      <c r="H18" s="221"/>
-      <c r="I18" s="221"/>
+      <c r="B18" s="235"/>
+      <c r="C18" s="235"/>
+      <c r="D18" s="235"/>
+      <c r="E18" s="235"/>
+      <c r="F18" s="235"/>
+      <c r="G18" s="235"/>
+      <c r="H18" s="235"/>
+      <c r="I18" s="235"/>
       <c r="J18" s="85"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="86"/>
-      <c r="B19" s="221"/>
-      <c r="C19" s="221"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="221"/>
-      <c r="F19" s="221"/>
-      <c r="G19" s="221"/>
-      <c r="H19" s="221"/>
-      <c r="I19" s="221"/>
+      <c r="B19" s="235"/>
+      <c r="C19" s="235"/>
+      <c r="D19" s="235"/>
+      <c r="E19" s="235"/>
+      <c r="F19" s="235"/>
+      <c r="G19" s="235"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="235"/>
       <c r="J19" s="85"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="86"/>
-      <c r="B20" s="221"/>
-      <c r="C20" s="221"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="221"/>
-      <c r="F20" s="221"/>
-      <c r="G20" s="221"/>
-      <c r="H20" s="221"/>
-      <c r="I20" s="221"/>
+      <c r="B20" s="235"/>
+      <c r="C20" s="235"/>
+      <c r="D20" s="235"/>
+      <c r="E20" s="235"/>
+      <c r="F20" s="235"/>
+      <c r="G20" s="235"/>
+      <c r="H20" s="235"/>
+      <c r="I20" s="235"/>
       <c r="J20" s="85"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="86"/>
-      <c r="B21" s="221"/>
-      <c r="C21" s="221"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="221"/>
-      <c r="F21" s="221"/>
-      <c r="G21" s="221"/>
-      <c r="H21" s="221"/>
-      <c r="I21" s="221"/>
+      <c r="B21" s="235"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="235"/>
+      <c r="E21" s="235"/>
+      <c r="F21" s="235"/>
+      <c r="G21" s="235"/>
+      <c r="H21" s="235"/>
+      <c r="I21" s="235"/>
       <c r="J21" s="85"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="86"/>
-      <c r="B22" s="221"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="221"/>
-      <c r="F22" s="221"/>
-      <c r="G22" s="221"/>
-      <c r="H22" s="221"/>
-      <c r="I22" s="221"/>
+      <c r="B22" s="235"/>
+      <c r="C22" s="235"/>
+      <c r="D22" s="235"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="235"/>
       <c r="J22" s="85"/>
     </row>
     <row r="23" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -22224,18 +22678,18 @@
     </row>
     <row r="19" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="86"/>
-      <c r="B19" s="222" t="s">
+      <c r="B19" s="236" t="s">
         <v>173</v>
       </c>
-      <c r="C19" s="223"/>
-      <c r="D19" s="223"/>
-      <c r="E19" s="223"/>
-      <c r="F19" s="224">
+      <c r="C19" s="237"/>
+      <c r="D19" s="237"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="238">
         <f>MAX(S3:AF5)</f>
         <v>0.39032</v>
       </c>
-      <c r="G19" s="224"/>
-      <c r="H19" s="225"/>
+      <c r="G19" s="238"/>
+      <c r="H19" s="239"/>
       <c r="Q19" s="85"/>
     </row>
     <row r="20" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22244,18 +22698,18 @@
     </row>
     <row r="21" spans="1:17" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="86"/>
-      <c r="B21" s="222" t="s">
+      <c r="B21" s="236" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="223"/>
-      <c r="D21" s="223"/>
-      <c r="E21" s="223"/>
-      <c r="F21" s="226">
+      <c r="C21" s="237"/>
+      <c r="D21" s="237"/>
+      <c r="E21" s="237"/>
+      <c r="F21" s="240">
         <f>F19/C3</f>
         <v>0.17440571939231456</v>
       </c>
-      <c r="G21" s="226"/>
-      <c r="H21" s="227"/>
+      <c r="G21" s="240"/>
+      <c r="H21" s="241"/>
       <c r="Q21" s="85"/>
     </row>
     <row r="22" spans="1:17" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
